--- a/GA4Robust/Book1.xlsx
+++ b/GA4Robust/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenwang/Documents/ExperimentResults/GA4Robust/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DF69BB-1E2B-B240-90E7-F8EE0D7E4B9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA6A8D3-71D9-D549-BE1A-77BC3E0CA993}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19260" activeTab="10" xr2:uid="{F1300CCD-A310-7946-86EE-3F30CFB335E8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" firstSheet="1" activeTab="17" xr2:uid="{F1300CCD-A310-7946-86EE-3F30CFB335E8}"/>
   </bookViews>
   <sheets>
     <sheet name="0901 (200)" sheetId="16" r:id="rId1"/>
@@ -118,10 +118,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -169,7 +170,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +180,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -213,12 +226,17 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1115,7 +1133,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2115,24 +2133,24 @@
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="B38" s="15">
+      <c r="B38" s="16">
         <v>50</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="I38" s="15">
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="I38" s="16">
         <v>200</v>
       </c>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2147,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4EE570-EC40-C440-B3AB-A22AAA4D15BE}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3065,7 +3083,7 @@
       <c r="A32" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="14">
         <f>AVERAGE(B1:B31)</f>
         <v>0.57890193333333329</v>
       </c>
@@ -3073,7 +3091,7 @@
         <f>AVERAGE(C1:C31)</f>
         <v>4.7333333333333334</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="14">
         <f>AVERAGE(D1:D30)</f>
         <v>0.57188856666666676</v>
       </c>
@@ -3081,7 +3099,7 @@
         <f>AVERAGE(E1:E30)</f>
         <v>3.6</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="14">
         <f>AVERAGE(G1:G30)</f>
         <v>0.57824378268487164</v>
       </c>
@@ -3089,7 +3107,7 @@
         <f>AVERAGE(H1:H30)</f>
         <v>1.2333333333333334</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="15">
         <f>AVERAGE(I1:I30)</f>
         <v>0.57140446666666667</v>
       </c>
@@ -3103,7 +3121,7 @@
       <c r="A33" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="14">
         <f>STDEV(B1:B30)</f>
         <v>8.4424191415091165E-3</v>
       </c>
@@ -3111,7 +3129,7 @@
         <f>STDEV(C1:C30)</f>
         <v>2.6772777390390456</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="14">
         <f>STDEV(D1:D30)</f>
         <v>7.4912515628672311E-3</v>
       </c>
@@ -3119,11 +3137,15 @@
         <f>STDEV(E1:E30)</f>
         <v>2.5407031337393793</v>
       </c>
+      <c r="G33" s="14">
+        <f>STDEV(G1:G30)</f>
+        <v>1.6726933567469366E-2</v>
+      </c>
       <c r="H33">
-        <f t="shared" ref="H33:K33" si="0">STDEV(H1:H30)</f>
+        <f t="shared" ref="H33:J33" si="0">STDEV(H1:H30)</f>
         <v>1.4064710873459965</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="15">
         <f t="shared" si="0"/>
         <v>1.1837524842440765E-2</v>
       </c>
@@ -3133,11 +3155,11 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34">
+      <c r="C34" s="15">
         <f>C32/200</f>
         <v>2.3666666666666666E-2</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="14">
         <f>E32/200</f>
         <v>1.8000000000000002E-2</v>
       </c>
@@ -3146,51 +3168,51 @@
       <c r="A35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="15">
         <f>C33/200</f>
         <v>1.3386388695195229E-2</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="14">
         <f>E33/200</f>
         <v>1.2703515668696897E-2</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="14">
         <f>H32/200</f>
         <v>6.1666666666666667E-3</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="15">
         <f>J32/200</f>
         <v>4.5000000000000005E-3</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="18">
       <c r="B36" s="13"/>
-      <c r="H36">
+      <c r="H36" s="14">
         <f>H33/200</f>
         <v>7.0323554367299826E-3</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="15">
         <f>J33/200</f>
         <v>4.4236823481395423E-3</v>
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="B38" s="14">
+      <c r="B38" s="17">
         <v>200</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="G38" s="15">
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="G38" s="16">
         <v>50</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3726,10 +3748,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02405CBC-6F74-0B41-AD59-B3D6C8397CDF}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3737,9 +3759,11 @@
     <col min="2" max="2" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.1640625" customWidth="1"/>
     <col min="4" max="4" width="27" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="19"/>
+    <col min="16" max="16" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:17">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -3755,8 +3779,35 @@
       <c r="E1" s="4">
         <v>4015</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="I1" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="J1" s="4">
+        <v>16009</v>
+      </c>
+      <c r="K1" s="18">
+        <f>J1/200</f>
+        <v>80.045000000000002</v>
+      </c>
+      <c r="L1" s="4">
+        <v>0</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="O1" s="4">
+        <v>15439</v>
+      </c>
+      <c r="P1" s="18">
+        <f>O1/200</f>
+        <v>77.194999999999993</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3772,8 +3823,35 @@
       <c r="E2" s="4">
         <v>3759</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="I2" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="J2" s="4">
+        <v>16416</v>
+      </c>
+      <c r="K2" s="18">
+        <f t="shared" ref="K2:K30" si="0">J2/200</f>
+        <v>82.08</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="O2" s="4">
+        <v>15298</v>
+      </c>
+      <c r="P2" s="18">
+        <f t="shared" ref="P2:P30" si="1">O2/200</f>
+        <v>76.489999999999995</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3789,8 +3867,35 @@
       <c r="E3" s="4">
         <v>3831</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="I3" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="J3" s="4">
+        <v>15218</v>
+      </c>
+      <c r="K3" s="18">
+        <f t="shared" si="0"/>
+        <v>76.09</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="O3" s="4">
+        <v>15120</v>
+      </c>
+      <c r="P3" s="18">
+        <f t="shared" si="1"/>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3806,8 +3911,35 @@
       <c r="E4" s="4">
         <v>4123</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="I4" s="4">
+        <v>0.92256604821696497</v>
+      </c>
+      <c r="J4" s="4">
+        <v>16326</v>
+      </c>
+      <c r="K4" s="18">
+        <f t="shared" si="0"/>
+        <v>81.63</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
+        <v>0.92256604821696497</v>
+      </c>
+      <c r="O4" s="4">
+        <v>15542</v>
+      </c>
+      <c r="P4" s="18">
+        <f t="shared" si="1"/>
+        <v>77.709999999999994</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3823,8 +3955,35 @@
       <c r="E5" s="4">
         <v>4370</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="I5" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="J5" s="4">
+        <v>16126</v>
+      </c>
+      <c r="K5" s="18">
+        <f t="shared" si="0"/>
+        <v>80.63</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="O5" s="4">
+        <v>14666</v>
+      </c>
+      <c r="P5" s="18">
+        <f t="shared" si="1"/>
+        <v>73.33</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3840,8 +3999,35 @@
       <c r="E6" s="4">
         <v>4263</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="I6" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="J6" s="4">
+        <v>15405</v>
+      </c>
+      <c r="K6" s="18">
+        <f t="shared" si="0"/>
+        <v>77.025000000000006</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="O6" s="4">
+        <v>14775</v>
+      </c>
+      <c r="P6" s="18">
+        <f t="shared" si="1"/>
+        <v>73.875</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3857,8 +4043,35 @@
       <c r="E7" s="4">
         <v>3963</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="I7" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="J7" s="4">
+        <v>16034</v>
+      </c>
+      <c r="K7" s="18">
+        <f t="shared" si="0"/>
+        <v>80.17</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="O7" s="4">
+        <v>15348</v>
+      </c>
+      <c r="P7" s="18">
+        <f t="shared" si="1"/>
+        <v>76.739999999999995</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3874,8 +4087,35 @@
       <c r="E8" s="4">
         <v>3506</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="I8" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="J8" s="4">
+        <v>15439</v>
+      </c>
+      <c r="K8" s="18">
+        <f t="shared" si="0"/>
+        <v>77.194999999999993</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="O8" s="4">
+        <v>14610</v>
+      </c>
+      <c r="P8" s="18">
+        <f t="shared" si="1"/>
+        <v>73.05</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3891,8 +4131,35 @@
       <c r="E9" s="4">
         <v>3681</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="I9" s="4">
+        <v>0.92256604821696497</v>
+      </c>
+      <c r="J9" s="4">
+        <v>16548</v>
+      </c>
+      <c r="K9" s="18">
+        <f t="shared" si="0"/>
+        <v>82.74</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
+        <v>0.92256604821696497</v>
+      </c>
+      <c r="O9" s="4">
+        <v>14077</v>
+      </c>
+      <c r="P9" s="18">
+        <f t="shared" si="1"/>
+        <v>70.385000000000005</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3908,8 +4175,35 @@
       <c r="E10" s="4">
         <v>4372</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="I10" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="J10" s="4">
+        <v>16638</v>
+      </c>
+      <c r="K10" s="18">
+        <f t="shared" si="0"/>
+        <v>83.19</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="O10" s="4">
+        <v>15856</v>
+      </c>
+      <c r="P10" s="18">
+        <f t="shared" si="1"/>
+        <v>79.28</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3925,8 +4219,35 @@
       <c r="E11" s="4">
         <v>3781</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="I11" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="J11" s="4">
+        <v>16009</v>
+      </c>
+      <c r="K11" s="18">
+        <f t="shared" si="0"/>
+        <v>80.045000000000002</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="O11" s="4">
+        <v>15195</v>
+      </c>
+      <c r="P11" s="18">
+        <f t="shared" si="1"/>
+        <v>75.974999999999994</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3942,8 +4263,35 @@
       <c r="E12" s="4">
         <v>3805</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="I12" s="4">
+        <v>0.92256604821696397</v>
+      </c>
+      <c r="J12" s="4">
+        <v>15907</v>
+      </c>
+      <c r="K12" s="18">
+        <f t="shared" si="0"/>
+        <v>79.534999999999997</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
+        <v>0.92256604821696397</v>
+      </c>
+      <c r="O12" s="4">
+        <v>15096</v>
+      </c>
+      <c r="P12" s="18">
+        <f t="shared" si="1"/>
+        <v>75.48</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3959,8 +4307,35 @@
       <c r="E13" s="4">
         <v>4120</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="I13" s="4">
+        <v>0.92081435771208098</v>
+      </c>
+      <c r="J13" s="4">
+        <v>16108</v>
+      </c>
+      <c r="K13" s="18">
+        <f t="shared" si="0"/>
+        <v>80.540000000000006</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4">
+        <v>0.92081435771208098</v>
+      </c>
+      <c r="O13" s="4">
+        <v>16641</v>
+      </c>
+      <c r="P13" s="18">
+        <f t="shared" si="1"/>
+        <v>83.204999999999998</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3976,8 +4351,35 @@
       <c r="E14" s="4">
         <v>4065</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="I14" s="4">
+        <v>0.92133933907860799</v>
+      </c>
+      <c r="J14" s="4">
+        <v>16063</v>
+      </c>
+      <c r="K14" s="18">
+        <f t="shared" si="0"/>
+        <v>80.314999999999998</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
+        <v>0.92133933907860799</v>
+      </c>
+      <c r="O14" s="4">
+        <v>16266</v>
+      </c>
+      <c r="P14" s="18">
+        <f t="shared" si="1"/>
+        <v>81.33</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3993,8 +4395,35 @@
       <c r="E15" s="4">
         <v>4141</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="I15" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="J15" s="4">
+        <v>16153</v>
+      </c>
+      <c r="K15" s="18">
+        <f t="shared" si="0"/>
+        <v>80.765000000000001</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="O15" s="4">
+        <v>16683</v>
+      </c>
+      <c r="P15" s="18">
+        <f t="shared" si="1"/>
+        <v>83.415000000000006</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4010,8 +4439,35 @@
       <c r="E16" s="4">
         <v>4109</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="I16" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="J16" s="4">
+        <v>15995</v>
+      </c>
+      <c r="K16" s="18">
+        <f t="shared" si="0"/>
+        <v>79.974999999999994</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="O16" s="4">
+        <v>14678</v>
+      </c>
+      <c r="P16" s="18">
+        <f t="shared" si="1"/>
+        <v>73.39</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4027,8 +4483,35 @@
       <c r="E17" s="4">
         <v>4118</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="I17" s="4">
+        <v>0.922054457161404</v>
+      </c>
+      <c r="J17" s="4">
+        <v>16575</v>
+      </c>
+      <c r="K17" s="18">
+        <f t="shared" si="0"/>
+        <v>82.875</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4">
+        <v>0.922054457161404</v>
+      </c>
+      <c r="O17" s="4">
+        <v>15800</v>
+      </c>
+      <c r="P17" s="18">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4044,8 +4527,35 @@
       <c r="E18" s="4">
         <v>3836</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="I18" s="4">
+        <v>0.92138821960386796</v>
+      </c>
+      <c r="J18" s="4">
+        <v>17556</v>
+      </c>
+      <c r="K18" s="18">
+        <f t="shared" si="0"/>
+        <v>87.78</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4">
+        <v>0.92138821960386796</v>
+      </c>
+      <c r="O18" s="4">
+        <v>14833</v>
+      </c>
+      <c r="P18" s="18">
+        <f t="shared" si="1"/>
+        <v>74.165000000000006</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4061,8 +4571,35 @@
       <c r="E19" s="4">
         <v>4120</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="I19" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="J19" s="4">
+        <v>16415</v>
+      </c>
+      <c r="K19" s="18">
+        <f t="shared" si="0"/>
+        <v>82.075000000000003</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="O19" s="4">
+        <v>14255</v>
+      </c>
+      <c r="P19" s="18">
+        <f t="shared" si="1"/>
+        <v>71.275000000000006</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4078,8 +4615,35 @@
       <c r="E20" s="4">
         <v>4719</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="I20" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="J20" s="4">
+        <v>16359</v>
+      </c>
+      <c r="K20" s="18">
+        <f t="shared" si="0"/>
+        <v>81.795000000000002</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="O20" s="4">
+        <v>14515</v>
+      </c>
+      <c r="P20" s="18">
+        <f t="shared" si="1"/>
+        <v>72.575000000000003</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4095,8 +4659,35 @@
       <c r="E21" s="4">
         <v>3793</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="I21" s="4">
+        <v>0.92256604821696397</v>
+      </c>
+      <c r="J21" s="4">
+        <v>15460</v>
+      </c>
+      <c r="K21" s="18">
+        <f t="shared" si="0"/>
+        <v>77.3</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4">
+        <v>0.92256604821696397</v>
+      </c>
+      <c r="O21" s="4">
+        <v>13717</v>
+      </c>
+      <c r="P21" s="18">
+        <f t="shared" si="1"/>
+        <v>68.584999999999994</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4112,8 +4703,35 @@
       <c r="E22" s="4">
         <v>4193</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="I22" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="J22" s="4">
+        <v>15719</v>
+      </c>
+      <c r="K22" s="18">
+        <f t="shared" si="0"/>
+        <v>78.594999999999999</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="O22" s="4">
+        <v>14611</v>
+      </c>
+      <c r="P22" s="18">
+        <f t="shared" si="1"/>
+        <v>73.055000000000007</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4129,8 +4747,35 @@
       <c r="E23" s="4">
         <v>4607</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="I23" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="J23" s="4">
+        <v>16228</v>
+      </c>
+      <c r="K23" s="18">
+        <f t="shared" si="0"/>
+        <v>81.14</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="O23" s="4">
+        <v>15924</v>
+      </c>
+      <c r="P23" s="18">
+        <f t="shared" si="1"/>
+        <v>79.62</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4146,8 +4791,35 @@
       <c r="E24" s="4">
         <v>4321</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="I24" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="J24" s="4">
+        <v>16160</v>
+      </c>
+      <c r="K24" s="18">
+        <f t="shared" si="0"/>
+        <v>80.8</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="O24" s="4">
+        <v>14857</v>
+      </c>
+      <c r="P24" s="18">
+        <f t="shared" si="1"/>
+        <v>74.284999999999997</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4163,8 +4835,35 @@
       <c r="E25" s="4">
         <v>3896</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="I25" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="J25" s="4">
+        <v>15748</v>
+      </c>
+      <c r="K25" s="18">
+        <f t="shared" si="0"/>
+        <v>78.739999999999995</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="O25" s="4">
+        <v>14176</v>
+      </c>
+      <c r="P25" s="18">
+        <f t="shared" si="1"/>
+        <v>70.88</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4180,8 +4879,35 @@
       <c r="E26" s="4">
         <v>4380</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="I26" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="J26" s="4">
+        <v>19201</v>
+      </c>
+      <c r="K26" s="18">
+        <f t="shared" si="0"/>
+        <v>96.004999999999995</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="O26" s="4">
+        <v>14890</v>
+      </c>
+      <c r="P26" s="18">
+        <f t="shared" si="1"/>
+        <v>74.45</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4197,8 +4923,35 @@
       <c r="E27" s="4">
         <v>4217</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="I27" s="4">
+        <v>0.92256604821696397</v>
+      </c>
+      <c r="J27" s="4">
+        <v>17360</v>
+      </c>
+      <c r="K27" s="18">
+        <f t="shared" si="0"/>
+        <v>86.8</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4">
+        <v>0.92256604821696397</v>
+      </c>
+      <c r="O27" s="4">
+        <v>14435</v>
+      </c>
+      <c r="P27" s="18">
+        <f t="shared" si="1"/>
+        <v>72.174999999999997</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4214,8 +4967,35 @@
       <c r="E28" s="4">
         <v>4077</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="I28" s="4">
+        <v>0.92256604821696397</v>
+      </c>
+      <c r="J28" s="4">
+        <v>17498</v>
+      </c>
+      <c r="K28" s="18">
+        <f t="shared" si="0"/>
+        <v>87.49</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4">
+        <v>0.92256604821696397</v>
+      </c>
+      <c r="O28" s="4">
+        <v>14094</v>
+      </c>
+      <c r="P28" s="18">
+        <f t="shared" si="1"/>
+        <v>70.47</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4231,8 +5011,35 @@
       <c r="E29" s="4">
         <v>4361</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="I29" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="J29" s="4">
+        <v>15852</v>
+      </c>
+      <c r="K29" s="18">
+        <f t="shared" si="0"/>
+        <v>79.260000000000005</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="O29" s="4">
+        <v>14157</v>
+      </c>
+      <c r="P29" s="18">
+        <f t="shared" si="1"/>
+        <v>70.784999999999997</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4248,8 +5055,38 @@
       <c r="E30" s="4">
         <v>3762</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="I30" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="J30" s="4">
+        <v>15233</v>
+      </c>
+      <c r="K30" s="18">
+        <f t="shared" si="0"/>
+        <v>76.165000000000006</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="O30" s="4">
+        <v>13599</v>
+      </c>
+      <c r="P30" s="18">
+        <f t="shared" si="1"/>
+        <v>67.995000000000005</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -4269,8 +5106,25 @@
         <f>AVERAGE(E1:E30)</f>
         <v>4076.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="I32" s="9">
+        <f>AVERAGE(I1:I31)</f>
+        <v>0.92322826033213934</v>
+      </c>
+      <c r="K32" s="19">
+        <f>AVERAGE(K1:K31)</f>
+        <v>81.293000000000021</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="9">
+        <f>AVERAGE(N1:N31)</f>
+        <v>0.92322826033213934</v>
+      </c>
+      <c r="P32" s="20">
+        <f>AVERAGE(P1:P31)</f>
+        <v>74.858833333333322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -4290,8 +5144,31 @@
         <f>STDEV(E1:E30)</f>
         <v>279.90200255532784</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="I33" s="9">
+        <f>STDEV(I1:I30)</f>
+        <v>8.9370982375131555E-4</v>
+      </c>
+      <c r="K33" s="19">
+        <f>STDEV(K1:K30)</f>
+        <v>4.0300974575364013</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="9">
+        <f>STDEV(N1:N30)</f>
+        <v>8.9370982375131555E-4</v>
+      </c>
+      <c r="P33" s="20">
+        <f>STDEV(P1:P30)</f>
+        <v>3.9934469346092771</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:16">
       <c r="B36" s="9">
         <v>0.92379275735532096</v>
       </c>
@@ -4306,8 +5183,9 @@
         <f>E32/1000</f>
         <v>4.0768000000000004</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:16">
       <c r="C37">
         <f>C33/1000</f>
         <v>0.26266175093130489</v>
@@ -4316,8 +5194,9 @@
         <f>E33/1000</f>
         <v>0.27990200255532782</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -4327,6 +5206,163 @@
       <c r="F38">
         <v>0</v>
       </c>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="13:13">
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="13:13">
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="13:13">
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="13:13">
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="13:13">
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="13:13">
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="13:13">
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="13:13">
+      <c r="M56" s="4"/>
+    </row>
+    <row r="57" spans="13:13">
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="13:13">
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="13:13">
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60" spans="13:13">
+      <c r="M60" s="4"/>
+    </row>
+    <row r="61" spans="13:13">
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="13:13">
+      <c r="M62" s="4"/>
+    </row>
+    <row r="63" spans="13:13">
+      <c r="M63" s="4"/>
+    </row>
+    <row r="64" spans="13:13">
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="13:13">
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="13:13">
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="13:13">
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68" spans="13:13">
+      <c r="M68" s="4"/>
+    </row>
+    <row r="69" spans="13:13">
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70" spans="13:13">
+      <c r="M70" s="4"/>
+    </row>
+    <row r="71" spans="13:13">
+      <c r="M71" s="4"/>
+    </row>
+    <row r="72" spans="13:13">
+      <c r="M72" s="4"/>
+    </row>
+    <row r="73" spans="13:13">
+      <c r="M73" s="4"/>
+    </row>
+    <row r="74" spans="13:13">
+      <c r="M74" s="4"/>
+    </row>
+    <row r="75" spans="13:13">
+      <c r="M75" s="4"/>
+    </row>
+    <row r="76" spans="13:13">
+      <c r="M76" s="4"/>
+    </row>
+    <row r="77" spans="13:13">
+      <c r="M77" s="4"/>
+    </row>
+    <row r="78" spans="13:13">
+      <c r="M78" s="4"/>
+    </row>
+    <row r="79" spans="13:13">
+      <c r="M79" s="4"/>
+    </row>
+    <row r="80" spans="13:13">
+      <c r="M80" s="4"/>
+    </row>
+    <row r="81" spans="13:13">
+      <c r="M81" s="4"/>
+    </row>
+    <row r="82" spans="13:13">
+      <c r="M82" s="4"/>
+    </row>
+    <row r="83" spans="13:13">
+      <c r="M83" s="4"/>
+    </row>
+    <row r="84" spans="13:13">
+      <c r="M84" s="4"/>
+    </row>
+    <row r="85" spans="13:13">
+      <c r="M85" s="4"/>
+    </row>
+    <row r="86" spans="13:13">
+      <c r="M86" s="4"/>
+    </row>
+    <row r="87" spans="13:13">
+      <c r="M87" s="4"/>
+    </row>
+    <row r="88" spans="13:13">
+      <c r="M88" s="4"/>
+    </row>
+    <row r="89" spans="13:13">
+      <c r="M89" s="4"/>
+    </row>
+    <row r="90" spans="13:13">
+      <c r="M90" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4335,19 +5371,21 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7E7098-2D4F-8548-B767-B6C8A438B5D9}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="19"/>
+    <col min="17" max="17" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:18">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -4363,8 +5401,34 @@
       <c r="E1" s="4">
         <v>580</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="J1" s="4">
+        <v>0.93085670980973401</v>
+      </c>
+      <c r="K1" s="4">
+        <v>739</v>
+      </c>
+      <c r="L1" s="18">
+        <f>K1/200</f>
+        <v>3.6949999999999998</v>
+      </c>
+      <c r="M1" s="4">
+        <v>0</v>
+      </c>
+      <c r="O1" s="4">
+        <v>0.931323509047708</v>
+      </c>
+      <c r="P1" s="4">
+        <v>2008</v>
+      </c>
+      <c r="Q1" s="18">
+        <f>P1/200</f>
+        <v>10.039999999999999</v>
+      </c>
+      <c r="R1" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4380,8 +5444,34 @@
       <c r="E2" s="4">
         <v>458</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="J2" s="4">
+        <v>0.93151056215306904</v>
+      </c>
+      <c r="K2" s="4">
+        <v>400</v>
+      </c>
+      <c r="L2" s="18">
+        <f t="shared" ref="L2:L30" si="0">K2/200</f>
+        <v>2</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0.93035049147378401</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1441</v>
+      </c>
+      <c r="Q2" s="18">
+        <f t="shared" ref="Q2:Q30" si="1">P2/200</f>
+        <v>7.2050000000000001</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4397,8 +5487,34 @@
       <c r="E3" s="4">
         <v>561</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="J3" s="4">
+        <v>0.93116392643241397</v>
+      </c>
+      <c r="K3" s="4">
+        <v>429</v>
+      </c>
+      <c r="L3" s="18">
+        <f t="shared" si="0"/>
+        <v>2.145</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0.92977212986489399</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1694</v>
+      </c>
+      <c r="Q3" s="18">
+        <f t="shared" si="1"/>
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4414,8 +5530,34 @@
       <c r="E4" s="4">
         <v>408</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="J4" s="4">
+        <v>0.93213694400633795</v>
+      </c>
+      <c r="K4" s="4">
+        <v>410</v>
+      </c>
+      <c r="L4" s="18">
+        <f t="shared" si="0"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0.93112785479594395</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1595</v>
+      </c>
+      <c r="Q4" s="18">
+        <f t="shared" si="1"/>
+        <v>7.9749999999999996</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4431,8 +5573,34 @@
       <c r="E5" s="4">
         <v>407</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="J5" s="4">
+        <v>0.93096827218064904</v>
+      </c>
+      <c r="K5" s="4">
+        <v>341</v>
+      </c>
+      <c r="L5" s="18">
+        <f t="shared" si="0"/>
+        <v>1.7050000000000001</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.93194128975457402</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1462</v>
+      </c>
+      <c r="Q5" s="18">
+        <f t="shared" si="1"/>
+        <v>7.31</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4448,8 +5616,34 @@
       <c r="E6" s="4">
         <v>632</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="J6" s="4">
+        <v>0.93139899978215401</v>
+      </c>
+      <c r="K6" s="4">
+        <v>285</v>
+      </c>
+      <c r="L6" s="18">
+        <f t="shared" si="0"/>
+        <v>1.425</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.93112785479594395</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1782</v>
+      </c>
+      <c r="Q6" s="18">
+        <f t="shared" si="1"/>
+        <v>8.91</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4465,8 +5659,34 @@
       <c r="E7" s="4">
         <v>521</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="J7" s="4">
+        <v>0.931323509047708</v>
+      </c>
+      <c r="K7" s="4">
+        <v>395</v>
+      </c>
+      <c r="L7" s="18">
+        <f t="shared" si="0"/>
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.93194128975457402</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1660</v>
+      </c>
+      <c r="Q7" s="18">
+        <f t="shared" si="1"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4482,8 +5702,34 @@
       <c r="E8" s="4">
         <v>559</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="J8" s="4">
+        <v>0.93058556482352395</v>
+      </c>
+      <c r="K8" s="4">
+        <v>258</v>
+      </c>
+      <c r="L8" s="18">
+        <f t="shared" si="0"/>
+        <v>1.29</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.93159465403391795</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1854</v>
+      </c>
+      <c r="Q8" s="18">
+        <f t="shared" si="1"/>
+        <v>9.27</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4499,8 +5745,34 @@
       <c r="E9" s="4">
         <v>479</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="J9" s="4">
+        <v>0.93194128975457402</v>
+      </c>
+      <c r="K9" s="4">
+        <v>242</v>
+      </c>
+      <c r="L9" s="18">
+        <f t="shared" si="0"/>
+        <v>1.21</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.93194128975457402</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1506</v>
+      </c>
+      <c r="Q9" s="18">
+        <f t="shared" si="1"/>
+        <v>7.53</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4516,8 +5788,34 @@
       <c r="E10" s="4">
         <v>324</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="J10" s="4">
+        <v>0.93105236406149805</v>
+      </c>
+      <c r="K10" s="4">
+        <v>285</v>
+      </c>
+      <c r="L10" s="18">
+        <f t="shared" si="0"/>
+        <v>1.425</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.93275472471320398</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1350</v>
+      </c>
+      <c r="Q10" s="18">
+        <f t="shared" si="1"/>
+        <v>6.75</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4533,8 +5831,34 @@
       <c r="E11" s="4">
         <v>312</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="J11" s="4">
+        <v>0.93135097953777402</v>
+      </c>
+      <c r="K11" s="4">
+        <v>270</v>
+      </c>
+      <c r="L11" s="18">
+        <f t="shared" si="0"/>
+        <v>1.35</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0.93112785479594395</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1368</v>
+      </c>
+      <c r="Q11" s="18">
+        <f t="shared" si="1"/>
+        <v>6.84</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4550,8 +5874,34 @@
       <c r="E12" s="4">
         <v>297</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="J12" s="4">
+        <v>0.93205285212548905</v>
+      </c>
+      <c r="K12" s="4">
+        <v>246</v>
+      </c>
+      <c r="L12" s="18">
+        <f t="shared" si="0"/>
+        <v>1.23</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.93004327485110405</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1400</v>
+      </c>
+      <c r="Q12" s="18">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4567,8 +5917,34 @@
       <c r="E13" s="4">
         <v>515</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="J13" s="4">
+        <v>0.93105236406149805</v>
+      </c>
+      <c r="K13" s="4">
+        <v>292</v>
+      </c>
+      <c r="L13" s="18">
+        <f t="shared" si="0"/>
+        <v>1.46</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.93139899978215401</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1602</v>
+      </c>
+      <c r="Q13" s="18">
+        <f t="shared" si="1"/>
+        <v>8.01</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4584,8 +5960,34 @@
       <c r="E14" s="4">
         <v>351</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="J14" s="4">
+        <v>0.93224850637725398</v>
+      </c>
+      <c r="K14" s="4">
+        <v>264</v>
+      </c>
+      <c r="L14" s="18">
+        <f t="shared" si="0"/>
+        <v>1.32</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.93058556482352395</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1813</v>
+      </c>
+      <c r="Q14" s="18">
+        <f t="shared" si="1"/>
+        <v>9.0649999999999995</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4601,8 +6003,34 @@
       <c r="E15" s="4">
         <v>351</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="J15" s="4">
+        <v>0.93221243474078397</v>
+      </c>
+      <c r="K15" s="4">
+        <v>284</v>
+      </c>
+      <c r="L15" s="18">
+        <f t="shared" si="0"/>
+        <v>1.42</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.93248357972699403</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1260</v>
+      </c>
+      <c r="Q15" s="18">
+        <f t="shared" si="1"/>
+        <v>6.3</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4618,8 +6046,34 @@
       <c r="E16" s="4">
         <v>789</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="J16" s="4">
+        <v>0.93194128975457402</v>
+      </c>
+      <c r="K16" s="4">
+        <v>251</v>
+      </c>
+      <c r="L16" s="18">
+        <f t="shared" si="0"/>
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.93078121907528799</v>
+      </c>
+      <c r="P16" s="4">
+        <v>2082</v>
+      </c>
+      <c r="Q16" s="18">
+        <f t="shared" si="1"/>
+        <v>10.41</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4635,8 +6089,34 @@
       <c r="E17" s="4">
         <v>360</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="J17" s="4">
+        <v>0.93089278144620402</v>
+      </c>
+      <c r="K17" s="4">
+        <v>326</v>
+      </c>
+      <c r="L17" s="18">
+        <f t="shared" si="0"/>
+        <v>1.63</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0.93058556482352395</v>
+      </c>
+      <c r="P17" s="4">
+        <v>1624</v>
+      </c>
+      <c r="Q17" s="18">
+        <f t="shared" si="1"/>
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4652,8 +6132,34 @@
       <c r="E18" s="4">
         <v>340</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="J18" s="4">
+        <v>0.93139899978215401</v>
+      </c>
+      <c r="K18" s="4">
+        <v>287</v>
+      </c>
+      <c r="L18" s="18">
+        <f t="shared" si="0"/>
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0.93123941716685898</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1488</v>
+      </c>
+      <c r="Q18" s="18">
+        <f t="shared" si="1"/>
+        <v>7.44</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4669,8 +6175,34 @@
       <c r="E19" s="4">
         <v>323</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="J19" s="4">
+        <v>0.931323509047709</v>
+      </c>
+      <c r="K19" s="4">
+        <v>420</v>
+      </c>
+      <c r="L19" s="18">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.93240808899254801</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1381</v>
+      </c>
+      <c r="Q19" s="18">
+        <f t="shared" si="1"/>
+        <v>6.9050000000000002</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4686,8 +6218,34 @@
       <c r="E20" s="4">
         <v>319</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="J20" s="4">
+        <v>0.93159465403391895</v>
+      </c>
+      <c r="K20" s="4">
+        <v>360</v>
+      </c>
+      <c r="L20" s="18">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.93221243474078397</v>
+      </c>
+      <c r="P20" s="4">
+        <v>1433</v>
+      </c>
+      <c r="Q20" s="18">
+        <f t="shared" si="1"/>
+        <v>7.165</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4703,8 +6261,34 @@
       <c r="E21" s="4">
         <v>323</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="J21" s="4">
+        <v>0.93123941716685898</v>
+      </c>
+      <c r="K21" s="4">
+        <v>258</v>
+      </c>
+      <c r="L21" s="18">
+        <f t="shared" si="0"/>
+        <v>1.29</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.93194128975457402</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1516</v>
+      </c>
+      <c r="Q21" s="18">
+        <f t="shared" si="1"/>
+        <v>7.58</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4720,8 +6304,34 @@
       <c r="E22" s="4">
         <v>343</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="J22" s="4">
+        <v>0.93167014476836396</v>
+      </c>
+      <c r="K22" s="4">
+        <v>316</v>
+      </c>
+      <c r="L22" s="18">
+        <f t="shared" si="0"/>
+        <v>1.58</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0.93221243474078397</v>
+      </c>
+      <c r="P22" s="4">
+        <v>1295</v>
+      </c>
+      <c r="Q22" s="18">
+        <f t="shared" si="1"/>
+        <v>6.4749999999999996</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4737,8 +6347,34 @@
       <c r="E23" s="4">
         <v>330</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="J23" s="4">
+        <v>0.93112785479594395</v>
+      </c>
+      <c r="K23" s="4">
+        <v>296</v>
+      </c>
+      <c r="L23" s="18">
+        <f t="shared" si="0"/>
+        <v>1.48</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0.93221243474078397</v>
+      </c>
+      <c r="P23" s="4">
+        <v>1676</v>
+      </c>
+      <c r="Q23" s="18">
+        <f t="shared" si="1"/>
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4754,8 +6390,34 @@
       <c r="E24" s="4">
         <v>644</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="J24" s="4">
+        <v>0.93085670980973401</v>
+      </c>
+      <c r="K24" s="4">
+        <v>289</v>
+      </c>
+      <c r="L24" s="18">
+        <f t="shared" si="0"/>
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0.93167014476836396</v>
+      </c>
+      <c r="P24" s="4">
+        <v>1641</v>
+      </c>
+      <c r="Q24" s="18">
+        <f t="shared" si="1"/>
+        <v>8.2050000000000001</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4771,8 +6433,34 @@
       <c r="E25" s="4">
         <v>377</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="J25" s="4">
+        <v>0.93167014476836396</v>
+      </c>
+      <c r="K25" s="4">
+        <v>236</v>
+      </c>
+      <c r="L25" s="18">
+        <f t="shared" si="0"/>
+        <v>1.18</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0.93221243474078397</v>
+      </c>
+      <c r="P25" s="4">
+        <v>1436</v>
+      </c>
+      <c r="Q25" s="18">
+        <f t="shared" si="1"/>
+        <v>7.18</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4788,8 +6476,34 @@
       <c r="E26" s="4">
         <v>612</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="J26" s="4">
+        <v>0.93058556482352395</v>
+      </c>
+      <c r="K26" s="4">
+        <v>249</v>
+      </c>
+      <c r="L26" s="18">
+        <f t="shared" si="0"/>
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.93167014476836396</v>
+      </c>
+      <c r="P26" s="4">
+        <v>1716</v>
+      </c>
+      <c r="Q26" s="18">
+        <f t="shared" si="1"/>
+        <v>8.58</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4805,8 +6519,34 @@
       <c r="E27" s="4">
         <v>330</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="J27" s="4">
+        <v>0.93096827218064904</v>
+      </c>
+      <c r="K27" s="4">
+        <v>435</v>
+      </c>
+      <c r="L27" s="18">
+        <f t="shared" si="0"/>
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.93302586969941403</v>
+      </c>
+      <c r="P27" s="4">
+        <v>1211</v>
+      </c>
+      <c r="Q27" s="18">
+        <f t="shared" si="1"/>
+        <v>6.0549999999999997</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4822,8 +6562,34 @@
       <c r="E28" s="4">
         <v>397</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="J28" s="4">
+        <v>0.93213694400633795</v>
+      </c>
+      <c r="K28" s="4">
+        <v>289</v>
+      </c>
+      <c r="L28" s="18">
+        <f t="shared" si="0"/>
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0.93248357972699403</v>
+      </c>
+      <c r="P28" s="4">
+        <v>1353</v>
+      </c>
+      <c r="Q28" s="18">
+        <f t="shared" si="1"/>
+        <v>6.7649999999999997</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4839,8 +6605,34 @@
       <c r="E29" s="4">
         <v>356</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="J29" s="4">
+        <v>0.93194128975457402</v>
+      </c>
+      <c r="K29" s="4">
+        <v>246</v>
+      </c>
+      <c r="L29" s="18">
+        <f t="shared" si="0"/>
+        <v>1.23</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0.93178170713927999</v>
+      </c>
+      <c r="P29" s="4">
+        <v>1447</v>
+      </c>
+      <c r="Q29" s="18">
+        <f t="shared" si="1"/>
+        <v>7.2350000000000003</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4856,8 +6648,34 @@
       <c r="E30" s="4">
         <v>359</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="J30" s="4">
+        <v>0.93135097953777501</v>
+      </c>
+      <c r="K30" s="4">
+        <v>240</v>
+      </c>
+      <c r="L30" s="18">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0.93259514209790895</v>
+      </c>
+      <c r="P30" s="4">
+        <v>1275</v>
+      </c>
+      <c r="Q30" s="18">
+        <f t="shared" si="1"/>
+        <v>6.375</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -4877,8 +6695,24 @@
         <f>AVERAGE(E1:E30)</f>
         <v>431.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="J32" s="9">
+        <f>AVERAGE(J1:J31)</f>
+        <v>0.93141846115237159</v>
+      </c>
+      <c r="L32" s="19">
+        <f>AVERAGE(L1:L31)</f>
+        <v>1.6063333333333327</v>
+      </c>
+      <c r="O32" s="9">
+        <f>AVERAGE(O1:O31)</f>
+        <v>0.93161820896483638</v>
+      </c>
+      <c r="Q32" s="19">
+        <f>AVERAGE(Q1:Q31)</f>
+        <v>7.7281666666666675</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -4898,8 +6732,24 @@
         <f>STDEV(E1:E30)</f>
         <v>127.31128021100692</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="J33" s="9">
+        <f>STDEV(J1:J30)</f>
+        <v>4.8841792941925954E-4</v>
+      </c>
+      <c r="L33" s="19">
+        <f>STDEV(L1:L30)</f>
+        <v>0.50392585205347207</v>
+      </c>
+      <c r="O33" s="9">
+        <f>STDEV(O1:O30)</f>
+        <v>8.2085658281869946E-4</v>
+      </c>
+      <c r="Q33" s="19">
+        <f>STDEV(Q1:Q30)</f>
+        <v>1.0863173183245942</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="B35" s="9">
         <v>0.93302586969941503</v>
       </c>
@@ -4915,7 +6765,7 @@
         <v>0.43189999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:17">
       <c r="C36">
         <f>C33/1000</f>
         <v>4.2268109769047824E-2</v>
@@ -4925,7 +6775,7 @@
         <v>0.12731128021100691</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -4943,19 +6793,21 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA72D14-22A8-D749-9359-50A68B99CEF6}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="9"/>
     <col min="4" max="4" width="10.83203125" style="9"/>
+    <col min="11" max="11" width="10.83203125" style="19"/>
+    <col min="16" max="16" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:17">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -4971,8 +6823,34 @@
       <c r="E1" s="4">
         <v>547</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="I1" s="4">
+        <v>0.8658202175759</v>
+      </c>
+      <c r="J1" s="4">
+        <v>470</v>
+      </c>
+      <c r="K1" s="18">
+        <f>J1/200</f>
+        <v>2.35</v>
+      </c>
+      <c r="L1" s="4">
+        <v>0</v>
+      </c>
+      <c r="N1" s="4">
+        <v>0.70079111765357205</v>
+      </c>
+      <c r="O1" s="4">
+        <v>1514</v>
+      </c>
+      <c r="P1" s="18">
+        <f>O1/200</f>
+        <v>7.57</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4988,8 +6866,34 @@
       <c r="E2" s="4">
         <v>456</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="I2" s="4">
+        <v>0.86386452291947202</v>
+      </c>
+      <c r="J2" s="4">
+        <v>284</v>
+      </c>
+      <c r="K2" s="18">
+        <f t="shared" ref="K2:K30" si="0">J2/200</f>
+        <v>1.42</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0.70703455192138498</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1065</v>
+      </c>
+      <c r="P2" s="18">
+        <f t="shared" ref="P2:P30" si="1">O2/200</f>
+        <v>5.3250000000000002</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5005,8 +6909,34 @@
       <c r="E3" s="4">
         <v>550</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="I3" s="4">
+        <v>0.86378151455098195</v>
+      </c>
+      <c r="J3" s="4">
+        <v>352</v>
+      </c>
+      <c r="K3" s="18">
+        <f t="shared" si="0"/>
+        <v>1.76</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.70017431587012002</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1082</v>
+      </c>
+      <c r="P3" s="18">
+        <f t="shared" si="1"/>
+        <v>5.41</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5022,8 +6952,34 @@
       <c r="E4" s="4">
         <v>352</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="I4" s="4">
+        <v>0.86572743377495298</v>
+      </c>
+      <c r="J4" s="4">
+        <v>266</v>
+      </c>
+      <c r="K4" s="18">
+        <f t="shared" si="0"/>
+        <v>1.33</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.70207780779714801</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1032</v>
+      </c>
+      <c r="P4" s="18">
+        <f t="shared" si="1"/>
+        <v>5.16</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5039,8 +6995,34 @@
       <c r="E5" s="4">
         <v>314</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="I5" s="4">
+        <v>0.86550984494320304</v>
+      </c>
+      <c r="J5" s="4">
+        <v>311</v>
+      </c>
+      <c r="K5" s="18">
+        <f t="shared" si="0"/>
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.70138108471754801</v>
+      </c>
+      <c r="O5" s="4">
+        <v>998</v>
+      </c>
+      <c r="P5" s="18">
+        <f t="shared" si="1"/>
+        <v>4.99</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5056,8 +7038,34 @@
       <c r="E6" s="4">
         <v>337</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="I6" s="4">
+        <v>0.86560700564318904</v>
+      </c>
+      <c r="J6" s="4">
+        <v>228</v>
+      </c>
+      <c r="K6" s="18">
+        <f t="shared" si="0"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.70169692578771803</v>
+      </c>
+      <c r="O6" s="4">
+        <v>966</v>
+      </c>
+      <c r="P6" s="18">
+        <f t="shared" si="1"/>
+        <v>4.83</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5073,8 +7081,34 @@
       <c r="E7" s="4">
         <v>293</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="I7" s="4">
+        <v>0.86472688473498605</v>
+      </c>
+      <c r="J7" s="4">
+        <v>303</v>
+      </c>
+      <c r="K7" s="18">
+        <f t="shared" si="0"/>
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.70187352424214999</v>
+      </c>
+      <c r="O7" s="4">
+        <v>986</v>
+      </c>
+      <c r="P7" s="18">
+        <f t="shared" si="1"/>
+        <v>4.93</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5090,8 +7124,34 @@
       <c r="E8" s="4">
         <v>275</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="I8" s="4">
+        <v>0.86596035280499795</v>
+      </c>
+      <c r="J8" s="4">
+        <v>189</v>
+      </c>
+      <c r="K8" s="18">
+        <f t="shared" si="0"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.70238514500988203</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1035</v>
+      </c>
+      <c r="P8" s="18">
+        <f t="shared" si="1"/>
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5107,8 +7167,34 @@
       <c r="E9" s="4">
         <v>319</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="I9" s="4">
+        <v>0.86599443687498601</v>
+      </c>
+      <c r="J9" s="4">
+        <v>252</v>
+      </c>
+      <c r="K9" s="18">
+        <f t="shared" si="0"/>
+        <v>1.26</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.70115151500682305</v>
+      </c>
+      <c r="O9" s="4">
+        <v>983</v>
+      </c>
+      <c r="P9" s="18">
+        <f t="shared" si="1"/>
+        <v>4.915</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5124,8 +7210,34 @@
       <c r="E10" s="4">
         <v>304</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="I10" s="4">
+        <v>0.86680275830068199</v>
+      </c>
+      <c r="J10" s="4">
+        <v>196</v>
+      </c>
+      <c r="K10" s="18">
+        <f t="shared" si="0"/>
+        <v>0.98</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.69972763195953003</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1055</v>
+      </c>
+      <c r="P10" s="18">
+        <f t="shared" si="1"/>
+        <v>5.2750000000000004</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5141,8 +7253,34 @@
       <c r="E11" s="4">
         <v>304</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="I11" s="4">
+        <v>0.86503073544111997</v>
+      </c>
+      <c r="J11" s="4">
+        <v>185</v>
+      </c>
+      <c r="K11" s="18">
+        <f t="shared" si="0"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0.70430715896685403</v>
+      </c>
+      <c r="O11" s="4">
+        <v>991</v>
+      </c>
+      <c r="P11" s="18">
+        <f t="shared" si="1"/>
+        <v>4.9550000000000001</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5158,8 +7296,34 @@
       <c r="E12" s="4">
         <v>351</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="I12" s="4">
+        <v>0.86410475244239304</v>
+      </c>
+      <c r="J12" s="4">
+        <v>191</v>
+      </c>
+      <c r="K12" s="18">
+        <f t="shared" si="0"/>
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.69674223051279605</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1066</v>
+      </c>
+      <c r="P12" s="18">
+        <f t="shared" si="1"/>
+        <v>5.33</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5175,8 +7339,34 @@
       <c r="E13" s="4">
         <v>335</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="I13" s="4">
+        <v>0.86590674750408203</v>
+      </c>
+      <c r="J13" s="4">
+        <v>207</v>
+      </c>
+      <c r="K13" s="18">
+        <f t="shared" si="0"/>
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.70938495346539099</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1112</v>
+      </c>
+      <c r="P13" s="18">
+        <f t="shared" si="1"/>
+        <v>5.56</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5192,8 +7382,34 @@
       <c r="E14" s="4">
         <v>287</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="I14" s="4">
+        <v>0.86411833887215395</v>
+      </c>
+      <c r="J14" s="4">
+        <v>225</v>
+      </c>
+      <c r="K14" s="18">
+        <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.70525355101790599</v>
+      </c>
+      <c r="O14" s="4">
+        <v>1058</v>
+      </c>
+      <c r="P14" s="18">
+        <f t="shared" si="1"/>
+        <v>5.29</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5209,8 +7425,34 @@
       <c r="E15" s="4">
         <v>314</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="I15" s="4">
+        <v>0.86633193402370601</v>
+      </c>
+      <c r="J15" s="4">
+        <v>211</v>
+      </c>
+      <c r="K15" s="18">
+        <f t="shared" si="0"/>
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.70411253606713997</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1038</v>
+      </c>
+      <c r="P15" s="18">
+        <f t="shared" si="1"/>
+        <v>5.19</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5226,8 +7468,34 @@
       <c r="E16" s="4">
         <v>285</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="I16" s="4">
+        <v>0.86522005214778397</v>
+      </c>
+      <c r="J16" s="4">
+        <v>193</v>
+      </c>
+      <c r="K16" s="18">
+        <f t="shared" si="0"/>
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.70649240767157295</v>
+      </c>
+      <c r="O16" s="4">
+        <v>990</v>
+      </c>
+      <c r="P16" s="18">
+        <f t="shared" si="1"/>
+        <v>4.95</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5243,8 +7511,34 @@
       <c r="E17" s="4">
         <v>317</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="I17" s="4">
+        <v>0.86548363552735696</v>
+      </c>
+      <c r="J17" s="4">
+        <v>196</v>
+      </c>
+      <c r="K17" s="18">
+        <f t="shared" si="0"/>
+        <v>0.98</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0.70524694887137196</v>
+      </c>
+      <c r="O17" s="4">
+        <v>1024</v>
+      </c>
+      <c r="P17" s="18">
+        <f t="shared" si="1"/>
+        <v>5.12</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5260,8 +7554,34 @@
       <c r="E18" s="4">
         <v>283</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="I18" s="4">
+        <v>0.86652834837403503</v>
+      </c>
+      <c r="J18" s="4">
+        <v>184</v>
+      </c>
+      <c r="K18" s="18">
+        <f t="shared" si="0"/>
+        <v>0.92</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0.70268479880067103</v>
+      </c>
+      <c r="O18" s="4">
+        <v>1022</v>
+      </c>
+      <c r="P18" s="18">
+        <f t="shared" si="1"/>
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5277,8 +7597,34 @@
       <c r="E19" s="4">
         <v>283</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="I19" s="4">
+        <v>0.86481264074109099</v>
+      </c>
+      <c r="J19" s="4">
+        <v>178</v>
+      </c>
+      <c r="K19" s="18">
+        <f t="shared" si="0"/>
+        <v>0.89</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.70245829568998697</v>
+      </c>
+      <c r="O19" s="4">
+        <v>1038</v>
+      </c>
+      <c r="P19" s="18">
+        <f t="shared" si="1"/>
+        <v>5.19</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5294,8 +7640,34 @@
       <c r="E20" s="4">
         <v>272</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="I20" s="4">
+        <v>0.866179408832632</v>
+      </c>
+      <c r="J20" s="4">
+        <v>302</v>
+      </c>
+      <c r="K20" s="18">
+        <f t="shared" si="0"/>
+        <v>1.51</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.70135566531913796</v>
+      </c>
+      <c r="O20" s="4">
+        <v>1005</v>
+      </c>
+      <c r="P20" s="18">
+        <f t="shared" si="1"/>
+        <v>5.0250000000000004</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5311,8 +7683,34 @@
       <c r="E21" s="4">
         <v>296</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="I21" s="4">
+        <v>0.86452194257220705</v>
+      </c>
+      <c r="J21" s="4">
+        <v>202</v>
+      </c>
+      <c r="K21" s="18">
+        <f t="shared" si="0"/>
+        <v>1.01</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.70275959315301895</v>
+      </c>
+      <c r="O21" s="4">
+        <v>1010</v>
+      </c>
+      <c r="P21" s="18">
+        <f t="shared" si="1"/>
+        <v>5.05</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5328,8 +7726,34 @@
       <c r="E22" s="4">
         <v>297</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="I22" s="4">
+        <v>0.86537921208624902</v>
+      </c>
+      <c r="J22" s="4">
+        <v>178</v>
+      </c>
+      <c r="K22" s="18">
+        <f t="shared" si="0"/>
+        <v>0.89</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.70836585719161105</v>
+      </c>
+      <c r="O22" s="4">
+        <v>1071</v>
+      </c>
+      <c r="P22" s="18">
+        <f t="shared" si="1"/>
+        <v>5.3550000000000004</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5345,8 +7769,34 @@
       <c r="E23" s="4">
         <v>263</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="I23" s="4">
+        <v>0.86491695293670801</v>
+      </c>
+      <c r="J23" s="4">
+        <v>175</v>
+      </c>
+      <c r="K23" s="18">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.70781021382003995</v>
+      </c>
+      <c r="O23" s="4">
+        <v>1032</v>
+      </c>
+      <c r="P23" s="18">
+        <f t="shared" si="1"/>
+        <v>5.16</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5362,8 +7812,34 @@
       <c r="E24" s="4">
         <v>310</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="I24" s="4">
+        <v>0.86528383470430603</v>
+      </c>
+      <c r="J24" s="4">
+        <v>222</v>
+      </c>
+      <c r="K24" s="18">
+        <f t="shared" si="0"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0.70700607525430803</v>
+      </c>
+      <c r="O24" s="4">
+        <v>1144</v>
+      </c>
+      <c r="P24" s="18">
+        <f t="shared" si="1"/>
+        <v>5.72</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5379,8 +7855,34 @@
       <c r="E25" s="4">
         <v>344</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="I25" s="4">
+        <v>0.86410640796413096</v>
+      </c>
+      <c r="J25" s="4">
+        <v>294</v>
+      </c>
+      <c r="K25" s="18">
+        <f t="shared" si="0"/>
+        <v>1.47</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0.70246886393527896</v>
+      </c>
+      <c r="O25" s="4">
+        <v>1030</v>
+      </c>
+      <c r="P25" s="18">
+        <f t="shared" si="1"/>
+        <v>5.15</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5396,8 +7898,34 @@
       <c r="E26" s="4">
         <v>251</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="I26" s="4">
+        <v>0.865051465278176</v>
+      </c>
+      <c r="J26" s="4">
+        <v>230</v>
+      </c>
+      <c r="K26" s="18">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0.70558133645878895</v>
+      </c>
+      <c r="O26" s="4">
+        <v>1054</v>
+      </c>
+      <c r="P26" s="18">
+        <f t="shared" si="1"/>
+        <v>5.27</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5413,8 +7941,34 @@
       <c r="E27" s="4">
         <v>237</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="I27" s="4">
+        <v>0.86605290831662596</v>
+      </c>
+      <c r="J27" s="4">
+        <v>240</v>
+      </c>
+      <c r="K27" s="18">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.69731295902594104</v>
+      </c>
+      <c r="O27" s="4">
+        <v>989</v>
+      </c>
+      <c r="P27" s="18">
+        <f t="shared" si="1"/>
+        <v>4.9450000000000003</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5430,8 +7984,34 @@
       <c r="E28" s="4">
         <v>299</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="I28" s="4">
+        <v>0.86531422817348402</v>
+      </c>
+      <c r="J28" s="4">
+        <v>280</v>
+      </c>
+      <c r="K28" s="18">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.70272124518733403</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1038</v>
+      </c>
+      <c r="P28" s="18">
+        <f t="shared" si="1"/>
+        <v>5.19</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5447,8 +8027,34 @@
       <c r="E29" s="4">
         <v>285</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="I29" s="4">
+        <v>0.86581864120541396</v>
+      </c>
+      <c r="J29" s="4">
+        <v>182</v>
+      </c>
+      <c r="K29" s="18">
+        <f t="shared" si="0"/>
+        <v>0.91</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0.70852731752085896</v>
+      </c>
+      <c r="O29" s="4">
+        <v>1050</v>
+      </c>
+      <c r="P29" s="18">
+        <f t="shared" si="1"/>
+        <v>5.25</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5464,8 +8070,34 @@
       <c r="E30" s="4">
         <v>281</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="I30" s="4">
+        <v>0.86624424632194597</v>
+      </c>
+      <c r="J30" s="4">
+        <v>171</v>
+      </c>
+      <c r="K30" s="18">
+        <f t="shared" si="0"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0.69995893229662998</v>
+      </c>
+      <c r="O30" s="4">
+        <v>996</v>
+      </c>
+      <c r="P30" s="18">
+        <f t="shared" si="1"/>
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -5485,8 +8117,24 @@
         <f>AVERAGE(E1:E30)</f>
         <v>321.36666666666667</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="I32" s="9">
+        <f>AVERAGE(I1:I31)</f>
+        <v>0.86534004685296517</v>
+      </c>
+      <c r="K32" s="19">
+        <f>AVERAGE(K1:K31)</f>
+        <v>1.1828333333333334</v>
+      </c>
+      <c r="N32" s="9">
+        <f>AVERAGE(N1:N31)</f>
+        <v>0.70329481867308385</v>
+      </c>
+      <c r="P32" s="19">
+        <f>AVERAGE(P1:P31)</f>
+        <v>5.2456666666666658</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -5506,8 +8154,24 @@
         <f>STDEV(E1:E30)</f>
         <v>73.329433020625771</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="I33" s="9">
+        <f>STDEV(I1:I30)</f>
+        <v>8.1532688841504423E-4</v>
+      </c>
+      <c r="K33" s="19">
+        <f>STDEV(K1:K30)</f>
+        <v>0.33044558040499716</v>
+      </c>
+      <c r="N33" s="9">
+        <f>STDEV(N1:N30)</f>
+        <v>3.232228576959241E-3</v>
+      </c>
+      <c r="P33" s="19">
+        <f>STDEV(P1:P30)</f>
+        <v>0.48142878825525126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="B36" s="9">
         <v>0.87025083782996404</v>
       </c>
@@ -5523,7 +8187,7 @@
         <v>0.32136666666666669</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:16">
       <c r="C37">
         <f>C33/1000</f>
         <v>3.3652056691088422E-2</v>
@@ -5533,7 +8197,7 @@
         <v>7.3329433020625764E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -5544,7 +8208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18">
+    <row r="40" spans="1:16" ht="18">
       <c r="A40" s="3" t="s">
         <v>6</v>
       </c>
@@ -5556,19 +8220,21 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B836D11C-B7CF-004C-9ADE-D3B9A2021FEC}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="9"/>
     <col min="4" max="4" width="10.83203125" style="9"/>
+    <col min="11" max="11" width="10.83203125" style="19"/>
+    <col min="16" max="16" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:17">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -5584,8 +8250,34 @@
       <c r="E1" s="4">
         <v>2018</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="I1" s="4">
+        <v>0.79936307313283395</v>
+      </c>
+      <c r="J1" s="4">
+        <v>3602</v>
+      </c>
+      <c r="K1" s="18">
+        <f>J1/200</f>
+        <v>18.010000000000002</v>
+      </c>
+      <c r="L1" s="4">
+        <v>0</v>
+      </c>
+      <c r="N1" s="4">
+        <v>0.78713339850198805</v>
+      </c>
+      <c r="O1" s="4">
+        <v>5120</v>
+      </c>
+      <c r="P1" s="18">
+        <f>O1/200</f>
+        <v>25.6</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5601,8 +8293,34 @@
       <c r="E2" s="4">
         <v>1307</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="I2" s="4">
+        <v>0.794587711157826</v>
+      </c>
+      <c r="J2" s="4">
+        <v>3949</v>
+      </c>
+      <c r="K2" s="18">
+        <f t="shared" ref="K2:K30" si="0">J2/200</f>
+        <v>19.745000000000001</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0.78847373472308702</v>
+      </c>
+      <c r="O2" s="4">
+        <v>4465</v>
+      </c>
+      <c r="P2" s="18">
+        <f t="shared" ref="P2:P30" si="1">O2/200</f>
+        <v>22.324999999999999</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5618,8 +8336,34 @@
       <c r="E3" s="4">
         <v>1278</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="I3" s="4">
+        <v>0.79566826787253497</v>
+      </c>
+      <c r="J3" s="4">
+        <v>3604</v>
+      </c>
+      <c r="K3" s="18">
+        <f t="shared" si="0"/>
+        <v>18.02</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.784862170314789</v>
+      </c>
+      <c r="O3" s="4">
+        <v>4641</v>
+      </c>
+      <c r="P3" s="18">
+        <f t="shared" si="1"/>
+        <v>23.204999999999998</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5635,8 +8379,34 @@
       <c r="E4" s="4">
         <v>1452</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="I4" s="4">
+        <v>0.79625732918785397</v>
+      </c>
+      <c r="J4" s="4">
+        <v>3888</v>
+      </c>
+      <c r="K4" s="18">
+        <f t="shared" si="0"/>
+        <v>19.440000000000001</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.78844877669893199</v>
+      </c>
+      <c r="O4" s="4">
+        <v>4755</v>
+      </c>
+      <c r="P4" s="18">
+        <f t="shared" si="1"/>
+        <v>23.774999999999999</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5652,8 +8422,34 @@
       <c r="E5" s="4">
         <v>1398</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="I5" s="4">
+        <v>0.79640506952700796</v>
+      </c>
+      <c r="J5" s="4">
+        <v>3830</v>
+      </c>
+      <c r="K5" s="18">
+        <f t="shared" si="0"/>
+        <v>19.149999999999999</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.78384257019184</v>
+      </c>
+      <c r="O5" s="4">
+        <v>5213</v>
+      </c>
+      <c r="P5" s="18">
+        <f t="shared" si="1"/>
+        <v>26.065000000000001</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5669,8 +8465,34 @@
       <c r="E6" s="4">
         <v>1194</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="I6" s="4">
+        <v>0.79908576516121199</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3640</v>
+      </c>
+      <c r="K6" s="18">
+        <f t="shared" si="0"/>
+        <v>18.2</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.78450985042329602</v>
+      </c>
+      <c r="O6" s="4">
+        <v>5463</v>
+      </c>
+      <c r="P6" s="18">
+        <f t="shared" si="1"/>
+        <v>27.315000000000001</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5686,8 +8508,34 @@
       <c r="E7" s="4">
         <v>1301</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="I7" s="4">
+        <v>0.796765834871206</v>
+      </c>
+      <c r="J7" s="4">
+        <v>3598</v>
+      </c>
+      <c r="K7" s="18">
+        <f t="shared" si="0"/>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.784425977752639</v>
+      </c>
+      <c r="O7" s="4">
+        <v>4908</v>
+      </c>
+      <c r="P7" s="18">
+        <f t="shared" si="1"/>
+        <v>24.54</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5703,8 +8551,34 @@
       <c r="E8" s="4">
         <v>1375</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="I8" s="4">
+        <v>0.79608171496156799</v>
+      </c>
+      <c r="J8" s="4">
+        <v>4029</v>
+      </c>
+      <c r="K8" s="18">
+        <f t="shared" si="0"/>
+        <v>20.145</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.78571041727790902</v>
+      </c>
+      <c r="O8" s="4">
+        <v>5196</v>
+      </c>
+      <c r="P8" s="18">
+        <f t="shared" si="1"/>
+        <v>25.98</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5720,8 +8594,34 @@
       <c r="E9" s="4">
         <v>1194</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="I9" s="4">
+        <v>0.793737073071761</v>
+      </c>
+      <c r="J9" s="4">
+        <v>3745</v>
+      </c>
+      <c r="K9" s="18">
+        <f t="shared" si="0"/>
+        <v>18.725000000000001</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.79006966992287597</v>
+      </c>
+      <c r="O9" s="4">
+        <v>4776</v>
+      </c>
+      <c r="P9" s="18">
+        <f t="shared" si="1"/>
+        <v>23.88</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5737,8 +8637,34 @@
       <c r="E10" s="4">
         <v>1499</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="I10" s="4">
+        <v>0.79704330994859596</v>
+      </c>
+      <c r="J10" s="4">
+        <v>3886</v>
+      </c>
+      <c r="K10" s="18">
+        <f t="shared" si="0"/>
+        <v>19.43</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.78179482883110696</v>
+      </c>
+      <c r="O10" s="4">
+        <v>5188</v>
+      </c>
+      <c r="P10" s="18">
+        <f t="shared" si="1"/>
+        <v>25.94</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5754,8 +8680,34 @@
       <c r="E11" s="4">
         <v>1343</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="I11" s="4">
+        <v>0.79467185482014002</v>
+      </c>
+      <c r="J11" s="4">
+        <v>3893</v>
+      </c>
+      <c r="K11" s="18">
+        <f t="shared" si="0"/>
+        <v>19.465</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0.78594355104784097</v>
+      </c>
+      <c r="O11" s="4">
+        <v>4528</v>
+      </c>
+      <c r="P11" s="18">
+        <f t="shared" si="1"/>
+        <v>22.64</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5771,8 +8723,34 @@
       <c r="E12" s="4">
         <v>1248</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="I12" s="4">
+        <v>0.79702765706400303</v>
+      </c>
+      <c r="J12" s="4">
+        <v>3609</v>
+      </c>
+      <c r="K12" s="18">
+        <f t="shared" si="0"/>
+        <v>18.045000000000002</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.78630815131850296</v>
+      </c>
+      <c r="O12" s="4">
+        <v>4427</v>
+      </c>
+      <c r="P12" s="18">
+        <f t="shared" si="1"/>
+        <v>22.135000000000002</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5788,8 +8766,34 @@
       <c r="E13" s="4">
         <v>1351</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="I13" s="4">
+        <v>0.79718251906173498</v>
+      </c>
+      <c r="J13" s="4">
+        <v>3625</v>
+      </c>
+      <c r="K13" s="18">
+        <f t="shared" si="0"/>
+        <v>18.125</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.78561091376450998</v>
+      </c>
+      <c r="O13" s="4">
+        <v>4876</v>
+      </c>
+      <c r="P13" s="18">
+        <f t="shared" si="1"/>
+        <v>24.38</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5805,8 +8809,34 @@
       <c r="E14" s="4">
         <v>1381</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="I14" s="4">
+        <v>0.79699484271150201</v>
+      </c>
+      <c r="J14" s="4">
+        <v>3746</v>
+      </c>
+      <c r="K14" s="18">
+        <f t="shared" si="0"/>
+        <v>18.73</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.78402748798618005</v>
+      </c>
+      <c r="O14" s="4">
+        <v>4841</v>
+      </c>
+      <c r="P14" s="18">
+        <f t="shared" si="1"/>
+        <v>24.204999999999998</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5822,8 +8852,34 @@
       <c r="E15" s="4">
         <v>1407</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="I15" s="4">
+        <v>0.79671188097275003</v>
+      </c>
+      <c r="J15" s="4">
+        <v>3895</v>
+      </c>
+      <c r="K15" s="18">
+        <f t="shared" si="0"/>
+        <v>19.475000000000001</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.78570466017406004</v>
+      </c>
+      <c r="O15" s="4">
+        <v>4764</v>
+      </c>
+      <c r="P15" s="18">
+        <f t="shared" si="1"/>
+        <v>23.82</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5839,8 +8895,34 @@
       <c r="E16" s="4">
         <v>1325</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="I16" s="4">
+        <v>0.79694117819926902</v>
+      </c>
+      <c r="J16" s="4">
+        <v>3703</v>
+      </c>
+      <c r="K16" s="18">
+        <f t="shared" si="0"/>
+        <v>18.515000000000001</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.78680234951988504</v>
+      </c>
+      <c r="O16" s="4">
+        <v>4659</v>
+      </c>
+      <c r="P16" s="18">
+        <f t="shared" si="1"/>
+        <v>23.295000000000002</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5856,8 +8938,34 @@
       <c r="E17" s="4">
         <v>1386</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="I17" s="4">
+        <v>0.79566978239887298</v>
+      </c>
+      <c r="J17" s="4">
+        <v>3996</v>
+      </c>
+      <c r="K17" s="18">
+        <f t="shared" si="0"/>
+        <v>19.98</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0.78614531756282202</v>
+      </c>
+      <c r="O17" s="4">
+        <v>4918</v>
+      </c>
+      <c r="P17" s="18">
+        <f t="shared" si="1"/>
+        <v>24.59</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5873,8 +8981,34 @@
       <c r="E18" s="4">
         <v>1140</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="I18" s="4">
+        <v>0.79544969600841298</v>
+      </c>
+      <c r="J18" s="4">
+        <v>3370</v>
+      </c>
+      <c r="K18" s="18">
+        <f t="shared" si="0"/>
+        <v>16.850000000000001</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0.78358047021862898</v>
+      </c>
+      <c r="O18" s="4">
+        <v>4647</v>
+      </c>
+      <c r="P18" s="18">
+        <f t="shared" si="1"/>
+        <v>23.234999999999999</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5890,8 +9024,34 @@
       <c r="E19" s="4">
         <v>1398</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="I19" s="4">
+        <v>0.79386292480806298</v>
+      </c>
+      <c r="J19" s="4">
+        <v>3764</v>
+      </c>
+      <c r="K19" s="18">
+        <f t="shared" si="0"/>
+        <v>18.82</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.78757634600047199</v>
+      </c>
+      <c r="O19" s="4">
+        <v>4751</v>
+      </c>
+      <c r="P19" s="18">
+        <f t="shared" si="1"/>
+        <v>23.754999999999999</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5907,8 +9067,34 @@
       <c r="E20" s="4">
         <v>1277</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="I20" s="4">
+        <v>0.79729331311070495</v>
+      </c>
+      <c r="J20" s="4">
+        <v>3498</v>
+      </c>
+      <c r="K20" s="18">
+        <f t="shared" si="0"/>
+        <v>17.489999999999998</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.78335670136200097</v>
+      </c>
+      <c r="O20" s="4">
+        <v>4749</v>
+      </c>
+      <c r="P20" s="18">
+        <f t="shared" si="1"/>
+        <v>23.745000000000001</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5924,8 +9110,34 @@
       <c r="E21" s="4">
         <v>1277</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="I21" s="4">
+        <v>0.79613140610752897</v>
+      </c>
+      <c r="J21" s="4">
+        <v>3126</v>
+      </c>
+      <c r="K21" s="18">
+        <f t="shared" si="0"/>
+        <v>15.63</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.78341924154267695</v>
+      </c>
+      <c r="O21" s="4">
+        <v>4757</v>
+      </c>
+      <c r="P21" s="18">
+        <f t="shared" si="1"/>
+        <v>23.785</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5941,8 +9153,34 @@
       <c r="E22" s="4">
         <v>1344</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="I22" s="4">
+        <v>0.79786479801486698</v>
+      </c>
+      <c r="J22" s="4">
+        <v>3090</v>
+      </c>
+      <c r="K22" s="18">
+        <f t="shared" si="0"/>
+        <v>15.45</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.78781128843139103</v>
+      </c>
+      <c r="O22" s="4">
+        <v>4741</v>
+      </c>
+      <c r="P22" s="18">
+        <f t="shared" si="1"/>
+        <v>23.704999999999998</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5958,8 +9196,34 @@
       <c r="E23" s="4">
         <v>1344</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="I23" s="4">
+        <v>0.79727794331337498</v>
+      </c>
+      <c r="J23" s="4">
+        <v>3991</v>
+      </c>
+      <c r="K23" s="18">
+        <f t="shared" si="0"/>
+        <v>19.954999999999998</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.78699939731220303</v>
+      </c>
+      <c r="O23" s="4">
+        <v>4691</v>
+      </c>
+      <c r="P23" s="18">
+        <f t="shared" si="1"/>
+        <v>23.454999999999998</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5975,8 +9239,34 @@
       <c r="E24" s="4">
         <v>1272</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="I24" s="4">
+        <v>0.79662272596296002</v>
+      </c>
+      <c r="J24" s="4">
+        <v>4195</v>
+      </c>
+      <c r="K24" s="18">
+        <f t="shared" si="0"/>
+        <v>20.975000000000001</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0.78869447407789295</v>
+      </c>
+      <c r="O24" s="4">
+        <v>4658</v>
+      </c>
+      <c r="P24" s="18">
+        <f t="shared" si="1"/>
+        <v>23.29</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5992,8 +9282,34 @@
       <c r="E25" s="4">
         <v>1367</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="I25" s="4">
+        <v>0.79560410422636496</v>
+      </c>
+      <c r="J25" s="4">
+        <v>4120</v>
+      </c>
+      <c r="K25" s="18">
+        <f t="shared" si="0"/>
+        <v>20.6</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0.78460985530657401</v>
+      </c>
+      <c r="O25" s="4">
+        <v>4867</v>
+      </c>
+      <c r="P25" s="18">
+        <f t="shared" si="1"/>
+        <v>24.335000000000001</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -6009,8 +9325,34 @@
       <c r="E26" s="4">
         <v>1152</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="I26" s="4">
+        <v>0.797509134115164</v>
+      </c>
+      <c r="J26" s="4">
+        <v>3947</v>
+      </c>
+      <c r="K26" s="18">
+        <f t="shared" si="0"/>
+        <v>19.734999999999999</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0.78381098675251204</v>
+      </c>
+      <c r="O26" s="4">
+        <v>4709</v>
+      </c>
+      <c r="P26" s="18">
+        <f t="shared" si="1"/>
+        <v>23.545000000000002</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -6026,8 +9368,34 @@
       <c r="E27" s="4">
         <v>1624</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="I27" s="4">
+        <v>0.79426911171835501</v>
+      </c>
+      <c r="J27" s="4">
+        <v>3785</v>
+      </c>
+      <c r="K27" s="18">
+        <f t="shared" si="0"/>
+        <v>18.925000000000001</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.78606939722752101</v>
+      </c>
+      <c r="O27" s="4">
+        <v>5031</v>
+      </c>
+      <c r="P27" s="18">
+        <f t="shared" si="1"/>
+        <v>25.155000000000001</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -6043,8 +9411,34 @@
       <c r="E28" s="4">
         <v>1446</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="I28" s="4">
+        <v>0.79673614941989002</v>
+      </c>
+      <c r="J28" s="4">
+        <v>4108</v>
+      </c>
+      <c r="K28" s="18">
+        <f t="shared" si="0"/>
+        <v>20.54</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.78897620436840699</v>
+      </c>
+      <c r="O28" s="4">
+        <v>4913</v>
+      </c>
+      <c r="P28" s="18">
+        <f t="shared" si="1"/>
+        <v>24.565000000000001</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -6060,8 +9454,34 @@
       <c r="E29" s="4">
         <v>1548</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="I29" s="4">
+        <v>0.79561515288377405</v>
+      </c>
+      <c r="J29" s="4">
+        <v>3721</v>
+      </c>
+      <c r="K29" s="18">
+        <f t="shared" si="0"/>
+        <v>18.605</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0.78479927212648404</v>
+      </c>
+      <c r="O29" s="4">
+        <v>4912</v>
+      </c>
+      <c r="P29" s="18">
+        <f t="shared" si="1"/>
+        <v>24.56</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -6077,8 +9497,34 @@
       <c r="E30" s="4">
         <v>1370</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="I30" s="4">
+        <v>0.79749725271510996</v>
+      </c>
+      <c r="J30" s="4">
+        <v>4364</v>
+      </c>
+      <c r="K30" s="18">
+        <f t="shared" si="0"/>
+        <v>21.82</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0.78749433921100898</v>
+      </c>
+      <c r="O30" s="4">
+        <v>4792</v>
+      </c>
+      <c r="P30" s="18">
+        <f t="shared" si="1"/>
+        <v>23.96</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -6098,8 +9544,24 @@
         <f>AVERAGE(E1:E30)</f>
         <v>1367.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="I32" s="9">
+        <f>AVERAGE(I1:I31)</f>
+        <v>0.79639761921750796</v>
+      </c>
+      <c r="K32" s="19">
+        <f>AVERAGE(K1:K31)</f>
+        <v>18.886166666666671</v>
+      </c>
+      <c r="N32" s="9">
+        <f>AVERAGE(N1:N31)</f>
+        <v>0.78590039333166795</v>
+      </c>
+      <c r="P32" s="19">
+        <f>AVERAGE(P1:P31)</f>
+        <v>24.159333333333333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -6119,8 +9581,24 @@
         <f>STDEV(E1:E30)</f>
         <v>163.38876844866758</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="I33" s="9">
+        <f>STDEV(I1:I30)</f>
+        <v>1.3436514177092489E-3</v>
+      </c>
+      <c r="K33" s="19">
+        <f>STDEV(K1:K30)</f>
+        <v>1.4170815585837537</v>
+      </c>
+      <c r="N33" s="9">
+        <f>STDEV(N1:N30)</f>
+        <v>1.9979284098012458E-3</v>
+      </c>
+      <c r="P33" s="19">
+        <f>STDEV(P1:P30)</f>
+        <v>1.1574978463771832</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="B36" s="9">
         <v>0.80552667565855995</v>
       </c>
@@ -6136,7 +9614,7 @@
         <v>1.3672</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:16">
       <c r="C37">
         <f>C33/1000</f>
         <v>0.14286181732910574</v>
@@ -6146,7 +9624,7 @@
         <v>0.16338876844866757</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -6164,10 +9642,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C82D90-2276-1D47-B6BC-B9A8161F24C1}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6177,7 +9655,7 @@
     <col min="4" max="4" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:16">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -6193,8 +9671,34 @@
       <c r="E1" s="4">
         <v>5902</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="H1" s="4">
+        <v>0.83032887986158999</v>
+      </c>
+      <c r="I1" s="4">
+        <v>2577</v>
+      </c>
+      <c r="J1" s="4">
+        <f>I1/200</f>
+        <v>12.885</v>
+      </c>
+      <c r="K1" s="4">
+        <v>0</v>
+      </c>
+      <c r="M1" s="4">
+        <v>0.82171273304042003</v>
+      </c>
+      <c r="N1" s="4">
+        <v>23468</v>
+      </c>
+      <c r="O1" s="4">
+        <f>N1/200</f>
+        <v>117.34</v>
+      </c>
+      <c r="P1" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6210,8 +9714,34 @@
       <c r="E2" s="4">
         <v>6796</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="H2" s="4">
+        <v>0.82996237761534397</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1956</v>
+      </c>
+      <c r="J2" s="4">
+        <f t="shared" ref="J2:J30" si="0">I2/200</f>
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.817629461272526</v>
+      </c>
+      <c r="N2" s="4">
+        <v>23559</v>
+      </c>
+      <c r="O2" s="4">
+        <f t="shared" ref="O2:O30" si="1">N2/200</f>
+        <v>117.795</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6227,8 +9757,34 @@
       <c r="E3" s="4">
         <v>6316</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="H3" s="4">
+        <v>0.83062127053854296</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2444</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" si="0"/>
+        <v>12.22</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.81928666057335997</v>
+      </c>
+      <c r="N3" s="4">
+        <v>23742</v>
+      </c>
+      <c r="O3" s="4">
+        <f t="shared" si="1"/>
+        <v>118.71</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6244,8 +9800,34 @@
       <c r="E4" s="4">
         <v>6078</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="H4" s="4">
+        <v>0.83000193508660303</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1824</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.82033638260200104</v>
+      </c>
+      <c r="N4" s="4">
+        <v>25710</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="1"/>
+        <v>128.55000000000001</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6261,8 +9843,34 @@
       <c r="E5" s="4">
         <v>6423</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="H5" s="4">
+        <v>0.83095748212504905</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1783</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>8.9149999999999991</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.81209930807527198</v>
+      </c>
+      <c r="N5" s="4">
+        <v>24586</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="1"/>
+        <v>122.93</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6278,8 +9886,34 @@
       <c r="E6" s="4">
         <v>7700</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="H6" s="4">
+        <v>0.83036848724581103</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1875</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>9.375</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.81875021116002</v>
+      </c>
+      <c r="N6" s="4">
+        <v>25682</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="1"/>
+        <v>128.41</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6295,8 +9929,34 @@
       <c r="E7" s="4">
         <v>6639</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="H7" s="4">
+        <v>0.83055975339150401</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2493</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>12.465</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.81378670814737497</v>
+      </c>
+      <c r="N7" s="4">
+        <v>25650</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="1"/>
+        <v>128.25</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6312,8 +9972,34 @@
       <c r="E8" s="4">
         <v>7058</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="H8" s="4">
+        <v>0.83068123996749399</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2022</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>10.11</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.81946398037562096</v>
+      </c>
+      <c r="N8" s="4">
+        <v>24867</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="1"/>
+        <v>124.33499999999999</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6329,8 +10015,34 @@
       <c r="E9" s="4">
         <v>6254</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="H9" s="4">
+        <v>0.82933437279343603</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2011</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>10.055</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.81978388344091901</v>
+      </c>
+      <c r="N9" s="4">
+        <v>23960</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="1"/>
+        <v>119.8</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6346,8 +10058,34 @@
       <c r="E10" s="4">
         <v>7592</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="H10" s="4">
+        <v>0.82950022168353899</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1994</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.81702966324739201</v>
+      </c>
+      <c r="N10" s="4">
+        <v>26640</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="1"/>
+        <v>133.19999999999999</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6363,8 +10101,34 @@
       <c r="E11" s="4">
         <v>6566</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="H11" s="4">
+        <v>0.82917045491691599</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2319</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>11.595000000000001</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.81999396055815199</v>
+      </c>
+      <c r="N11" s="4">
+        <v>25661</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="1"/>
+        <v>128.30500000000001</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6380,8 +10144,34 @@
       <c r="E12" s="4">
         <v>6532</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="H12" s="4">
+        <v>0.83050136086993098</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1877</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>9.3849999999999998</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.81246913805393595</v>
+      </c>
+      <c r="N12" s="4">
+        <v>24930</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="1"/>
+        <v>124.65</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6397,8 +10187,34 @@
       <c r="E13" s="4">
         <v>5696</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="H13" s="4">
+        <v>0.83059583386825098</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1866</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>9.33</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.815277971644218</v>
+      </c>
+      <c r="N13" s="4">
+        <v>25456</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="1"/>
+        <v>127.28</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6414,8 +10230,34 @@
       <c r="E14" s="4">
         <v>5221</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="H14" s="4">
+        <v>0.83052947626692797</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1726</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.81982037102018201</v>
+      </c>
+      <c r="N14" s="4">
+        <v>24720</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="1"/>
+        <v>123.6</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6431,8 +10273,34 @@
       <c r="E15" s="4">
         <v>6071</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="H15" s="4">
+        <v>0.83035292844673403</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1663</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3149999999999995</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.81231865318636398</v>
+      </c>
+      <c r="N15" s="4">
+        <v>25847</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="1"/>
+        <v>129.23500000000001</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6448,8 +10316,34 @@
       <c r="E16" s="4">
         <v>6158</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="H16" s="4">
+        <v>0.82963660685579599</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1850</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>9.25</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.81759202460394298</v>
+      </c>
+      <c r="N16" s="4">
+        <v>23625</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="1"/>
+        <v>118.125</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6465,8 +10359,34 @@
       <c r="E17" s="4">
         <v>6044</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="H17" s="4">
+        <v>0.82982368894304603</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2182</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>10.91</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.81660552369351802</v>
+      </c>
+      <c r="N17" s="4">
+        <v>23965</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="1"/>
+        <v>119.825</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6482,8 +10402,34 @@
       <c r="E18" s="4">
         <v>7497</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="H18" s="4">
+        <v>0.83086926416468199</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1825</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>9.125</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0.82110208351714997</v>
+      </c>
+      <c r="N18" s="4">
+        <v>26703</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="1"/>
+        <v>133.51499999999999</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6499,8 +10445,34 @@
       <c r="E19" s="4">
         <v>6303</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="H19" s="4">
+        <v>0.83053851001678403</v>
+      </c>
+      <c r="I19" s="4">
+        <v>2540</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>12.7</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0.81791486123496804</v>
+      </c>
+      <c r="N19" s="4">
+        <v>23977</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="1"/>
+        <v>119.88500000000001</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6516,8 +10488,34 @@
       <c r="E20" s="4">
         <v>5931</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="H20" s="4">
+        <v>0.83018896343093496</v>
+      </c>
+      <c r="I20" s="4">
+        <v>2084</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="0"/>
+        <v>10.42</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.82164686591979996</v>
+      </c>
+      <c r="N20" s="4">
+        <v>24695</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="1"/>
+        <v>123.47499999999999</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -6533,8 +10531,34 @@
       <c r="E21" s="4">
         <v>6682</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="H21" s="4">
+        <v>0.82988361332013705</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1807</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0350000000000001</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.814995167946298</v>
+      </c>
+      <c r="N21" s="4">
+        <v>25387</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="1"/>
+        <v>126.935</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6550,8 +10574,34 @@
       <c r="E22" s="4">
         <v>7054</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="H22" s="4">
+        <v>0.83067477357688801</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1976</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="0"/>
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.81330298595182005</v>
+      </c>
+      <c r="N22" s="4">
+        <v>26994</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" si="1"/>
+        <v>134.97</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -6567,8 +10617,34 @@
       <c r="E23" s="4">
         <v>6652</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="H23" s="4">
+        <v>0.82977385987502095</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1918</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="0"/>
+        <v>9.59</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.81791844663431601</v>
+      </c>
+      <c r="N23" s="4">
+        <v>27090</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" si="1"/>
+        <v>135.44999999999999</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -6584,8 +10660,34 @@
       <c r="E24" s="4">
         <v>6199</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="H24" s="4">
+        <v>0.83037383494334105</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1960</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="0"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.82235113498696999</v>
+      </c>
+      <c r="N24" s="4">
+        <v>24062</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="1"/>
+        <v>120.31</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -6601,8 +10703,34 @@
       <c r="E25" s="4">
         <v>5921</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="H25" s="4">
+        <v>0.83075440997703698</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1645</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="0"/>
+        <v>8.2249999999999996</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0.81828442437413296</v>
+      </c>
+      <c r="N25" s="4">
+        <v>24751</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" si="1"/>
+        <v>123.755</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -6618,8 +10746,34 @@
       <c r="E26" s="4">
         <v>6068</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="H26" s="4">
+        <v>0.83096101109036402</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1938</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="0"/>
+        <v>9.69</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.81981784596507201</v>
+      </c>
+      <c r="N26" s="4">
+        <v>24985</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="1"/>
+        <v>124.925</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -6635,8 +10789,34 @@
       <c r="E27" s="4">
         <v>7514</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="H27" s="4">
+        <v>0.83095756050331204</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1999</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9949999999999992</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0.81702669305387099</v>
+      </c>
+      <c r="N27" s="4">
+        <v>27940</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" si="1"/>
+        <v>139.69999999999999</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -6652,8 +10832,34 @@
       <c r="E28" s="4">
         <v>6529</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="H28" s="4">
+        <v>0.830345592759833</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1866</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="0"/>
+        <v>9.33</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.81816174053319801</v>
+      </c>
+      <c r="N28" s="4">
+        <v>23662</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="1"/>
+        <v>118.31</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -6669,8 +10875,34 @@
       <c r="E29" s="4">
         <v>6430</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="H29" s="4">
+        <v>0.83082530233836305</v>
+      </c>
+      <c r="I29" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0.81722412463786798</v>
+      </c>
+      <c r="N29" s="4">
+        <v>24048</v>
+      </c>
+      <c r="O29" s="4">
+        <f t="shared" si="1"/>
+        <v>120.24</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -6686,8 +10918,34 @@
       <c r="E30" s="4">
         <v>6783</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="H30" s="4">
+        <v>0.83057512606525996</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1821</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="0"/>
+        <v>9.1050000000000004</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0.81550078141089999</v>
+      </c>
+      <c r="N30" s="4">
+        <v>28291</v>
+      </c>
+      <c r="O30" s="4">
+        <f t="shared" si="1"/>
+        <v>141.45500000000001</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -6707,8 +10965,24 @@
         <f>AVERAGE(E1:E30)</f>
         <v>6486.9666666666662</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="H32" s="9">
+        <f>AVERAGE(H1:H31)</f>
+        <v>0.83032160641794894</v>
+      </c>
+      <c r="J32" s="9">
+        <f>AVERAGE(J1:J31)</f>
+        <v>9.9734999999999996</v>
+      </c>
+      <c r="M32" s="9">
+        <f>AVERAGE(M1:M31)</f>
+        <v>0.81764012636205285</v>
+      </c>
+      <c r="O32" s="9">
+        <f>AVERAGE(O1:O31)</f>
+        <v>125.77549999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -6728,8 +11002,24 @@
         <f>STDEV(E1:E30)</f>
         <v>584.99781805271448</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="H33" s="9">
+        <f>STDEV(H1:H30)</f>
+        <v>4.9340535210809305E-4</v>
+      </c>
+      <c r="J33" s="9">
+        <f>STDEV(J1:J30)</f>
+        <v>1.2467026509958217</v>
+      </c>
+      <c r="M33" s="9">
+        <f>STDEV(M1:M30)</f>
+        <v>2.8791489163622081E-3</v>
+      </c>
+      <c r="O33" s="9">
+        <f>STDEV(O1:O30)</f>
+        <v>6.6104919674502387</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="B36" s="9">
         <v>0.83299821190339396</v>
       </c>
@@ -6745,7 +11035,7 @@
         <v>6.4869666666666665</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:15">
       <c r="C37" s="12">
         <f>C33/1000</f>
         <v>0.16428317296528044</v>
@@ -6755,7 +11045,7 @@
         <v>0.58499781805271445</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -6766,7 +11056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="18">
+    <row r="40" spans="1:15" ht="18">
       <c r="A40" s="3" t="s">
         <v>6</v>
       </c>

--- a/GA4Robust/Book1.xlsx
+++ b/GA4Robust/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenwang/Documents/ExperimentResults/GA4Robust/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2718502F-616D-C340-BEED-51D441CA5D27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48BEF30-201C-D743-8D0C-BBDCE8DE22C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19260" activeTab="8" xr2:uid="{F1300CCD-A310-7946-86EE-3F30CFB335E8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="11" xr2:uid="{F1300CCD-A310-7946-86EE-3F30CFB335E8}"/>
   </bookViews>
   <sheets>
     <sheet name="0901(50)" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,21 @@
     <sheet name="0801 (200)" sheetId="10" r:id="rId7"/>
     <sheet name="0801 (testing)" sheetId="11" r:id="rId8"/>
     <sheet name="0802 (200)" sheetId="13" r:id="rId9"/>
-    <sheet name="0802 (800)" sheetId="25" r:id="rId10"/>
-    <sheet name="0802(50)" sheetId="6" r:id="rId11"/>
-    <sheet name="0901 (200)" sheetId="16" r:id="rId12"/>
-    <sheet name="TC1" sheetId="23" r:id="rId13"/>
-    <sheet name="TC2" sheetId="20" r:id="rId14"/>
-    <sheet name="TC3" sheetId="17" r:id="rId15"/>
-    <sheet name="TC4" sheetId="21" r:id="rId16"/>
-    <sheet name="TC5" sheetId="22" r:id="rId17"/>
-    <sheet name="0803 (200)" sheetId="14" r:id="rId18"/>
-    <sheet name="0803" sheetId="7" r:id="rId19"/>
-    <sheet name="0804 (200)" sheetId="15" r:id="rId20"/>
-    <sheet name="0804" sheetId="8" r:id="rId21"/>
+    <sheet name="new_TC1" sheetId="29" r:id="rId10"/>
+    <sheet name="new_TC3" sheetId="26" r:id="rId11"/>
+    <sheet name="new_TC4" sheetId="28" r:id="rId12"/>
+    <sheet name="0802 (800)" sheetId="25" r:id="rId13"/>
+    <sheet name="0802(50)" sheetId="6" r:id="rId14"/>
+    <sheet name="0901 (200)" sheetId="16" r:id="rId15"/>
+    <sheet name="TC1" sheetId="23" r:id="rId16"/>
+    <sheet name="TC2" sheetId="20" r:id="rId17"/>
+    <sheet name="TC3" sheetId="17" r:id="rId18"/>
+    <sheet name="TC4" sheetId="21" r:id="rId19"/>
+    <sheet name="TC5" sheetId="22" r:id="rId20"/>
+    <sheet name="0803 (200)" sheetId="14" r:id="rId21"/>
+    <sheet name="0803" sheetId="7" r:id="rId22"/>
+    <sheet name="0804 (200)" sheetId="15" r:id="rId23"/>
+    <sheet name="0804" sheetId="8" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -247,15 +250,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,6 +574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E111E3-CD5D-AB41-9314-2FE0328E64E1}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView zoomScale="142" workbookViewId="0">
@@ -1382,7 +1386,2685 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E14AB0C-1196-554B-B6BC-D1166BCAE515}">
+  <sheetPr codeName="Sheet24"/>
+  <dimension ref="A1:P33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="4">
+        <v>0.92322826033213901</v>
+      </c>
+      <c r="B1" s="4">
+        <v>14424.699999999901</v>
+      </c>
+      <c r="C1" s="23">
+        <f>B1/30</f>
+        <v>480.82333333333003</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="23">
+        <f>G1/30</f>
+        <v>0</v>
+      </c>
+      <c r="I1" s="4">
+        <v>0</v>
+      </c>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="4">
+        <v>0.92281247835541402</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2911.4</v>
+      </c>
+      <c r="C2" s="23">
+        <f t="shared" ref="C2:C30" si="0">B2/30</f>
+        <v>97.046666666666667</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="23">
+        <f t="shared" ref="H2:H30" si="1">G2/30</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="4">
+        <v>0.92260643833603395</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1345.8</v>
+      </c>
+      <c r="C3" s="23">
+        <f t="shared" si="0"/>
+        <v>44.86</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="4">
+        <v>0.92297836278434897</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2091.6999999999998</v>
+      </c>
+      <c r="C4" s="23">
+        <f t="shared" si="0"/>
+        <v>69.723333333333329</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4">
+        <v>0.92320182075023505</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5637.0333333333301</v>
+      </c>
+      <c r="C5" s="23">
+        <f t="shared" si="0"/>
+        <v>187.90111111111099</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="4">
+        <v>0.92321690481923702</v>
+      </c>
+      <c r="B6" s="4">
+        <v>28741.466666666602</v>
+      </c>
+      <c r="C6" s="23">
+        <f t="shared" si="0"/>
+        <v>958.04888888888672</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="4">
+        <v>0.92252559787660104</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8888.9666666666599</v>
+      </c>
+      <c r="C7" s="23">
+        <f t="shared" si="0"/>
+        <v>296.29888888888865</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="4">
+        <v>0.92237530761723197</v>
+      </c>
+      <c r="B8" s="4">
+        <v>13219.266666666599</v>
+      </c>
+      <c r="C8" s="23">
+        <f t="shared" si="0"/>
+        <v>440.64222222221997</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="4">
+        <v>0.92287255742616303</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1009.93333333333</v>
+      </c>
+      <c r="C9" s="23">
+        <f t="shared" si="0"/>
+        <v>33.664444444444335</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="4">
+        <v>0.92306031437150304</v>
+      </c>
+      <c r="B10" s="4">
+        <v>39522.433333333298</v>
+      </c>
+      <c r="C10" s="23">
+        <f t="shared" si="0"/>
+        <v>1317.4144444444432</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="4">
+        <v>0.92279605665054298</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1549.0333333333299</v>
+      </c>
+      <c r="C11" s="23">
+        <f t="shared" si="0"/>
+        <v>51.634444444444327</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="4">
+        <v>0.92267391765388096</v>
+      </c>
+      <c r="B12" s="4">
+        <v>20365.299999999901</v>
+      </c>
+      <c r="C12" s="23">
+        <f t="shared" si="0"/>
+        <v>678.84333333333007</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="4">
+        <v>0.92298040705418904</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12764.833333333299</v>
+      </c>
+      <c r="C13" s="23">
+        <f t="shared" si="0"/>
+        <v>425.49444444444333</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="4">
+        <v>0.92305836596063495</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10483.9666666666</v>
+      </c>
+      <c r="C14" s="23">
+        <f t="shared" si="0"/>
+        <v>349.46555555555335</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="4">
+        <v>0.92312139351153799</v>
+      </c>
+      <c r="B15" s="4">
+        <v>27850.7</v>
+      </c>
+      <c r="C15" s="23">
+        <f t="shared" si="0"/>
+        <v>928.35666666666668</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="4">
+        <v>0.92252807525971103</v>
+      </c>
+      <c r="B16" s="4">
+        <v>14423.733333333301</v>
+      </c>
+      <c r="C16" s="23">
+        <f t="shared" si="0"/>
+        <v>480.79111111111001</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="4">
+        <v>0.922672472554252</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3275.3333333333298</v>
+      </c>
+      <c r="C17" s="23">
+        <f t="shared" si="0"/>
+        <v>109.17777777777766</v>
+      </c>
+      <c r="D17" s="4">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="4">
+        <v>0.92270002401779205</v>
+      </c>
+      <c r="B18" s="4">
+        <v>10778.833333333299</v>
+      </c>
+      <c r="C18" s="23">
+        <f t="shared" si="0"/>
+        <v>359.29444444444329</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="4">
+        <v>0.92264340073625395</v>
+      </c>
+      <c r="B19" s="4">
+        <v>9220.1</v>
+      </c>
+      <c r="C19" s="23">
+        <f t="shared" si="0"/>
+        <v>307.3366666666667</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="4">
+        <v>0.92302293929962598</v>
+      </c>
+      <c r="B20" s="4">
+        <v>6291.2666666666601</v>
+      </c>
+      <c r="C20" s="23">
+        <f t="shared" si="0"/>
+        <v>209.70888888888868</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="4">
+        <v>0.922669135102412</v>
+      </c>
+      <c r="B21" s="4">
+        <v>6246.5666666666602</v>
+      </c>
+      <c r="C21" s="23">
+        <f t="shared" si="0"/>
+        <v>208.21888888888867</v>
+      </c>
+      <c r="D21" s="4">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="4">
+        <v>0.92273238338041497</v>
+      </c>
+      <c r="B22" s="4">
+        <v>12730.6333333333</v>
+      </c>
+      <c r="C22" s="23">
+        <f t="shared" si="0"/>
+        <v>424.35444444444335</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="4">
+        <v>0.92301645379582897</v>
+      </c>
+      <c r="B23" s="4">
+        <v>13235.766666666599</v>
+      </c>
+      <c r="C23" s="23">
+        <f t="shared" si="0"/>
+        <v>441.19222222221998</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="4">
+        <v>0.92320369195208396</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1398.06666666666</v>
+      </c>
+      <c r="C24" s="23">
+        <f t="shared" si="0"/>
+        <v>46.602222222222004</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="4">
+        <v>0.92279114918441796</v>
+      </c>
+      <c r="B25" s="4">
+        <v>38288.733333333301</v>
+      </c>
+      <c r="C25" s="23">
+        <f t="shared" si="0"/>
+        <v>1276.29111111111</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="4">
+        <v>0.92241873884005399</v>
+      </c>
+      <c r="B26" s="4">
+        <v>8618.5</v>
+      </c>
+      <c r="C26" s="23">
+        <f t="shared" si="0"/>
+        <v>287.28333333333336</v>
+      </c>
+      <c r="D26" s="4">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="4">
+        <v>0.922647721524675</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2919.3</v>
+      </c>
+      <c r="C27" s="23">
+        <f t="shared" si="0"/>
+        <v>97.31</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="4">
+        <v>0.92333943651750405</v>
+      </c>
+      <c r="B28" s="4">
+        <v>33544.466666666602</v>
+      </c>
+      <c r="C28" s="23">
+        <f t="shared" si="0"/>
+        <v>1118.1488888888866</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="4">
+        <v>0.92283460673656703</v>
+      </c>
+      <c r="B29" s="4">
+        <v>17852.699999999899</v>
+      </c>
+      <c r="C29" s="23">
+        <f t="shared" si="0"/>
+        <v>595.08999999999662</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="4">
+        <v>0.92269571424708696</v>
+      </c>
+      <c r="B30" s="4">
+        <v>6295.1999999999898</v>
+      </c>
+      <c r="C30" s="23">
+        <f t="shared" si="0"/>
+        <v>209.83999999999966</v>
+      </c>
+      <c r="D30" s="4">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <f>AVERAGE(A1:A31)</f>
+        <v>0.92284747088827923</v>
+      </c>
+      <c r="C32" s="11">
+        <f>AVERAGE(C1:C31)</f>
+        <v>417.69525925925825</v>
+      </c>
+      <c r="F32" t="e">
+        <f>AVERAGE(F1:F31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="11">
+        <f>AVERAGE(H1:H31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="e">
+        <f>STDEV(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C33" s="11">
+        <f t="shared" ref="A33:C33" si="2">STDEV(C1:C30)</f>
+        <v>367.37439299301207</v>
+      </c>
+      <c r="F33" t="e">
+        <f t="shared" ref="F33" si="3">STDEV(F1:F30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="11">
+        <f t="shared" ref="H33" si="4">STDEV(H1:H30)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CAC0B5-772C-AF4F-A1C0-DC881DD3DD01}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:P33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="4">
+        <v>0.857011876113</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1097.6666666666599</v>
+      </c>
+      <c r="C1" s="23">
+        <f>B1/30</f>
+        <v>36.588888888888661</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0.85305863307040397</v>
+      </c>
+      <c r="G1" s="4">
+        <v>1034</v>
+      </c>
+      <c r="H1" s="23">
+        <f>G1/30</f>
+        <v>34.466666666666669</v>
+      </c>
+      <c r="I1" s="4">
+        <v>0</v>
+      </c>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="4">
+        <v>0.86580955987344699</v>
+      </c>
+      <c r="B2" s="4">
+        <v>579.03333333333296</v>
+      </c>
+      <c r="C2" s="23">
+        <f t="shared" ref="C2:C30" si="0">B2/30</f>
+        <v>19.301111111111098</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.86119511145215799</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1045.36666666666</v>
+      </c>
+      <c r="H2" s="23">
+        <f t="shared" ref="H2:H30" si="1">G2/30</f>
+        <v>34.845555555555329</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="4">
+        <v>0.86635809448717505</v>
+      </c>
+      <c r="B3" s="4">
+        <v>171.79999999999899</v>
+      </c>
+      <c r="C3" s="23">
+        <f t="shared" si="0"/>
+        <v>5.7266666666666328</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.86335966264664499</v>
+      </c>
+      <c r="G3" s="4">
+        <v>508.99999999999898</v>
+      </c>
+      <c r="H3" s="23">
+        <f t="shared" si="1"/>
+        <v>16.966666666666633</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="4">
+        <v>0.86551629884984205</v>
+      </c>
+      <c r="B4" s="4">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="C4" s="23">
+        <f t="shared" si="0"/>
+        <v>4.7733333333333325</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.86009679813150997</v>
+      </c>
+      <c r="G4" s="4">
+        <v>612.16666666666595</v>
+      </c>
+      <c r="H4" s="23">
+        <f t="shared" si="1"/>
+        <v>20.40555555555553</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4">
+        <v>0.86432614940077801</v>
+      </c>
+      <c r="B5" s="4">
+        <v>112.466666666666</v>
+      </c>
+      <c r="C5" s="23">
+        <f t="shared" si="0"/>
+        <v>3.7488888888888665</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.85312846173356105</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1512.3999999999901</v>
+      </c>
+      <c r="H5" s="23">
+        <f t="shared" si="1"/>
+        <v>50.413333333333</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="4">
+        <v>0.86574294564780996</v>
+      </c>
+      <c r="B6" s="4">
+        <v>237.29999999999899</v>
+      </c>
+      <c r="C6" s="23">
+        <f t="shared" si="0"/>
+        <v>7.9099999999999664</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.85568687630863605</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1002.7666666666599</v>
+      </c>
+      <c r="H6" s="23">
+        <f t="shared" si="1"/>
+        <v>33.425555555555334</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="4">
+        <v>0.85490246904207201</v>
+      </c>
+      <c r="B7" s="4">
+        <v>202.1</v>
+      </c>
+      <c r="C7" s="23">
+        <f t="shared" si="0"/>
+        <v>6.7366666666666664</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.85319594732464699</v>
+      </c>
+      <c r="G7" s="4">
+        <v>790.3</v>
+      </c>
+      <c r="H7" s="23">
+        <f t="shared" si="1"/>
+        <v>26.34333333333333</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="4">
+        <v>0.86338241180490405</v>
+      </c>
+      <c r="B8" s="4">
+        <v>252.39999999999901</v>
+      </c>
+      <c r="C8" s="23">
+        <f t="shared" si="0"/>
+        <v>8.4133333333333002</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.85793063289923899</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1142.7333333333299</v>
+      </c>
+      <c r="H8" s="23">
+        <f t="shared" si="1"/>
+        <v>38.091111111110997</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="4">
+        <v>0.86466250487457896</v>
+      </c>
+      <c r="B9" s="4">
+        <v>506.666666666666</v>
+      </c>
+      <c r="C9" s="23">
+        <f t="shared" si="0"/>
+        <v>16.888888888888868</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.85537382987203503</v>
+      </c>
+      <c r="G9" s="4">
+        <v>309.5</v>
+      </c>
+      <c r="H9" s="23">
+        <f t="shared" si="1"/>
+        <v>10.316666666666666</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="4">
+        <v>0.857721391025971</v>
+      </c>
+      <c r="B10" s="4">
+        <v>468.96666666666601</v>
+      </c>
+      <c r="C10" s="23">
+        <f t="shared" si="0"/>
+        <v>15.6322222222222</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.85830518126424604</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3617.4333333333302</v>
+      </c>
+      <c r="H10" s="23">
+        <f t="shared" si="1"/>
+        <v>120.58111111111101</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="4">
+        <v>0.866204271542801</v>
+      </c>
+      <c r="B11" s="4">
+        <v>431.6</v>
+      </c>
+      <c r="C11" s="23">
+        <f t="shared" si="0"/>
+        <v>14.386666666666667</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.85188220397296499</v>
+      </c>
+      <c r="G11" s="4">
+        <v>512.73333333333301</v>
+      </c>
+      <c r="H11" s="23">
+        <f t="shared" si="1"/>
+        <v>17.0911111111111</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="4">
+        <v>0.84620685380458305</v>
+      </c>
+      <c r="B12" s="4">
+        <v>313.83333333333297</v>
+      </c>
+      <c r="C12" s="23">
+        <f t="shared" si="0"/>
+        <v>10.4611111111111</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.84087386356206695</v>
+      </c>
+      <c r="G12" s="4">
+        <v>137.46666666666599</v>
+      </c>
+      <c r="H12" s="23">
+        <f t="shared" si="1"/>
+        <v>4.5822222222221995</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="4">
+        <v>0.86592651315351499</v>
+      </c>
+      <c r="B13" s="4">
+        <v>464.433333333333</v>
+      </c>
+      <c r="C13" s="23">
+        <f t="shared" si="0"/>
+        <v>15.481111111111099</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.86467356114490201</v>
+      </c>
+      <c r="G13" s="4">
+        <v>413.3</v>
+      </c>
+      <c r="H13" s="23">
+        <f t="shared" si="1"/>
+        <v>13.776666666666667</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="4">
+        <v>0.864176317166926</v>
+      </c>
+      <c r="B14" s="4">
+        <v>113.06666666666599</v>
+      </c>
+      <c r="C14" s="23">
+        <f t="shared" si="0"/>
+        <v>3.7688888888888665</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.86206895627737601</v>
+      </c>
+      <c r="G14" s="4">
+        <v>415.13333333333298</v>
+      </c>
+      <c r="H14" s="23">
+        <f t="shared" si="1"/>
+        <v>13.837777777777767</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="4">
+        <v>0.86571173398294499</v>
+      </c>
+      <c r="B15" s="4">
+        <v>188.56666666666601</v>
+      </c>
+      <c r="C15" s="23">
+        <f t="shared" si="0"/>
+        <v>6.2855555555555336</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.84860490933342003</v>
+      </c>
+      <c r="G15" s="4">
+        <v>382.19999999999902</v>
+      </c>
+      <c r="H15" s="23">
+        <f t="shared" si="1"/>
+        <v>12.739999999999968</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="4">
+        <v>0.86559406436627195</v>
+      </c>
+      <c r="B16" s="4">
+        <v>239.46666666666599</v>
+      </c>
+      <c r="C16" s="23">
+        <f t="shared" si="0"/>
+        <v>7.9822222222221999</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.84924984164507</v>
+      </c>
+      <c r="G16" s="4">
+        <v>375.29999999999899</v>
+      </c>
+      <c r="H16" s="23">
+        <f t="shared" si="1"/>
+        <v>12.509999999999966</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="4">
+        <v>0.86444526202058902</v>
+      </c>
+      <c r="B17" s="4">
+        <v>380.666666666666</v>
+      </c>
+      <c r="C17" s="23">
+        <f t="shared" si="0"/>
+        <v>12.688888888888867</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.851400861793008</v>
+      </c>
+      <c r="G17" s="4">
+        <v>883.03333333333296</v>
+      </c>
+      <c r="H17" s="23">
+        <f t="shared" si="1"/>
+        <v>29.434444444444431</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="4">
+        <v>0.86534004685296495</v>
+      </c>
+      <c r="B18" s="4">
+        <v>205.8</v>
+      </c>
+      <c r="C18" s="23">
+        <f t="shared" si="0"/>
+        <v>6.86</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.84970861332167003</v>
+      </c>
+      <c r="G18" s="4">
+        <v>546.73333333333301</v>
+      </c>
+      <c r="H18" s="23">
+        <f t="shared" si="1"/>
+        <v>18.224444444444433</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="4">
+        <v>0.86447798948614596</v>
+      </c>
+      <c r="B19" s="4">
+        <v>144.53333333333299</v>
+      </c>
+      <c r="C19" s="23">
+        <f t="shared" si="0"/>
+        <v>4.8177777777777662</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.85982550857921103</v>
+      </c>
+      <c r="G19" s="4">
+        <v>875.56666666666604</v>
+      </c>
+      <c r="H19" s="23">
+        <f t="shared" si="1"/>
+        <v>29.185555555555535</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="4">
+        <v>0.85240760731303</v>
+      </c>
+      <c r="B20" s="4">
+        <v>783.73333333333301</v>
+      </c>
+      <c r="C20" s="23">
+        <f t="shared" si="0"/>
+        <v>26.124444444444432</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.85904173986020205</v>
+      </c>
+      <c r="G20" s="4">
+        <v>376.666666666666</v>
+      </c>
+      <c r="H20" s="23">
+        <f t="shared" si="1"/>
+        <v>12.555555555555534</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="4">
+        <v>0.86336522559668505</v>
+      </c>
+      <c r="B21" s="4">
+        <v>165.7</v>
+      </c>
+      <c r="C21" s="23">
+        <f t="shared" si="0"/>
+        <v>5.5233333333333325</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.86365424914647804</v>
+      </c>
+      <c r="G21" s="4">
+        <v>362.06666666666598</v>
+      </c>
+      <c r="H21" s="23">
+        <f t="shared" si="1"/>
+        <v>12.068888888888866</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="4">
+        <v>0.86576866464498203</v>
+      </c>
+      <c r="B22" s="4">
+        <v>903.06666666666604</v>
+      </c>
+      <c r="C22" s="23">
+        <f t="shared" si="0"/>
+        <v>30.102222222222203</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.86342974948982398</v>
+      </c>
+      <c r="G22" s="4">
+        <v>577.03333333333296</v>
+      </c>
+      <c r="H22" s="23">
+        <f t="shared" si="1"/>
+        <v>19.234444444444431</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="4">
+        <v>0.85416305660825298</v>
+      </c>
+      <c r="B23" s="4">
+        <v>378.03333333333302</v>
+      </c>
+      <c r="C23" s="23">
+        <f t="shared" si="0"/>
+        <v>12.6011111111111</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.83545544542121197</v>
+      </c>
+      <c r="G23" s="4">
+        <v>912.099999999999</v>
+      </c>
+      <c r="H23" s="23">
+        <f t="shared" si="1"/>
+        <v>30.4033333333333</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="4">
+        <v>0.86336847519486704</v>
+      </c>
+      <c r="B24" s="4">
+        <v>408.13333333333298</v>
+      </c>
+      <c r="C24" s="23">
+        <f t="shared" si="0"/>
+        <v>13.604444444444432</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.84294665527622403</v>
+      </c>
+      <c r="G24" s="4">
+        <v>499.166666666666</v>
+      </c>
+      <c r="H24" s="23">
+        <f t="shared" si="1"/>
+        <v>16.638888888888868</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="4">
+        <v>0.86515298275401398</v>
+      </c>
+      <c r="B25" s="4">
+        <v>372.666666666666</v>
+      </c>
+      <c r="C25" s="23">
+        <f t="shared" si="0"/>
+        <v>12.422222222222199</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.85789602778263296</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1771.2666666666601</v>
+      </c>
+      <c r="H25" s="23">
+        <f t="shared" si="1"/>
+        <v>59.042222222222001</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="4">
+        <v>0.86590373393075004</v>
+      </c>
+      <c r="B26" s="4">
+        <v>936.56666666666604</v>
+      </c>
+      <c r="C26" s="23">
+        <f t="shared" si="0"/>
+        <v>31.218888888888866</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.85508836930476695</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1086.43333333333</v>
+      </c>
+      <c r="H26" s="23">
+        <f t="shared" si="1"/>
+        <v>36.214444444444332</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="4">
+        <v>0.86595814719364095</v>
+      </c>
+      <c r="B27" s="4">
+        <v>187.166666666666</v>
+      </c>
+      <c r="C27" s="23">
+        <f t="shared" si="0"/>
+        <v>6.2388888888888667</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.85732649513759396</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1125.36666666666</v>
+      </c>
+      <c r="H27" s="23">
+        <f t="shared" si="1"/>
+        <v>37.512222222222</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="4">
+        <v>0.86173690256948299</v>
+      </c>
+      <c r="B28" s="4">
+        <v>182.73333333333301</v>
+      </c>
+      <c r="C28" s="23">
+        <f t="shared" si="0"/>
+        <v>6.0911111111111005</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.79768248041062195</v>
+      </c>
+      <c r="G28" s="4">
+        <v>426.2</v>
+      </c>
+      <c r="H28" s="23">
+        <f t="shared" si="1"/>
+        <v>14.206666666666667</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="4">
+        <v>0.86312954535032604</v>
+      </c>
+      <c r="B29" s="4">
+        <v>341.26666666666603</v>
+      </c>
+      <c r="C29" s="23">
+        <f t="shared" si="0"/>
+        <v>11.375555555555534</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.85700463773638003</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1536.9666666666601</v>
+      </c>
+      <c r="H29" s="23">
+        <f t="shared" si="1"/>
+        <v>51.232222222222006</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="4">
+        <v>0.86450714035533405</v>
+      </c>
+      <c r="B30" s="4">
+        <v>727.63333333333298</v>
+      </c>
+      <c r="C30" s="23">
+        <f t="shared" si="0"/>
+        <v>24.254444444444434</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.85176121138171002</v>
+      </c>
+      <c r="G30" s="4">
+        <v>428.9</v>
+      </c>
+      <c r="H30" s="23">
+        <f t="shared" si="1"/>
+        <v>14.296666666666665</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <f>AVERAGE(A1:A31)</f>
+        <v>0.86263260783358942</v>
+      </c>
+      <c r="C32" s="11">
+        <f>AVERAGE(C1:C31)</f>
+        <v>12.933629629629609</v>
+      </c>
+      <c r="F32">
+        <f>AVERAGE(F1:F31)</f>
+        <v>0.85303021717601402</v>
+      </c>
+      <c r="H32" s="11">
+        <f>AVERAGE(H1:H31)</f>
+        <v>28.021444444444377</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <f t="shared" ref="A33:C33" si="2">STDEV(A1:A30)</f>
+        <v>4.9581704704270658E-3</v>
+      </c>
+      <c r="C33" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8304189265960122</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33" si="3">STDEV(F1:F30)</f>
+        <v>1.251576205052406E-2</v>
+      </c>
+      <c r="H33" s="11">
+        <f t="shared" ref="H33" si="4">STDEV(H1:H30)</f>
+        <v>22.107790110733468</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A589402-C215-114B-ABF9-DAF8A868E827}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:P33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P96" sqref="P96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="4">
+        <v>0.79639761921750796</v>
+      </c>
+      <c r="B1" s="4">
+        <v>3794.9</v>
+      </c>
+      <c r="C1" s="23">
+        <f>B1/30</f>
+        <v>126.49666666666667</v>
+      </c>
+      <c r="D1" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0.78590039333166795</v>
+      </c>
+      <c r="G1" s="4">
+        <v>4797.6333333333296</v>
+      </c>
+      <c r="H1" s="23">
+        <f>G1/30</f>
+        <v>159.92111111111097</v>
+      </c>
+      <c r="I1" s="4">
+        <v>0</v>
+      </c>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="4">
+        <v>0.79467701732643703</v>
+      </c>
+      <c r="B2" s="4">
+        <v>6902.0666666666602</v>
+      </c>
+      <c r="C2" s="23">
+        <f>B2/30</f>
+        <v>230.06888888888867</v>
+      </c>
+      <c r="D2" s="4">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.74028738644514602</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3537.4333333333302</v>
+      </c>
+      <c r="H2" s="23">
+        <f>G2/30</f>
+        <v>117.91444444444434</v>
+      </c>
+      <c r="I2" s="4">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="4">
+        <v>0.79552417599469105</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5356.8333333333303</v>
+      </c>
+      <c r="C3" s="23">
+        <f>B3/30</f>
+        <v>178.56111111111102</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.78769046924533404</v>
+      </c>
+      <c r="G3" s="4">
+        <v>7234.1666666666597</v>
+      </c>
+      <c r="H3" s="23">
+        <f>G3/30</f>
+        <v>241.13888888888866</v>
+      </c>
+      <c r="I3" s="4">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="4">
+        <v>0.79708621652324096</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4434.8666666666604</v>
+      </c>
+      <c r="C4" s="23">
+        <f>B4/30</f>
+        <v>147.82888888888868</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.77466110496966101</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2827.8333333333298</v>
+      </c>
+      <c r="H4" s="23">
+        <f>G4/30</f>
+        <v>94.261111111110992</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4">
+        <v>0.79645054322921904</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7314.5666666666602</v>
+      </c>
+      <c r="C5" s="23">
+        <f>B5/30</f>
+        <v>243.81888888888867</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.78333056880413698</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3775.36666666666</v>
+      </c>
+      <c r="H5" s="23">
+        <f>G5/30</f>
+        <v>125.84555555555534</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="4">
+        <v>0.79326562375816401</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8520.4999999999909</v>
+      </c>
+      <c r="C6" s="23">
+        <f>B6/30</f>
+        <v>284.01666666666637</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.79184372022268901</v>
+      </c>
+      <c r="G6" s="4">
+        <v>7447.7666666666601</v>
+      </c>
+      <c r="H6" s="23">
+        <f>G6/30</f>
+        <v>248.25888888888866</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="4">
+        <v>0.79423270747827501</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4118.0333333333301</v>
+      </c>
+      <c r="C7" s="23">
+        <f>B7/30</f>
+        <v>137.26777777777767</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.78980902156988397</v>
+      </c>
+      <c r="G7" s="4">
+        <v>10942.4666666666</v>
+      </c>
+      <c r="H7" s="23">
+        <f>G7/30</f>
+        <v>364.74888888888665</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="4">
+        <v>0.79331060295154798</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8343.9333333333307</v>
+      </c>
+      <c r="C8" s="23">
+        <f>B8/30</f>
+        <v>278.13111111111101</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.76726141045362395</v>
+      </c>
+      <c r="G8" s="4">
+        <v>6840</v>
+      </c>
+      <c r="H8" s="23">
+        <f>G8/30</f>
+        <v>228</v>
+      </c>
+      <c r="I8" s="4">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="4">
+        <v>0.79589007770922804</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1036.3333333333301</v>
+      </c>
+      <c r="C9" s="23">
+        <f>B9/30</f>
+        <v>34.544444444444338</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.77625597599247198</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1622.29999999999</v>
+      </c>
+      <c r="H9" s="23">
+        <f>G9/30</f>
+        <v>54.076666666666334</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="4">
+        <v>0.79510870850460302</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2925.0333333333301</v>
+      </c>
+      <c r="C10" s="23">
+        <f>B10/30</f>
+        <v>97.501111111111001</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.77921279125505205</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2570.4333333333302</v>
+      </c>
+      <c r="H10" s="23">
+        <f>G10/30</f>
+        <v>85.681111111111008</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="4">
+        <v>0.75715737026051999</v>
+      </c>
+      <c r="B11" s="4">
+        <v>6727.2666666666601</v>
+      </c>
+      <c r="C11" s="23">
+        <f>B11/30</f>
+        <v>224.24222222222201</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.795582722124069</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1065.5</v>
+      </c>
+      <c r="H11" s="23">
+        <f>G11/30</f>
+        <v>35.516666666666666</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="4">
+        <v>0.79158943222228895</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3364.0999999999899</v>
+      </c>
+      <c r="C12" s="23">
+        <f>B12/30</f>
+        <v>112.13666666666633</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.78907560905617802</v>
+      </c>
+      <c r="G12" s="4">
+        <v>7694.4333333333298</v>
+      </c>
+      <c r="H12" s="23">
+        <f>G12/30</f>
+        <v>256.48111111111098</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="4">
+        <v>0.78338263614549797</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4198.8</v>
+      </c>
+      <c r="C13" s="23">
+        <f>B13/30</f>
+        <v>139.96</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.75506486656287297</v>
+      </c>
+      <c r="G13" s="4">
+        <v>12477.233333333301</v>
+      </c>
+      <c r="H13" s="23">
+        <f>G13/30</f>
+        <v>415.90777777777669</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="4">
+        <v>0.79074715699460196</v>
+      </c>
+      <c r="B14" s="4">
+        <v>7125.5999999999904</v>
+      </c>
+      <c r="C14" s="23">
+        <f>B14/30</f>
+        <v>237.51999999999967</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.78433882527377397</v>
+      </c>
+      <c r="G14" s="4">
+        <v>4900.2333333333299</v>
+      </c>
+      <c r="H14" s="23">
+        <f>G14/30</f>
+        <v>163.34111111111099</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="4">
+        <v>0.79598632445791595</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4229.3666666666604</v>
+      </c>
+      <c r="C15" s="23">
+        <f>B15/30</f>
+        <v>140.97888888888869</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.780649196737777</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5880.3666666666604</v>
+      </c>
+      <c r="H15" s="23">
+        <f>G15/30</f>
+        <v>196.01222222222202</v>
+      </c>
+      <c r="I15" s="4">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="4">
+        <v>0.79197233431302205</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3604.6666666666601</v>
+      </c>
+      <c r="C16" s="23">
+        <f>B16/30</f>
+        <v>120.15555555555534</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.77647358038038405</v>
+      </c>
+      <c r="G16" s="4">
+        <v>9559.1</v>
+      </c>
+      <c r="H16" s="23">
+        <f>G16/30</f>
+        <v>318.63666666666666</v>
+      </c>
+      <c r="I16" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="4">
+        <v>0.79333218197194799</v>
+      </c>
+      <c r="B17" s="4">
+        <v>8871.8666666666595</v>
+      </c>
+      <c r="C17" s="23">
+        <f>B17/30</f>
+        <v>295.72888888888866</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.78841550852796205</v>
+      </c>
+      <c r="G17" s="4">
+        <v>5440.7</v>
+      </c>
+      <c r="H17" s="23">
+        <f>G17/30</f>
+        <v>181.35666666666665</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="4">
+        <v>0.79541512401565695</v>
+      </c>
+      <c r="B18" s="4">
+        <v>11662.5</v>
+      </c>
+      <c r="C18" s="23">
+        <f>B18/30</f>
+        <v>388.75</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.77454660418268195</v>
+      </c>
+      <c r="G18" s="4">
+        <v>10178.9</v>
+      </c>
+      <c r="H18" s="23">
+        <f>G18/30</f>
+        <v>339.29666666666668</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="4">
+        <v>0.79373808559474901</v>
+      </c>
+      <c r="B19" s="4">
+        <v>4631.9333333333298</v>
+      </c>
+      <c r="C19" s="23">
+        <f>B19/30</f>
+        <v>154.39777777777766</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.78695882348739699</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5404.0999999999904</v>
+      </c>
+      <c r="H19" s="23">
+        <f>G19/30</f>
+        <v>180.13666666666634</v>
+      </c>
+      <c r="I19" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="4">
+        <v>0.79645881245153305</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3674.1</v>
+      </c>
+      <c r="C20" s="23">
+        <f>B20/30</f>
+        <v>122.47</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.75640643570707899</v>
+      </c>
+      <c r="G20" s="4">
+        <v>3714.1</v>
+      </c>
+      <c r="H20" s="23">
+        <f>G20/30</f>
+        <v>123.80333333333333</v>
+      </c>
+      <c r="I20" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="4">
+        <v>0.79530702491627403</v>
+      </c>
+      <c r="B21" s="4">
+        <v>7817.5333333333301</v>
+      </c>
+      <c r="C21" s="23">
+        <f>B21/30</f>
+        <v>260.58444444444433</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.79435811733253303</v>
+      </c>
+      <c r="G21" s="4">
+        <v>7491.1666666666597</v>
+      </c>
+      <c r="H21" s="23">
+        <f>G21/30</f>
+        <v>249.70555555555532</v>
+      </c>
+      <c r="I21" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="4">
+        <v>0.79666983727804996</v>
+      </c>
+      <c r="B22" s="4">
+        <v>3611.2333333333299</v>
+      </c>
+      <c r="C22" s="23">
+        <f>B22/30</f>
+        <v>120.37444444444434</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.79104539037531696</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2171.6</v>
+      </c>
+      <c r="H22" s="23">
+        <f>G22/30</f>
+        <v>72.38666666666667</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="4">
+        <v>0.79655571488961596</v>
+      </c>
+      <c r="B23" s="4">
+        <v>5153.7333333333299</v>
+      </c>
+      <c r="C23" s="23">
+        <f>B23/30</f>
+        <v>171.79111111111101</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.77790352812046903</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2335.0333333333301</v>
+      </c>
+      <c r="H23" s="23">
+        <f>G23/30</f>
+        <v>77.834444444444344</v>
+      </c>
+      <c r="I23" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="4">
+        <v>0.79499614030160104</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1673.5333333333299</v>
+      </c>
+      <c r="C24" s="23">
+        <f>B24/30</f>
+        <v>55.784444444444333</v>
+      </c>
+      <c r="D24" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.78527109167303599</v>
+      </c>
+      <c r="G24" s="4">
+        <v>3610.3999999999901</v>
+      </c>
+      <c r="H24" s="23">
+        <f>G24/30</f>
+        <v>120.34666666666634</v>
+      </c>
+      <c r="I24" s="4">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="4">
+        <v>0.79327398253750203</v>
+      </c>
+      <c r="B25" s="4">
+        <v>5026.4333333333298</v>
+      </c>
+      <c r="C25" s="23">
+        <f>B25/30</f>
+        <v>167.54777777777767</v>
+      </c>
+      <c r="D25" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.79233949407529403</v>
+      </c>
+      <c r="G25" s="4">
+        <v>6383.2333333333299</v>
+      </c>
+      <c r="H25" s="23">
+        <f>G25/30</f>
+        <v>212.77444444444433</v>
+      </c>
+      <c r="I25" s="4">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="4">
+        <v>0.79584957159061498</v>
+      </c>
+      <c r="B26" s="4">
+        <v>6105.6</v>
+      </c>
+      <c r="C26" s="23">
+        <f>B26/30</f>
+        <v>203.52</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.78089569718429197</v>
+      </c>
+      <c r="G26" s="4">
+        <v>4613.5</v>
+      </c>
+      <c r="H26" s="23">
+        <f>G26/30</f>
+        <v>153.78333333333333</v>
+      </c>
+      <c r="I26" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="4">
+        <v>0.79638032777594003</v>
+      </c>
+      <c r="B27" s="4">
+        <v>4133.9666666666599</v>
+      </c>
+      <c r="C27" s="23">
+        <f>B27/30</f>
+        <v>137.79888888888865</v>
+      </c>
+      <c r="D27" s="4">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.78510242961892496</v>
+      </c>
+      <c r="G27" s="4">
+        <v>3352.7333333333299</v>
+      </c>
+      <c r="H27" s="23">
+        <f>G27/30</f>
+        <v>111.75777777777766</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="4">
+        <v>0.79650868617627102</v>
+      </c>
+      <c r="B28" s="4">
+        <v>15103.8</v>
+      </c>
+      <c r="C28" s="23">
+        <f>B28/30</f>
+        <v>503.46</v>
+      </c>
+      <c r="D28" s="4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.78336283778591198</v>
+      </c>
+      <c r="G28" s="4">
+        <v>3850.7333333333299</v>
+      </c>
+      <c r="H28" s="23">
+        <f>G28/30</f>
+        <v>128.35777777777767</v>
+      </c>
+      <c r="I28" s="4">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="4">
+        <v>0.79376094074583303</v>
+      </c>
+      <c r="B29" s="4">
+        <v>4735.1666666666597</v>
+      </c>
+      <c r="C29" s="23">
+        <f>B29/30</f>
+        <v>157.83888888888865</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.77339803638415405</v>
+      </c>
+      <c r="G29" s="4">
+        <v>3101.7999999999902</v>
+      </c>
+      <c r="H29" s="23">
+        <f>G29/30</f>
+        <v>103.393333333333</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="4">
+        <v>0.77211683128944097</v>
+      </c>
+      <c r="B30" s="4">
+        <v>6227.2333333333299</v>
+      </c>
+      <c r="C30" s="23">
+        <f>B30/30</f>
+        <v>207.57444444444434</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.78572751063806301</v>
+      </c>
+      <c r="G30" s="4">
+        <v>14816.9666666666</v>
+      </c>
+      <c r="H30" s="23">
+        <f>G30/30</f>
+        <v>493.89888888888669</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <f>AVERAGE(A1:A31)</f>
+        <v>0.79243806028739316</v>
+      </c>
+      <c r="C32" s="11">
+        <f>AVERAGE(C1:C31)</f>
+        <v>189.36166666666654</v>
+      </c>
+      <c r="D32" s="9">
+        <f>AVERAGE(D1:D31)</f>
+        <v>3.5555555555555542E-2</v>
+      </c>
+      <c r="F32">
+        <f>AVERAGE(F1:F31)</f>
+        <v>0.78043897158392783</v>
+      </c>
+      <c r="H32" s="11">
+        <f>AVERAGE(H1:H31)</f>
+        <v>188.48581481481455</v>
+      </c>
+      <c r="I32" s="9">
+        <f>AVERAGE(I1:I31)</f>
+        <v>4.888888888888885E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <f>STDEV(A1:A30)</f>
+        <v>8.2442416339522269E-3</v>
+      </c>
+      <c r="C33" s="11">
+        <f t="shared" ref="C33:D33" si="0">STDEV(C1:C30)</f>
+        <v>96.4034681618202</v>
+      </c>
+      <c r="D33" s="9">
+        <f t="shared" si="0"/>
+        <v>3.0239571310657864E-2</v>
+      </c>
+      <c r="F33">
+        <f>STDEV(F1:F30)</f>
+        <v>1.2359099627600284E-2</v>
+      </c>
+      <c r="H33" s="11">
+        <f t="shared" ref="H33:I33" si="1">STDEV(H1:H30)</f>
+        <v>110.88304890398196</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" si="1"/>
+        <v>4.26455886632994E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D45F5C-D5B7-A141-ABE1-3D4A9413169F}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1891,8 +4573,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07CA338-3608-3F40-94E2-B002FB00CE4E}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3766,21 +6449,21 @@
       </c>
     </row>
     <row r="38" spans="1:19">
-      <c r="B38" s="29">
+      <c r="B38" s="32">
         <v>50</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="I38" s="29">
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="I38" s="32">
         <v>200</v>
       </c>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
       <c r="N38" s="22"/>
     </row>
   </sheetData>
@@ -3792,8 +6475,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6BFB55F-4499-A146-BB2F-9BC34B46D5BF}">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5067,8 +7751,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02405CBC-6F74-0B41-AD59-B3D6C8397CDF}">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6690,8 +9375,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7E7098-2D4F-8548-B767-B6C8A438B5D9}">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8112,12 +10798,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA72D14-22A8-D749-9359-50A68B99CEF6}">
+  <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9539,8 +12226,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B836D11C-B7CF-004C-9ADE-D3B9A2021FEC}">
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10961,8 +13649,819 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5518D9-C659-7749-878A-C98CB5D56780}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="29.6640625" style="9" customWidth="1"/>
+    <col min="3" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8">
+        <v>0.221053</v>
+      </c>
+      <c r="C1" s="4">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4">
+        <v>19741</v>
+      </c>
+      <c r="E1" s="9">
+        <v>0.25005100000000002</v>
+      </c>
+      <c r="F1" s="4">
+        <v>23</v>
+      </c>
+      <c r="G1" s="4">
+        <v>14999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.29387600000000003</v>
+      </c>
+      <c r="C2" s="4">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>19154</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.26772899999999999</v>
+      </c>
+      <c r="F2" s="4">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4">
+        <v>16657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.27497300000000002</v>
+      </c>
+      <c r="C3" s="4">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4">
+        <v>18937</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.27851599999999999</v>
+      </c>
+      <c r="F3" s="4">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4">
+        <v>14806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.27467200000000003</v>
+      </c>
+      <c r="C4" s="4">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4">
+        <v>19619</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.304705</v>
+      </c>
+      <c r="F4" s="4">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4">
+        <v>17181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.27493499999999998</v>
+      </c>
+      <c r="C5" s="4">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4">
+        <v>18717</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.26760800000000001</v>
+      </c>
+      <c r="F5" s="4">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4">
+        <v>15792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.266011</v>
+      </c>
+      <c r="C6" s="4">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4">
+        <v>18988</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.240671</v>
+      </c>
+      <c r="F6" s="4">
+        <v>24</v>
+      </c>
+      <c r="G6" s="4">
+        <v>15288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.29289100000000001</v>
+      </c>
+      <c r="C7" s="4">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4">
+        <v>18831</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.24978300000000001</v>
+      </c>
+      <c r="F7" s="4">
+        <v>23</v>
+      </c>
+      <c r="G7" s="4">
+        <v>14674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.30218899999999999</v>
+      </c>
+      <c r="C8" s="4">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4">
+        <v>16288</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.32516899999999999</v>
+      </c>
+      <c r="F8" s="4">
+        <v>15</v>
+      </c>
+      <c r="G8" s="4">
+        <v>16414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.22887099999999999</v>
+      </c>
+      <c r="C9" s="4">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4">
+        <v>17950</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.23183100000000001</v>
+      </c>
+      <c r="F9" s="4">
+        <v>25</v>
+      </c>
+      <c r="G9" s="4">
+        <v>13271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.25701600000000002</v>
+      </c>
+      <c r="C10" s="4">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4">
+        <v>19138</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.25886300000000001</v>
+      </c>
+      <c r="F10" s="4">
+        <v>22</v>
+      </c>
+      <c r="G10" s="4">
+        <v>15414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.25769799999999998</v>
+      </c>
+      <c r="C11" s="4">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4">
+        <v>22583</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.28844199999999998</v>
+      </c>
+      <c r="F11" s="4">
+        <v>19</v>
+      </c>
+      <c r="G11" s="4">
+        <v>14568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.32057000000000002</v>
+      </c>
+      <c r="C12" s="4">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4">
+        <v>19793</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.33275900000000003</v>
+      </c>
+      <c r="F12" s="4">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4">
+        <v>18946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.26581900000000003</v>
+      </c>
+      <c r="C13" s="4">
+        <v>26</v>
+      </c>
+      <c r="D13" s="4">
+        <v>17725</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.34183999999999998</v>
+      </c>
+      <c r="F13" s="4">
+        <v>13</v>
+      </c>
+      <c r="G13" s="4">
+        <v>20292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.21954899999999999</v>
+      </c>
+      <c r="C14" s="4">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4">
+        <v>17850</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.30632500000000001</v>
+      </c>
+      <c r="F14" s="4">
+        <v>17</v>
+      </c>
+      <c r="G14" s="4">
+        <v>19284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.23896000000000001</v>
+      </c>
+      <c r="C15" s="4">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4">
+        <v>21183</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.250689</v>
+      </c>
+      <c r="F15" s="4">
+        <v>23</v>
+      </c>
+      <c r="G15" s="4">
+        <v>16358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.321077</v>
+      </c>
+      <c r="C16" s="4">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4">
+        <v>20043</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.27863900000000003</v>
+      </c>
+      <c r="F16" s="4">
+        <v>20</v>
+      </c>
+      <c r="G16" s="4">
+        <v>17006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.265762</v>
+      </c>
+      <c r="C17" s="4">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4">
+        <v>17106</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.26052500000000001</v>
+      </c>
+      <c r="F17" s="4">
+        <v>22</v>
+      </c>
+      <c r="G17" s="4">
+        <v>15014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.24704799999999999</v>
+      </c>
+      <c r="C18" s="4">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4">
+        <v>20182</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.28819299999999998</v>
+      </c>
+      <c r="F18" s="4">
+        <v>19</v>
+      </c>
+      <c r="G18" s="4">
+        <v>16218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.29427500000000001</v>
+      </c>
+      <c r="C19" s="4">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4">
+        <v>20378</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.34334199999999998</v>
+      </c>
+      <c r="F19" s="4">
+        <v>13</v>
+      </c>
+      <c r="G19" s="4">
+        <v>16941</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.32110699999999998</v>
+      </c>
+      <c r="C20" s="4">
+        <v>22</v>
+      </c>
+      <c r="D20" s="4">
+        <v>18933</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.28637400000000002</v>
+      </c>
+      <c r="F20" s="4">
+        <v>19</v>
+      </c>
+      <c r="G20" s="4">
+        <v>15184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.25674200000000003</v>
+      </c>
+      <c r="C21" s="4">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4">
+        <v>17794</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.31620100000000001</v>
+      </c>
+      <c r="F21" s="4">
+        <v>16</v>
+      </c>
+      <c r="G21" s="4">
+        <v>16904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.27347399999999999</v>
+      </c>
+      <c r="C22" s="4">
+        <v>16</v>
+      </c>
+      <c r="D22" s="4">
+        <v>19386</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.27935300000000002</v>
+      </c>
+      <c r="F22" s="4">
+        <v>20</v>
+      </c>
+      <c r="G22" s="4">
+        <v>14960</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.31060399999999999</v>
+      </c>
+      <c r="C23" s="4">
+        <v>16</v>
+      </c>
+      <c r="D23" s="4">
+        <v>22061</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.27935599999999999</v>
+      </c>
+      <c r="F23" s="4">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4">
+        <v>15239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.30996099999999999</v>
+      </c>
+      <c r="C24" s="4">
+        <v>18</v>
+      </c>
+      <c r="D24" s="4">
+        <v>19183</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.31544100000000003</v>
+      </c>
+      <c r="F24" s="4">
+        <v>16</v>
+      </c>
+      <c r="G24" s="4">
+        <v>18956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0.29247600000000001</v>
+      </c>
+      <c r="C25" s="4">
+        <v>28</v>
+      </c>
+      <c r="D25" s="4">
+        <v>17479</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.26800200000000002</v>
+      </c>
+      <c r="F25" s="4">
+        <v>21</v>
+      </c>
+      <c r="G25" s="4">
+        <v>17450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0.20203699999999999</v>
+      </c>
+      <c r="C26" s="4">
+        <v>24</v>
+      </c>
+      <c r="D26" s="4">
+        <v>18578</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0.24968599999999999</v>
+      </c>
+      <c r="F26" s="4">
+        <v>23</v>
+      </c>
+      <c r="G26" s="4">
+        <v>14971</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.23824300000000001</v>
+      </c>
+      <c r="C27" s="4">
+        <v>21</v>
+      </c>
+      <c r="D27" s="4">
+        <v>19856</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0.24914600000000001</v>
+      </c>
+      <c r="F27" s="4">
+        <v>23</v>
+      </c>
+      <c r="G27" s="4">
+        <v>14983</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0.26583899999999999</v>
+      </c>
+      <c r="C28" s="4">
+        <v>18</v>
+      </c>
+      <c r="D28" s="4">
+        <v>17174</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0.296873</v>
+      </c>
+      <c r="F28" s="4">
+        <v>18</v>
+      </c>
+      <c r="G28" s="4">
+        <v>17496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0.29304000000000002</v>
+      </c>
+      <c r="C29" s="4">
+        <v>20</v>
+      </c>
+      <c r="D29" s="4">
+        <v>17541</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0.270735</v>
+      </c>
+      <c r="F29" s="4">
+        <v>21</v>
+      </c>
+      <c r="G29" s="4">
+        <v>15910</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0.27496799999999999</v>
+      </c>
+      <c r="C30" s="4">
+        <v>27</v>
+      </c>
+      <c r="D30" s="4">
+        <v>15046</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0.21308099999999999</v>
+      </c>
+      <c r="F30" s="4">
+        <v>27</v>
+      </c>
+      <c r="G30" s="4">
+        <v>14156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="9">
+        <f>AVERAGE(B1:B31)</f>
+        <v>0.27185786666666661</v>
+      </c>
+      <c r="C32">
+        <f>AVERAGE(C1:C31)</f>
+        <v>20.366666666666667</v>
+      </c>
+      <c r="D32">
+        <f>AVERAGE(D1:D31)</f>
+        <v>18907.900000000001</v>
+      </c>
+      <c r="E32" s="9">
+        <f>AVERAGE(E1:E30)</f>
+        <v>0.27966426666666672</v>
+      </c>
+      <c r="F32" s="2">
+        <f>AVERAGE(F1:F30)</f>
+        <v>19.833333333333332</v>
+      </c>
+      <c r="G32" s="2">
+        <f>AVERAGE(G1:G30)</f>
+        <v>16177.733333333334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="9">
+        <f t="shared" ref="B33:G33" si="0">STDEV(B1:B30)</f>
+        <v>3.1676214409111253E-2</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>3.537808919942258</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>1594.9775341623965</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="0"/>
+        <v>3.2821616712931101E-2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>3.5339079992448044</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>1642.976292844962</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="C35" s="9">
+        <f>C32/50</f>
+        <v>0.40733333333333333</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="F35" s="9">
+        <f>F32/50</f>
+        <v>0.39666666666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="C36" s="9">
+        <f>C33/50</f>
+        <v>7.0756178398845154E-2</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="F36" s="9">
+        <f>F33/50</f>
+        <v>7.0678159984896086E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" s="9">
+        <v>0.44257759988864698</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0.47142333771003297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="11">
+        <v>25</v>
+      </c>
+      <c r="E40" s="11">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C82D90-2276-1D47-B6BC-B9A8161F24C1}">
+  <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -12389,8 +15888,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D403DD7-7427-A046-A5C1-CF85C968BDFA}">
+  <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12964,8 +16464,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081BEDFF-9F60-3B4E-A11D-091E9745DD79}">
+  <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13419,817 +16920,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5518D9-C659-7749-878A-C98CB5D56780}">
-  <dimension ref="A1:G40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="29.6640625" style="9" customWidth="1"/>
-    <col min="3" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" style="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8">
-        <v>0.221053</v>
-      </c>
-      <c r="C1" s="4">
-        <v>18</v>
-      </c>
-      <c r="D1" s="4">
-        <v>19741</v>
-      </c>
-      <c r="E1" s="9">
-        <v>0.25005100000000002</v>
-      </c>
-      <c r="F1" s="4">
-        <v>23</v>
-      </c>
-      <c r="G1" s="4">
-        <v>14999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
-        <v>0.29387600000000003</v>
-      </c>
-      <c r="C2" s="4">
-        <v>20</v>
-      </c>
-      <c r="D2" s="4">
-        <v>19154</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0.26772899999999999</v>
-      </c>
-      <c r="F2" s="4">
-        <v>21</v>
-      </c>
-      <c r="G2" s="4">
-        <v>16657</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0.27497300000000002</v>
-      </c>
-      <c r="C3" s="4">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4">
-        <v>18937</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0.27851599999999999</v>
-      </c>
-      <c r="F3" s="4">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4">
-        <v>14806</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0.27467200000000003</v>
-      </c>
-      <c r="C4" s="4">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4">
-        <v>19619</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0.304705</v>
-      </c>
-      <c r="F4" s="4">
-        <v>17</v>
-      </c>
-      <c r="G4" s="4">
-        <v>17181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0.27493499999999998</v>
-      </c>
-      <c r="C5" s="4">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4">
-        <v>18717</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0.26760800000000001</v>
-      </c>
-      <c r="F5" s="4">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4">
-        <v>15792</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8">
-        <v>0.266011</v>
-      </c>
-      <c r="C6" s="4">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4">
-        <v>18988</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0.240671</v>
-      </c>
-      <c r="F6" s="4">
-        <v>24</v>
-      </c>
-      <c r="G6" s="4">
-        <v>15288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8">
-        <v>0.29289100000000001</v>
-      </c>
-      <c r="C7" s="4">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4">
-        <v>18831</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0.24978300000000001</v>
-      </c>
-      <c r="F7" s="4">
-        <v>23</v>
-      </c>
-      <c r="G7" s="4">
-        <v>14674</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0.30218899999999999</v>
-      </c>
-      <c r="C8" s="4">
-        <v>25</v>
-      </c>
-      <c r="D8" s="4">
-        <v>16288</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.32516899999999999</v>
-      </c>
-      <c r="F8" s="4">
-        <v>15</v>
-      </c>
-      <c r="G8" s="4">
-        <v>16414</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8">
-        <v>0.22887099999999999</v>
-      </c>
-      <c r="C9" s="4">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4">
-        <v>17950</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0.23183100000000001</v>
-      </c>
-      <c r="F9" s="4">
-        <v>25</v>
-      </c>
-      <c r="G9" s="4">
-        <v>13271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8">
-        <v>0.25701600000000002</v>
-      </c>
-      <c r="C10" s="4">
-        <v>22</v>
-      </c>
-      <c r="D10" s="4">
-        <v>19138</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0.25886300000000001</v>
-      </c>
-      <c r="F10" s="4">
-        <v>22</v>
-      </c>
-      <c r="G10" s="4">
-        <v>15414</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0.25769799999999998</v>
-      </c>
-      <c r="C11" s="4">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4">
-        <v>22583</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0.28844199999999998</v>
-      </c>
-      <c r="F11" s="4">
-        <v>19</v>
-      </c>
-      <c r="G11" s="4">
-        <v>14568</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8">
-        <v>0.32057000000000002</v>
-      </c>
-      <c r="C12" s="4">
-        <v>21</v>
-      </c>
-      <c r="D12" s="4">
-        <v>19793</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0.33275900000000003</v>
-      </c>
-      <c r="F12" s="4">
-        <v>14</v>
-      </c>
-      <c r="G12" s="4">
-        <v>18946</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0.26581900000000003</v>
-      </c>
-      <c r="C13" s="4">
-        <v>26</v>
-      </c>
-      <c r="D13" s="4">
-        <v>17725</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0.34183999999999998</v>
-      </c>
-      <c r="F13" s="4">
-        <v>13</v>
-      </c>
-      <c r="G13" s="4">
-        <v>20292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8">
-        <v>0.21954899999999999</v>
-      </c>
-      <c r="C14" s="4">
-        <v>24</v>
-      </c>
-      <c r="D14" s="4">
-        <v>17850</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0.30632500000000001</v>
-      </c>
-      <c r="F14" s="4">
-        <v>17</v>
-      </c>
-      <c r="G14" s="4">
-        <v>19284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8">
-        <v>0.23896000000000001</v>
-      </c>
-      <c r="C15" s="4">
-        <v>15</v>
-      </c>
-      <c r="D15" s="4">
-        <v>21183</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0.250689</v>
-      </c>
-      <c r="F15" s="4">
-        <v>23</v>
-      </c>
-      <c r="G15" s="4">
-        <v>16358</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8">
-        <v>0.321077</v>
-      </c>
-      <c r="C16" s="4">
-        <v>21</v>
-      </c>
-      <c r="D16" s="4">
-        <v>20043</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0.27863900000000003</v>
-      </c>
-      <c r="F16" s="4">
-        <v>20</v>
-      </c>
-      <c r="G16" s="4">
-        <v>17006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8">
-        <v>0.265762</v>
-      </c>
-      <c r="C17" s="4">
-        <v>23</v>
-      </c>
-      <c r="D17" s="4">
-        <v>17106</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.26052500000000001</v>
-      </c>
-      <c r="F17" s="4">
-        <v>22</v>
-      </c>
-      <c r="G17" s="4">
-        <v>15014</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8">
-        <v>0.24704799999999999</v>
-      </c>
-      <c r="C18" s="4">
-        <v>18</v>
-      </c>
-      <c r="D18" s="4">
-        <v>20182</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0.28819299999999998</v>
-      </c>
-      <c r="F18" s="4">
-        <v>19</v>
-      </c>
-      <c r="G18" s="4">
-        <v>16218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8">
-        <v>0.29427500000000001</v>
-      </c>
-      <c r="C19" s="4">
-        <v>15</v>
-      </c>
-      <c r="D19" s="4">
-        <v>20378</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0.34334199999999998</v>
-      </c>
-      <c r="F19" s="4">
-        <v>13</v>
-      </c>
-      <c r="G19" s="4">
-        <v>16941</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8">
-        <v>0.32110699999999998</v>
-      </c>
-      <c r="C20" s="4">
-        <v>22</v>
-      </c>
-      <c r="D20" s="4">
-        <v>18933</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0.28637400000000002</v>
-      </c>
-      <c r="F20" s="4">
-        <v>19</v>
-      </c>
-      <c r="G20" s="4">
-        <v>15184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8">
-        <v>0.25674200000000003</v>
-      </c>
-      <c r="C21" s="4">
-        <v>20</v>
-      </c>
-      <c r="D21" s="4">
-        <v>17794</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0.31620100000000001</v>
-      </c>
-      <c r="F21" s="4">
-        <v>16</v>
-      </c>
-      <c r="G21" s="4">
-        <v>16904</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8">
-        <v>0.27347399999999999</v>
-      </c>
-      <c r="C22" s="4">
-        <v>16</v>
-      </c>
-      <c r="D22" s="4">
-        <v>19386</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0.27935300000000002</v>
-      </c>
-      <c r="F22" s="4">
-        <v>20</v>
-      </c>
-      <c r="G22" s="4">
-        <v>14960</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8">
-        <v>0.31060399999999999</v>
-      </c>
-      <c r="C23" s="4">
-        <v>16</v>
-      </c>
-      <c r="D23" s="4">
-        <v>22061</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0.27935599999999999</v>
-      </c>
-      <c r="F23" s="4">
-        <v>20</v>
-      </c>
-      <c r="G23" s="4">
-        <v>15239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8">
-        <v>0.30996099999999999</v>
-      </c>
-      <c r="C24" s="4">
-        <v>18</v>
-      </c>
-      <c r="D24" s="4">
-        <v>19183</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0.31544100000000003</v>
-      </c>
-      <c r="F24" s="4">
-        <v>16</v>
-      </c>
-      <c r="G24" s="4">
-        <v>18956</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8">
-        <v>0.29247600000000001</v>
-      </c>
-      <c r="C25" s="4">
-        <v>28</v>
-      </c>
-      <c r="D25" s="4">
-        <v>17479</v>
-      </c>
-      <c r="E25" s="9">
-        <v>0.26800200000000002</v>
-      </c>
-      <c r="F25" s="4">
-        <v>21</v>
-      </c>
-      <c r="G25" s="4">
-        <v>17450</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8">
-        <v>0.20203699999999999</v>
-      </c>
-      <c r="C26" s="4">
-        <v>24</v>
-      </c>
-      <c r="D26" s="4">
-        <v>18578</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0.24968599999999999</v>
-      </c>
-      <c r="F26" s="4">
-        <v>23</v>
-      </c>
-      <c r="G26" s="4">
-        <v>14971</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8">
-        <v>0.23824300000000001</v>
-      </c>
-      <c r="C27" s="4">
-        <v>21</v>
-      </c>
-      <c r="D27" s="4">
-        <v>19856</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0.24914600000000001</v>
-      </c>
-      <c r="F27" s="4">
-        <v>23</v>
-      </c>
-      <c r="G27" s="4">
-        <v>14983</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8">
-        <v>0.26583899999999999</v>
-      </c>
-      <c r="C28" s="4">
-        <v>18</v>
-      </c>
-      <c r="D28" s="4">
-        <v>17174</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0.296873</v>
-      </c>
-      <c r="F28" s="4">
-        <v>18</v>
-      </c>
-      <c r="G28" s="4">
-        <v>17496</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8">
-        <v>0.29304000000000002</v>
-      </c>
-      <c r="C29" s="4">
-        <v>20</v>
-      </c>
-      <c r="D29" s="4">
-        <v>17541</v>
-      </c>
-      <c r="E29" s="9">
-        <v>0.270735</v>
-      </c>
-      <c r="F29" s="4">
-        <v>21</v>
-      </c>
-      <c r="G29" s="4">
-        <v>15910</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8">
-        <v>0.27496799999999999</v>
-      </c>
-      <c r="C30" s="4">
-        <v>27</v>
-      </c>
-      <c r="D30" s="4">
-        <v>15046</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0.21308099999999999</v>
-      </c>
-      <c r="F30" s="4">
-        <v>27</v>
-      </c>
-      <c r="G30" s="4">
-        <v>14156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="9">
-        <f>AVERAGE(B1:B31)</f>
-        <v>0.27185786666666661</v>
-      </c>
-      <c r="C32">
-        <f>AVERAGE(C1:C31)</f>
-        <v>20.366666666666667</v>
-      </c>
-      <c r="D32">
-        <f>AVERAGE(D1:D31)</f>
-        <v>18907.900000000001</v>
-      </c>
-      <c r="E32" s="9">
-        <f>AVERAGE(E1:E30)</f>
-        <v>0.27966426666666672</v>
-      </c>
-      <c r="F32" s="2">
-        <f>AVERAGE(F1:F30)</f>
-        <v>19.833333333333332</v>
-      </c>
-      <c r="G32" s="2">
-        <f>AVERAGE(G1:G30)</f>
-        <v>16177.733333333334</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="9">
-        <f t="shared" ref="B33:G33" si="0">STDEV(B1:B30)</f>
-        <v>3.1676214409111253E-2</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>3.537808919942258</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>1594.9775341623965</v>
-      </c>
-      <c r="E33" s="9">
-        <f t="shared" si="0"/>
-        <v>3.2821616712931101E-2</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>3.5339079992448044</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>1642.976292844962</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="C35" s="9">
-        <f>C32/50</f>
-        <v>0.40733333333333333</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="F35" s="9">
-        <f>F32/50</f>
-        <v>0.39666666666666667</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="C36" s="9">
-        <f>C33/50</f>
-        <v>7.0756178398845154E-2</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="F36" s="9">
-        <f>F33/50</f>
-        <v>7.0678159984896086E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="B38" s="9">
-        <v>0.44257759988864698</v>
-      </c>
-      <c r="E38" s="9">
-        <v>0.47142333771003297</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="11">
-        <v>25</v>
-      </c>
-      <c r="E40" s="11">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7027B2-BABF-E142-B4C1-C1F756569E53}">
+  <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14683,8 +17376,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3FBD20-B890-1F48-8E52-B05229907D47}">
+  <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15140,6 +17834,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CA2073-A691-FA4B-84E5-C86ABF86F598}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15712,6 +18407,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DED393-2B6B-ED4A-86B7-6418128143DB}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16284,6 +18980,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07ED8F8F-EE30-8D46-B91C-14E664554557}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16856,6 +19553,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4654F2AF-12A2-8F4A-BA76-1037278617D7}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17431,6 +20129,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AFD82C-9FEA-C549-8D55-454D4010EA53}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18006,6 +20705,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68401948-3F29-294D-A78B-A38E1C44B019}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18581,10 +21281,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4EE570-EC40-C440-B3AB-A22AAA4D15BE}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView topLeftCell="E1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -18642,7 +21343,7 @@
         <v>23</v>
       </c>
       <c r="O1" s="9">
-        <f>N1/800</f>
+        <f t="shared" ref="O1:O30" si="0">N1/800</f>
         <v>2.8750000000000001E-2</v>
       </c>
       <c r="P1" s="8">
@@ -18676,7 +21377,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F30" si="0">E2/200</f>
+        <f t="shared" ref="F2:F30" si="1">E2/200</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G2" s="8">
@@ -18702,7 +21403,7 @@
         <v>15</v>
       </c>
       <c r="O2" s="9">
-        <f>N2/800</f>
+        <f t="shared" si="0"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="P2" s="8">
@@ -18715,7 +21416,7 @@
         <v>14</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S30" si="1">R2/800</f>
+        <f t="shared" ref="S2:S30" si="2">R2/800</f>
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
@@ -18736,7 +21437,7 @@
         <v>7</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G3" s="8">
@@ -18762,7 +21463,7 @@
         <v>27</v>
       </c>
       <c r="O3" s="9">
-        <f>N3/800</f>
+        <f t="shared" si="0"/>
         <v>3.3750000000000002E-2</v>
       </c>
       <c r="P3" s="8">
@@ -18775,7 +21476,7 @@
         <v>18</v>
       </c>
       <c r="S3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
@@ -18796,7 +21497,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G4" s="8">
@@ -18822,7 +21523,7 @@
         <v>20</v>
       </c>
       <c r="O4" s="9">
-        <f>N4/800</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P4" s="8">
@@ -18835,7 +21536,7 @@
         <v>12</v>
       </c>
       <c r="S4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -18856,7 +21557,7 @@
         <v>8</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
       <c r="G5" s="8">
@@ -18882,7 +21583,7 @@
         <v>20</v>
       </c>
       <c r="O5" s="9">
-        <f>N5/800</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P5" s="8">
@@ -18895,7 +21596,7 @@
         <v>16</v>
       </c>
       <c r="S5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
     </row>
@@ -18916,7 +21617,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G6" s="8">
@@ -18942,7 +21643,7 @@
         <v>13</v>
       </c>
       <c r="O6" s="9">
-        <f>N6/800</f>
+        <f t="shared" si="0"/>
         <v>1.6250000000000001E-2</v>
       </c>
       <c r="P6" s="8">
@@ -18955,7 +21656,7 @@
         <v>13</v>
       </c>
       <c r="S6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6250000000000001E-2</v>
       </c>
     </row>
@@ -18976,7 +21677,7 @@
         <v>8</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
       <c r="G7" s="8">
@@ -19002,7 +21703,7 @@
         <v>23</v>
       </c>
       <c r="O7" s="9">
-        <f>N7/800</f>
+        <f t="shared" si="0"/>
         <v>2.8750000000000001E-2</v>
       </c>
       <c r="P7" s="8">
@@ -19015,7 +21716,7 @@
         <v>22</v>
       </c>
       <c r="S7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.75E-2</v>
       </c>
     </row>
@@ -19036,7 +21737,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="G8" s="8">
@@ -19062,7 +21763,7 @@
         <v>14</v>
       </c>
       <c r="O8" s="9">
-        <f>N8/800</f>
+        <f t="shared" si="0"/>
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="P8" s="8">
@@ -19075,7 +21776,7 @@
         <v>11</v>
       </c>
       <c r="S8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.375E-2</v>
       </c>
     </row>
@@ -19096,7 +21797,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G9" s="8">
@@ -19122,7 +21823,7 @@
         <v>28</v>
       </c>
       <c r="O9" s="9">
-        <f>N9/800</f>
+        <f t="shared" si="0"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="P9" s="8">
@@ -19135,7 +21836,7 @@
         <v>8</v>
       </c>
       <c r="S9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
     </row>
@@ -19156,7 +21857,7 @@
         <v>7</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G10" s="8">
@@ -19182,7 +21883,7 @@
         <v>16</v>
       </c>
       <c r="O10" s="9">
-        <f>N10/800</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="P10" s="8">
@@ -19195,7 +21896,7 @@
         <v>15</v>
       </c>
       <c r="S10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
@@ -19216,7 +21917,7 @@
         <v>4</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="G11" s="8">
@@ -19242,7 +21943,7 @@
         <v>21</v>
       </c>
       <c r="O11" s="9">
-        <f>N11/800</f>
+        <f t="shared" si="0"/>
         <v>2.6249999999999999E-2</v>
       </c>
       <c r="P11" s="8">
@@ -19255,7 +21956,7 @@
         <v>15</v>
       </c>
       <c r="S11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
@@ -19276,7 +21977,7 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G12" s="8">
@@ -19302,7 +22003,7 @@
         <v>17</v>
       </c>
       <c r="O12" s="9">
-        <f>N12/800</f>
+        <f t="shared" si="0"/>
         <v>2.1250000000000002E-2</v>
       </c>
       <c r="P12" s="8">
@@ -19315,7 +22016,7 @@
         <v>16</v>
       </c>
       <c r="S12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
     </row>
@@ -19336,7 +22037,7 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="G13" s="8">
@@ -19362,7 +22063,7 @@
         <v>19</v>
       </c>
       <c r="O13" s="9">
-        <f>N13/800</f>
+        <f t="shared" si="0"/>
         <v>2.375E-2</v>
       </c>
       <c r="P13" s="8">
@@ -19375,7 +22076,7 @@
         <v>12</v>
       </c>
       <c r="S13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -19396,7 +22097,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G14" s="8">
@@ -19422,7 +22123,7 @@
         <v>28</v>
       </c>
       <c r="O14" s="9">
-        <f>N14/800</f>
+        <f t="shared" si="0"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="P14" s="8">
@@ -19435,7 +22136,7 @@
         <v>13</v>
       </c>
       <c r="S14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6250000000000001E-2</v>
       </c>
     </row>
@@ -19456,7 +22157,7 @@
         <v>4</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="G15" s="8">
@@ -19482,7 +22183,7 @@
         <v>16</v>
       </c>
       <c r="O15" s="9">
-        <f>N15/800</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="P15" s="8">
@@ -19495,7 +22196,7 @@
         <v>14</v>
       </c>
       <c r="S15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
@@ -19516,7 +22217,7 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="G16" s="8">
@@ -19542,7 +22243,7 @@
         <v>19</v>
       </c>
       <c r="O16" s="9">
-        <f>N16/800</f>
+        <f t="shared" si="0"/>
         <v>2.375E-2</v>
       </c>
       <c r="P16" s="8">
@@ -19555,7 +22256,7 @@
         <v>14</v>
       </c>
       <c r="S16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
@@ -19576,7 +22277,7 @@
         <v>6</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
       <c r="G17" s="8">
@@ -19602,7 +22303,7 @@
         <v>22</v>
       </c>
       <c r="O17" s="9">
-        <f>N17/800</f>
+        <f t="shared" si="0"/>
         <v>2.75E-2</v>
       </c>
       <c r="P17" s="8">
@@ -19615,7 +22316,7 @@
         <v>14</v>
       </c>
       <c r="S17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
@@ -19636,7 +22337,7 @@
         <v>7</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G18" s="8">
@@ -19662,7 +22363,7 @@
         <v>19</v>
       </c>
       <c r="O18" s="9">
-        <f>N18/800</f>
+        <f t="shared" si="0"/>
         <v>2.375E-2</v>
       </c>
       <c r="P18" s="8">
@@ -19675,7 +22376,7 @@
         <v>22</v>
       </c>
       <c r="S18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.75E-2</v>
       </c>
     </row>
@@ -19696,7 +22397,7 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="G19" s="8">
@@ -19722,7 +22423,7 @@
         <v>22</v>
       </c>
       <c r="O19" s="9">
-        <f>N19/800</f>
+        <f t="shared" si="0"/>
         <v>2.75E-2</v>
       </c>
       <c r="P19" s="8">
@@ -19735,7 +22436,7 @@
         <v>12</v>
       </c>
       <c r="S19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -19756,7 +22457,7 @@
         <v>6</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
       <c r="G20" s="8">
@@ -19782,7 +22483,7 @@
         <v>21</v>
       </c>
       <c r="O20" s="9">
-        <f>N20/800</f>
+        <f t="shared" si="0"/>
         <v>2.6249999999999999E-2</v>
       </c>
       <c r="P20" s="8">
@@ -19795,7 +22496,7 @@
         <v>15</v>
       </c>
       <c r="S20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
@@ -19816,7 +22517,7 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="G21" s="8">
@@ -19842,7 +22543,7 @@
         <v>18</v>
       </c>
       <c r="O21" s="9">
-        <f>N21/800</f>
+        <f t="shared" si="0"/>
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="P21" s="8">
@@ -19855,7 +22556,7 @@
         <v>12</v>
       </c>
       <c r="S21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -19876,7 +22577,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G22" s="8">
@@ -19902,7 +22603,7 @@
         <v>17</v>
       </c>
       <c r="O22" s="9">
-        <f>N22/800</f>
+        <f t="shared" si="0"/>
         <v>2.1250000000000002E-2</v>
       </c>
       <c r="P22" s="8">
@@ -19915,7 +22616,7 @@
         <v>10</v>
       </c>
       <c r="S22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
@@ -19936,7 +22637,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G23" s="8">
@@ -19962,7 +22663,7 @@
         <v>12</v>
       </c>
       <c r="O23" s="9">
-        <f>N23/800</f>
+        <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="P23" s="8">
@@ -19975,7 +22676,7 @@
         <v>11</v>
       </c>
       <c r="S23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.375E-2</v>
       </c>
     </row>
@@ -19996,7 +22697,7 @@
         <v>4</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="G24" s="8">
@@ -20022,7 +22723,7 @@
         <v>22</v>
       </c>
       <c r="O24" s="9">
-        <f>N24/800</f>
+        <f t="shared" si="0"/>
         <v>2.75E-2</v>
       </c>
       <c r="P24" s="8">
@@ -20035,7 +22736,7 @@
         <v>12</v>
       </c>
       <c r="S24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -20056,7 +22757,7 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="G25" s="8">
@@ -20082,7 +22783,7 @@
         <v>17</v>
       </c>
       <c r="O25" s="9">
-        <f>N25/800</f>
+        <f t="shared" si="0"/>
         <v>2.1250000000000002E-2</v>
       </c>
       <c r="P25" s="8">
@@ -20095,7 +22796,7 @@
         <v>11</v>
       </c>
       <c r="S25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.375E-2</v>
       </c>
     </row>
@@ -20116,7 +22817,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G26" s="8">
@@ -20142,7 +22843,7 @@
         <v>16</v>
       </c>
       <c r="O26" s="9">
-        <f>N26/800</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="P26" s="8">
@@ -20155,7 +22856,7 @@
         <v>12</v>
       </c>
       <c r="S26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -20176,7 +22877,7 @@
         <v>8</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
       <c r="G27" s="8">
@@ -20202,7 +22903,7 @@
         <v>19</v>
       </c>
       <c r="O27" s="9">
-        <f>N27/800</f>
+        <f t="shared" si="0"/>
         <v>2.375E-2</v>
       </c>
       <c r="P27" s="8">
@@ -20215,7 +22916,7 @@
         <v>16</v>
       </c>
       <c r="S27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
     </row>
@@ -20236,7 +22937,7 @@
         <v>4</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="G28" s="8">
@@ -20262,7 +22963,7 @@
         <v>16</v>
       </c>
       <c r="O28" s="9">
-        <f>N28/800</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="P28" s="8">
@@ -20275,7 +22976,7 @@
         <v>17</v>
       </c>
       <c r="S28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1250000000000002E-2</v>
       </c>
     </row>
@@ -20296,7 +22997,7 @@
         <v>4</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="G29" s="8">
@@ -20322,7 +23023,7 @@
         <v>21</v>
       </c>
       <c r="O29" s="9">
-        <f>N29/800</f>
+        <f t="shared" si="0"/>
         <v>2.6249999999999999E-2</v>
       </c>
       <c r="P29" s="8">
@@ -20335,7 +23036,7 @@
         <v>17</v>
       </c>
       <c r="S29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1250000000000002E-2</v>
       </c>
     </row>
@@ -20356,7 +23057,7 @@
         <v>2</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="G30" s="8">
@@ -20382,7 +23083,7 @@
         <v>15</v>
       </c>
       <c r="O30" s="9">
-        <f>N30/800</f>
+        <f t="shared" si="0"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="P30" s="8">
@@ -20395,7 +23096,7 @@
         <v>12</v>
       </c>
       <c r="S30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -20412,31 +23113,31 @@
         <v>4.7333333333333334</v>
       </c>
       <c r="D32" s="14">
-        <f>AVERAGE(D1:D30)</f>
+        <f t="shared" ref="D32:J32" si="3">AVERAGE(D1:D30)</f>
         <v>0.57188856666666676</v>
       </c>
       <c r="E32" s="2">
-        <f>AVERAGE(E1:E30)</f>
+        <f t="shared" si="3"/>
         <v>3.6</v>
       </c>
       <c r="F32" s="14">
-        <f>AVERAGE(F1:F30)</f>
+        <f t="shared" si="3"/>
         <v>1.8000000000000006E-2</v>
       </c>
       <c r="G32" s="14">
-        <f>AVERAGE(G1:G30)</f>
+        <f t="shared" si="3"/>
         <v>0.57824378268487164</v>
       </c>
       <c r="H32" s="2">
-        <f>AVERAGE(H1:H30)</f>
+        <f t="shared" si="3"/>
         <v>1.2333333333333334</v>
       </c>
       <c r="I32" s="15">
-        <f>AVERAGE(I1:I30)</f>
+        <f t="shared" si="3"/>
         <v>0.57140446666666667</v>
       </c>
       <c r="J32" s="2">
-        <f>AVERAGE(J1:J30)</f>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="K32" s="2"/>
@@ -20470,63 +23171,63 @@
         <v>1</v>
       </c>
       <c r="B33" s="14">
-        <f>STDEV(B1:B30)</f>
+        <f t="shared" ref="B33:G33" si="4">STDEV(B1:B30)</f>
         <v>8.4424191415091165E-3</v>
       </c>
       <c r="C33">
-        <f>STDEV(C1:C30)</f>
+        <f t="shared" si="4"/>
         <v>2.6772777390390456</v>
       </c>
       <c r="D33" s="14">
-        <f>STDEV(D1:D30)</f>
+        <f t="shared" si="4"/>
         <v>7.4912515628672311E-3</v>
       </c>
       <c r="E33">
-        <f>STDEV(E1:E30)</f>
+        <f t="shared" si="4"/>
         <v>2.5407031337393793</v>
       </c>
       <c r="F33" s="14">
-        <f>STDEV(F1:F30)</f>
+        <f t="shared" si="4"/>
         <v>1.2703515668696888E-2</v>
       </c>
       <c r="G33" s="14">
-        <f>STDEV(G1:G30)</f>
+        <f t="shared" si="4"/>
         <v>1.6726933567469366E-2</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:M33" si="2">STDEV(H1:H30)</f>
+        <f t="shared" ref="H33:M33" si="5">STDEV(H1:H30)</f>
         <v>1.4064710873459965</v>
       </c>
       <c r="I33" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1837524842440765E-2</v>
       </c>
       <c r="J33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.88473646962790853</v>
       </c>
       <c r="L33" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.1466535664767558E-3</v>
       </c>
       <c r="M33" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>359.95859276553898</v>
       </c>
       <c r="O33" s="14">
-        <f t="shared" ref="O33:Q33" si="3">STDEV(O1:O30)</f>
+        <f t="shared" ref="O33:Q33" si="6">STDEV(O1:O30)</f>
         <v>5.1318814187928915E-3</v>
       </c>
       <c r="P33" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.0734371811864933E-3</v>
       </c>
       <c r="Q33" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>344.74661859760533</v>
       </c>
       <c r="S33" s="14">
-        <f t="shared" ref="S33" si="4">STDEV(S1:S30)</f>
+        <f t="shared" ref="S33" si="7">STDEV(S1:S30)</f>
         <v>3.9254914034577487E-3</v>
       </c>
     </row>
@@ -20573,22 +23274,22 @@
       </c>
     </row>
     <row r="38" spans="1:19">
-      <c r="B38" s="28">
+      <c r="B38" s="31">
         <v>200</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="G38" s="29">
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="G38" s="32">
         <v>50</v>
       </c>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/GA4Robust/Book1.xlsx
+++ b/GA4Robust/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenwang/Documents/ExperimentResults/GA4Robust/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenwang/Documents/Experiment-Results/GA4Robust/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBF5641-9157-3F4F-B3E6-D8C38BCCE750}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFA1296-81AA-E94F-AA64-E2C40D0A618D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="19260" activeTab="10" xr2:uid="{F1300CCD-A310-7946-86EE-3F30CFB335E8}"/>
+    <workbookView xWindow="1840" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="9" xr2:uid="{F1300CCD-A310-7946-86EE-3F30CFB335E8}"/>
   </bookViews>
   <sheets>
     <sheet name="0901(50)" sheetId="1" r:id="rId1"/>
@@ -123,11 +123,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.00000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -214,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -256,13 +257,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1394,81 +1397,82 @@
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="14" style="35" customWidth="1"/>
     <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="11"/>
     <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="4">
+      <c r="A1" s="34">
         <v>0.92322826033213901</v>
       </c>
       <c r="B1" s="23">
         <v>14303</v>
       </c>
       <c r="C1" s="23">
-        <f>B1/30</f>
-        <v>476.76666666666665</v>
+        <f>B1/200</f>
+        <v>71.515000000000001</v>
       </c>
       <c r="D1" s="4">
         <v>0</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="34">
         <v>0.92322826033213901</v>
       </c>
       <c r="G1" s="4">
         <v>14869.733333333301</v>
       </c>
-      <c r="H1" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H1" s="23">
+        <f>G1/200</f>
+        <v>74.348666666666503</v>
       </c>
       <c r="I1" s="4">
         <v>0</v>
       </c>
-      <c r="L1" s="33"/>
+      <c r="L1" s="31"/>
       <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="4">
+      <c r="A2" s="34">
         <v>0.92281247835541402</v>
       </c>
       <c r="B2" s="23">
         <v>2894.4333333333302</v>
       </c>
       <c r="C2" s="23">
-        <f t="shared" ref="C2:C30" si="0">B2/30</f>
-        <v>96.481111111111005</v>
+        <f t="shared" ref="C2:C30" si="0">B2/200</f>
+        <v>14.47216666666665</v>
       </c>
       <c r="D2" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="34">
         <v>0.92292545435178197</v>
       </c>
       <c r="G2" s="4">
         <v>12103.333333333299</v>
       </c>
-      <c r="H2" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H2" s="23">
+        <f t="shared" ref="H2:H30" si="1">G2/200</f>
+        <v>60.516666666666495</v>
       </c>
       <c r="I2" s="4">
         <v>0</v>
       </c>
-      <c r="L2" s="33"/>
+      <c r="L2" s="31"/>
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="4">
+      <c r="A3" s="34">
         <v>0.92260643833603395</v>
       </c>
       <c r="B3" s="23">
@@ -1476,29 +1480,29 @@
       </c>
       <c r="C3" s="23">
         <f t="shared" si="0"/>
-        <v>44.766666666666666</v>
+        <v>6.7149999999999999</v>
       </c>
       <c r="D3" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="34">
         <v>0.92248772312945504</v>
       </c>
       <c r="G3" s="4">
         <v>27255.0333333333</v>
       </c>
-      <c r="H3" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H3" s="23">
+        <f t="shared" si="1"/>
+        <v>136.27516666666651</v>
       </c>
       <c r="I3" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="L3" s="33"/>
+      <c r="L3" s="31"/>
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="4">
+      <c r="A4" s="34">
         <v>0.92297836278434897</v>
       </c>
       <c r="B4" s="23">
@@ -1506,29 +1510,29 @@
       </c>
       <c r="C4" s="23">
         <f t="shared" si="0"/>
-        <v>69.21777777777767</v>
+        <v>10.382666666666651</v>
       </c>
       <c r="D4" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="34">
         <v>0.92326160235986998</v>
       </c>
       <c r="G4" s="4">
         <v>17215.5</v>
       </c>
-      <c r="H4" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H4" s="23">
+        <f t="shared" si="1"/>
+        <v>86.077500000000001</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>
       </c>
-      <c r="L4" s="33"/>
+      <c r="L4" s="31"/>
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="4">
+      <c r="A5" s="34">
         <v>0.92320182075023505</v>
       </c>
       <c r="B5" s="23">
@@ -1536,29 +1540,29 @@
       </c>
       <c r="C5" s="23">
         <f t="shared" si="0"/>
-        <v>186.21222222222201</v>
+        <v>27.931833333333302</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="34">
         <v>0.92233394677146197</v>
       </c>
       <c r="G5" s="4">
         <v>2020.9</v>
       </c>
-      <c r="H5" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H5" s="23">
+        <f t="shared" si="1"/>
+        <v>10.1045</v>
       </c>
       <c r="I5" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="L5" s="33"/>
+      <c r="L5" s="31"/>
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="4">
+      <c r="A6" s="34">
         <v>0.92321690481923702</v>
       </c>
       <c r="B6" s="23">
@@ -1566,29 +1570,29 @@
       </c>
       <c r="C6" s="23">
         <f t="shared" si="0"/>
-        <v>956.11555555555344</v>
+        <v>143.417333333333</v>
       </c>
       <c r="D6" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="34">
         <v>0.92321690481923702</v>
       </c>
       <c r="G6" s="4">
         <v>28196.799999999999</v>
       </c>
-      <c r="H6" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H6" s="23">
+        <f t="shared" si="1"/>
+        <v>140.98400000000001</v>
       </c>
       <c r="I6" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="L6" s="33"/>
+      <c r="L6" s="31"/>
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="4">
+      <c r="A7" s="34">
         <v>0.92252559787660104</v>
       </c>
       <c r="B7" s="23">
@@ -1596,29 +1600,29 @@
       </c>
       <c r="C7" s="23">
         <f t="shared" si="0"/>
-        <v>297.99111111111102</v>
+        <v>44.698666666666647</v>
       </c>
       <c r="D7" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="34">
         <v>0.92252559787660104</v>
       </c>
       <c r="G7" s="4">
         <v>8804.0666666666602</v>
       </c>
-      <c r="H7" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H7" s="23">
+        <f t="shared" si="1"/>
+        <v>44.020333333333298</v>
       </c>
       <c r="I7" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="L7" s="33"/>
+      <c r="L7" s="31"/>
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="4">
+      <c r="A8" s="34">
         <v>0.92237530761723197</v>
       </c>
       <c r="B8" s="23">
@@ -1626,29 +1630,29 @@
       </c>
       <c r="C8" s="23">
         <f t="shared" si="0"/>
-        <v>444.49555555555332</v>
+        <v>66.674333333332996</v>
       </c>
       <c r="D8" s="4">
         <v>0.133333333333333</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="34">
         <v>0.92237530761723197</v>
       </c>
       <c r="G8" s="4">
         <v>13080.266666666599</v>
       </c>
-      <c r="H8" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H8" s="23">
+        <f t="shared" si="1"/>
+        <v>65.401333333333</v>
       </c>
       <c r="I8" s="4">
         <v>0.133333333333333</v>
       </c>
-      <c r="L8" s="33"/>
+      <c r="L8" s="31"/>
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="4">
+      <c r="A9" s="34">
         <v>0.92287255742616303</v>
       </c>
       <c r="B9" s="23">
@@ -1656,29 +1660,29 @@
       </c>
       <c r="C9" s="23">
         <f t="shared" si="0"/>
-        <v>33.812222222221997</v>
+        <v>5.0718333333332994</v>
       </c>
       <c r="D9" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="34">
         <v>0.92287255742616303</v>
       </c>
       <c r="G9" s="4">
         <v>1073.56666666666</v>
       </c>
-      <c r="H9" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H9" s="23">
+        <f t="shared" si="1"/>
+        <v>5.3678333333332997</v>
       </c>
       <c r="I9" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="L9" s="33"/>
+      <c r="L9" s="31"/>
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="4">
+      <c r="A10" s="34">
         <v>0.92306031437150304</v>
       </c>
       <c r="B10" s="23">
@@ -1686,29 +1690,29 @@
       </c>
       <c r="C10" s="23">
         <f t="shared" si="0"/>
-        <v>1325.5866666666666</v>
+        <v>198.83799999999999</v>
       </c>
       <c r="D10" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="34">
         <v>0.92306266404663095</v>
       </c>
       <c r="G10" s="4">
         <v>40192.400000000001</v>
       </c>
-      <c r="H10" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H10" s="23">
+        <f t="shared" si="1"/>
+        <v>200.96200000000002</v>
       </c>
       <c r="I10" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="L10" s="33"/>
+      <c r="L10" s="31"/>
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="4">
+      <c r="A11" s="34">
         <v>0.92279605665054298</v>
       </c>
       <c r="B11" s="23">
@@ -1716,29 +1720,29 @@
       </c>
       <c r="C11" s="23">
         <f t="shared" si="0"/>
-        <v>52.067777777777664</v>
+        <v>7.8101666666666496</v>
       </c>
       <c r="D11" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="34">
         <v>0.92326558596716801</v>
       </c>
       <c r="G11" s="4">
         <v>2934.9666666666599</v>
       </c>
-      <c r="H11" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H11" s="23">
+        <f t="shared" si="1"/>
+        <v>14.6748333333333</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
       </c>
-      <c r="L11" s="33"/>
+      <c r="L11" s="31"/>
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="4">
+      <c r="A12" s="34">
         <v>0.92267391765388096</v>
       </c>
       <c r="B12" s="23">
@@ -1746,29 +1750,29 @@
       </c>
       <c r="C12" s="23">
         <f t="shared" si="0"/>
-        <v>684.41</v>
+        <v>102.66149999999999</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="34">
         <v>0.92267391765388096</v>
       </c>
       <c r="G12" s="4">
         <v>21772.433333333302</v>
       </c>
-      <c r="H12" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H12" s="23">
+        <f t="shared" si="1"/>
+        <v>108.86216666666651</v>
       </c>
       <c r="I12" s="4">
         <v>0</v>
       </c>
-      <c r="L12" s="33"/>
+      <c r="L12" s="31"/>
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="4">
+      <c r="A13" s="34">
         <v>0.92298040705418904</v>
       </c>
       <c r="B13" s="23">
@@ -1776,29 +1780,29 @@
       </c>
       <c r="C13" s="23">
         <f t="shared" si="0"/>
-        <v>433.94888888888664</v>
+        <v>65.092333333333002</v>
       </c>
       <c r="D13" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="34">
         <v>0.92299282807097804</v>
       </c>
       <c r="G13" s="4">
         <v>12642.3</v>
       </c>
-      <c r="H13" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H13" s="23">
+        <f t="shared" si="1"/>
+        <v>63.211499999999994</v>
       </c>
       <c r="I13" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="L13" s="33"/>
+      <c r="L13" s="31"/>
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="4">
+      <c r="A14" s="34">
         <v>0.92305836596063495</v>
       </c>
       <c r="B14" s="23">
@@ -1806,29 +1810,29 @@
       </c>
       <c r="C14" s="23">
         <f t="shared" si="0"/>
-        <v>353.09222222221996</v>
+        <v>52.963833333332992</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="34">
         <v>0.92265531361268105</v>
       </c>
       <c r="G14" s="4">
         <v>32571.4</v>
       </c>
-      <c r="H14" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H14" s="23">
+        <f t="shared" si="1"/>
+        <v>162.857</v>
       </c>
       <c r="I14" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="L14" s="33"/>
+      <c r="L14" s="31"/>
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="4">
+      <c r="A15" s="34">
         <v>0.92312139351153799</v>
       </c>
       <c r="B15" s="23">
@@ -1836,29 +1840,29 @@
       </c>
       <c r="C15" s="23">
         <f t="shared" si="0"/>
-        <v>947.38666666666666</v>
+        <v>142.108</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="34">
         <v>0.92312139351153799</v>
       </c>
       <c r="G15" s="4">
         <v>27807.1</v>
       </c>
-      <c r="H15" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H15" s="23">
+        <f t="shared" si="1"/>
+        <v>139.03549999999998</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
       </c>
-      <c r="L15" s="33"/>
+      <c r="L15" s="31"/>
       <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="4">
+      <c r="A16" s="34">
         <v>0.92252807525971103</v>
       </c>
       <c r="B16" s="23">
@@ -1866,29 +1870,29 @@
       </c>
       <c r="C16" s="23">
         <f t="shared" si="0"/>
-        <v>485.60111111111001</v>
+        <v>72.840166666666505</v>
       </c>
       <c r="D16" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="34">
         <v>0.92252807525971103</v>
       </c>
       <c r="G16" s="4">
         <v>14232.766666666599</v>
       </c>
-      <c r="H16" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H16" s="23">
+        <f t="shared" si="1"/>
+        <v>71.163833333333002</v>
       </c>
       <c r="I16" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="L16" s="33"/>
+      <c r="L16" s="31"/>
       <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="4">
+      <c r="A17" s="34">
         <v>0.922672472554252</v>
       </c>
       <c r="B17" s="23">
@@ -1896,29 +1900,29 @@
       </c>
       <c r="C17" s="23">
         <f t="shared" si="0"/>
-        <v>110.91000000000001</v>
+        <v>16.636500000000002</v>
       </c>
       <c r="D17" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="34">
         <v>0.922672472554252</v>
       </c>
       <c r="G17" s="4">
         <v>3249.4</v>
       </c>
-      <c r="H17" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H17" s="23">
+        <f t="shared" si="1"/>
+        <v>16.247</v>
       </c>
       <c r="I17" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="L17" s="33"/>
+      <c r="L17" s="31"/>
       <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="4">
+      <c r="A18" s="34">
         <v>0.92270002401779205</v>
       </c>
       <c r="B18" s="23">
@@ -1926,29 +1930,29 @@
       </c>
       <c r="C18" s="23">
         <f t="shared" si="0"/>
-        <v>365.78222222222001</v>
+        <v>54.867333333333001</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="34">
         <v>0.92270002401779205</v>
       </c>
       <c r="G18" s="4">
         <v>10702.866666666599</v>
       </c>
-      <c r="H18" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H18" s="23">
+        <f t="shared" si="1"/>
+        <v>53.514333333332999</v>
       </c>
       <c r="I18" s="4">
         <v>0</v>
       </c>
-      <c r="L18" s="33"/>
+      <c r="L18" s="31"/>
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="4">
+      <c r="A19" s="34">
         <v>0.92264340073625395</v>
       </c>
       <c r="B19" s="23">
@@ -1956,29 +1960,29 @@
       </c>
       <c r="C19" s="23">
         <f t="shared" si="0"/>
-        <v>310.04222222222199</v>
+        <v>46.506333333333295</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="34">
         <v>0.92264340073625395</v>
       </c>
       <c r="G19" s="4">
         <v>9079.2666666666591</v>
       </c>
-      <c r="H19" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H19" s="23">
+        <f t="shared" si="1"/>
+        <v>45.396333333333295</v>
       </c>
       <c r="I19" s="4">
         <v>0</v>
       </c>
-      <c r="L19" s="33"/>
+      <c r="L19" s="31"/>
       <c r="P19" s="4"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="4">
+      <c r="A20" s="34">
         <v>0.92302293929962598</v>
       </c>
       <c r="B20" s="23">
@@ -1986,29 +1990,29 @@
       </c>
       <c r="C20" s="23">
         <f t="shared" si="0"/>
-        <v>211.76777777777767</v>
+        <v>31.765166666666651</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="34">
         <v>0.92302293929962598</v>
       </c>
       <c r="G20" s="4">
         <v>6214.3333333333303</v>
       </c>
-      <c r="H20" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H20" s="23">
+        <f t="shared" si="1"/>
+        <v>31.071666666666651</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
       </c>
-      <c r="L20" s="33"/>
+      <c r="L20" s="31"/>
       <c r="P20" s="4"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="4">
+      <c r="A21" s="34">
         <v>0.922669135102412</v>
       </c>
       <c r="B21" s="23">
@@ -2016,29 +2020,29 @@
       </c>
       <c r="C21" s="23">
         <f t="shared" si="0"/>
-        <v>209.26000000000002</v>
+        <v>31.388999999999999</v>
       </c>
       <c r="D21" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="34">
         <v>0.922670700123703</v>
       </c>
       <c r="G21" s="4">
         <v>6230.5</v>
       </c>
-      <c r="H21" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H21" s="23">
+        <f t="shared" si="1"/>
+        <v>31.1525</v>
       </c>
       <c r="I21" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="L21" s="33"/>
+      <c r="L21" s="31"/>
       <c r="P21" s="4"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="4">
+      <c r="A22" s="34">
         <v>0.92273238338041497</v>
       </c>
       <c r="B22" s="23">
@@ -2046,29 +2050,29 @@
       </c>
       <c r="C22" s="23">
         <f t="shared" si="0"/>
-        <v>427.25777777777671</v>
+        <v>64.088666666666498</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="34">
         <v>0.92273238338041497</v>
       </c>
       <c r="G22" s="4">
         <v>12522.0666666666</v>
       </c>
-      <c r="H22" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H22" s="23">
+        <f t="shared" si="1"/>
+        <v>62.610333333333003</v>
       </c>
       <c r="I22" s="4">
         <v>0</v>
       </c>
-      <c r="L22" s="33"/>
+      <c r="L22" s="31"/>
       <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="4">
+      <c r="A23" s="34">
         <v>0.92301645379582897</v>
       </c>
       <c r="B23" s="23">
@@ -2076,29 +2080,29 @@
       </c>
       <c r="C23" s="23">
         <f t="shared" si="0"/>
-        <v>443.87111111111</v>
+        <v>66.580666666666502</v>
       </c>
       <c r="D23" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="34">
         <v>0.92301645379582897</v>
       </c>
       <c r="G23" s="4">
         <v>13049.9</v>
       </c>
-      <c r="H23" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H23" s="23">
+        <f t="shared" si="1"/>
+        <v>65.249499999999998</v>
       </c>
       <c r="I23" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="L23" s="33"/>
+      <c r="L23" s="31"/>
       <c r="P23" s="4"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="4">
+      <c r="A24" s="34">
         <v>0.92320369195208396</v>
       </c>
       <c r="B24" s="23">
@@ -2106,29 +2110,29 @@
       </c>
       <c r="C24" s="23">
         <f t="shared" si="0"/>
-        <v>46.769999999999996</v>
+        <v>7.0154999999999994</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="34">
         <v>0.92320369195208396</v>
       </c>
       <c r="G24" s="4">
         <v>1374.7333333333299</v>
       </c>
-      <c r="H24" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H24" s="23">
+        <f t="shared" si="1"/>
+        <v>6.8736666666666499</v>
       </c>
       <c r="I24" s="4">
         <v>0</v>
       </c>
-      <c r="L24" s="33"/>
+      <c r="L24" s="31"/>
       <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="4">
+      <c r="A25" s="34">
         <v>0.92279114918441796</v>
       </c>
       <c r="B25" s="23">
@@ -2136,29 +2140,29 @@
       </c>
       <c r="C25" s="23">
         <f t="shared" si="0"/>
-        <v>1276.0877777777766</v>
+        <v>191.41316666666651</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="34">
         <v>0.92258286979230197</v>
       </c>
       <c r="G25" s="4">
         <v>1399.36666666666</v>
       </c>
-      <c r="H25" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H25" s="23">
+        <f t="shared" si="1"/>
+        <v>6.9968333333333002</v>
       </c>
       <c r="I25" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="L25" s="33"/>
+      <c r="L25" s="31"/>
       <c r="P25" s="4"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="4">
+      <c r="A26" s="34">
         <v>0.92241873884005399</v>
       </c>
       <c r="B26" s="23">
@@ -2166,29 +2170,29 @@
       </c>
       <c r="C26" s="23">
         <f t="shared" si="0"/>
-        <v>289.05888888888865</v>
+        <v>43.358833333333294</v>
       </c>
       <c r="D26" s="4">
         <v>6.6666666666666693E-2</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="34">
         <v>0.92241873884005399</v>
       </c>
       <c r="G26" s="4">
         <v>8504.1999999999898</v>
       </c>
-      <c r="H26" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H26" s="23">
+        <f t="shared" si="1"/>
+        <v>42.520999999999951</v>
       </c>
       <c r="I26" s="4">
         <v>6.6666666666666693E-2</v>
       </c>
-      <c r="L26" s="33"/>
+      <c r="L26" s="31"/>
       <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="4">
+      <c r="A27" s="34">
         <v>0.922647721524675</v>
       </c>
       <c r="B27" s="23">
@@ -2196,29 +2200,29 @@
       </c>
       <c r="C27" s="23">
         <f t="shared" si="0"/>
-        <v>97.864444444444345</v>
+        <v>14.679666666666652</v>
       </c>
       <c r="D27" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="34">
         <v>0.922647721524675</v>
       </c>
       <c r="G27" s="4">
         <v>2880.2</v>
       </c>
-      <c r="H27" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H27" s="23">
+        <f t="shared" si="1"/>
+        <v>14.401</v>
       </c>
       <c r="I27" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="L27" s="33"/>
+      <c r="L27" s="31"/>
       <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="4">
+      <c r="A28" s="34">
         <v>0.92333943651750405</v>
       </c>
       <c r="B28" s="23">
@@ -2226,29 +2230,29 @@
       </c>
       <c r="C28" s="23">
         <f t="shared" si="0"/>
-        <v>1115.4000000000001</v>
+        <v>167.31</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="34">
         <v>0.92263493309323497</v>
       </c>
       <c r="G28" s="4">
         <v>8235.6666666666606</v>
       </c>
-      <c r="H28" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H28" s="23">
+        <f t="shared" si="1"/>
+        <v>41.178333333333306</v>
       </c>
       <c r="I28" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="L28" s="33"/>
+      <c r="L28" s="31"/>
       <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="4">
+      <c r="A29" s="34">
         <v>0.92283460673656703</v>
       </c>
       <c r="B29" s="23">
@@ -2256,29 +2260,29 @@
       </c>
       <c r="C29" s="23">
         <f t="shared" si="0"/>
-        <v>587.83999999999662</v>
+        <v>88.17599999999949</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="34">
         <v>0.92283460673656703</v>
       </c>
       <c r="G29" s="4">
         <v>17531.766666666601</v>
       </c>
-      <c r="H29" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H29" s="23">
+        <f t="shared" si="1"/>
+        <v>87.658833333333007</v>
       </c>
       <c r="I29" s="4">
         <v>0</v>
       </c>
-      <c r="L29" s="33"/>
+      <c r="L29" s="31"/>
       <c r="P29" s="4"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="4">
+      <c r="A30" s="34">
         <v>0.92269571424708696</v>
       </c>
       <c r="B30" s="23">
@@ -2286,238 +2290,254 @@
       </c>
       <c r="C30" s="23">
         <f t="shared" si="0"/>
-        <v>209.16999999999967</v>
+        <v>31.375499999999953</v>
       </c>
       <c r="D30" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="34">
         <v>0.92269571424708696</v>
       </c>
       <c r="G30" s="4">
         <v>6201.5333333333301</v>
       </c>
-      <c r="H30" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H30" s="23">
+        <f t="shared" si="1"/>
+        <v>31.007666666666651</v>
       </c>
       <c r="I30" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="L30" s="33"/>
+      <c r="L30" s="31"/>
       <c r="P30" s="4"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="L31" s="33"/>
+      <c r="L31" s="31"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32">
+      <c r="A32" s="35">
         <f>AVERAGE(A1:A31)</f>
         <v>0.92284747088827923</v>
       </c>
       <c r="C32" s="11">
         <f>AVERAGE(C1:C31)</f>
-        <v>419.6344814814808</v>
-      </c>
-      <c r="F32">
+        <v>62.945172222222105</v>
+      </c>
+      <c r="D32" s="35">
+        <f>AVERAGE(D1:D31)</f>
+        <v>2.7777777777777752E-2</v>
+      </c>
+      <c r="F32" s="35">
         <f>AVERAGE(F1:F31)</f>
         <v>0.92280012609668016</v>
       </c>
-      <c r="H32" s="11" t="e">
+      <c r="H32" s="11">
         <f>AVERAGE(H1:H31)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L32" s="33"/>
+        <v>63.991394444444367</v>
+      </c>
+      <c r="I32" s="35">
+        <f>AVERAGE(I1:I31)</f>
+        <v>2.9999999999999975E-2</v>
+      </c>
+      <c r="L32" s="31"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33">
-        <f t="shared" ref="A33" si="1">STDEV(A1:A30)</f>
+      <c r="A33" s="35">
+        <f t="shared" ref="A33" si="2">STDEV(A1:A30)</f>
         <v>2.5899919852117085E-4</v>
       </c>
       <c r="C33" s="11">
-        <f t="shared" ref="A33:C33" si="2">STDEV(C1:C30)</f>
-        <v>368.55665820361173</v>
-      </c>
-      <c r="F33">
-        <f t="shared" ref="F33" si="3">STDEV(F1:F30)</f>
+        <f t="shared" ref="C33:D33" si="3">STDEV(C1:C30)</f>
+        <v>55.283498730541773</v>
+      </c>
+      <c r="D33" s="35">
+        <f t="shared" si="3"/>
+        <v>3.1663137532726336E-2</v>
+      </c>
+      <c r="F33" s="35">
+        <f t="shared" ref="F33" si="4">STDEV(F1:F30)</f>
         <v>2.8071952321607731E-4</v>
       </c>
-      <c r="H33" s="11" t="e">
-        <f t="shared" ref="H33" si="4">STDEV(H1:H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L33" s="33"/>
+      <c r="H33" s="11">
+        <f t="shared" ref="H33:I33" si="5">STDEV(H1:H30)</f>
+        <v>50.400467297681658</v>
+      </c>
+      <c r="I33" s="35">
+        <f t="shared" si="5"/>
+        <v>3.1984191497474536E-2</v>
+      </c>
+      <c r="L33" s="31"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="L34" s="33"/>
+      <c r="L34" s="31"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="L35" s="33"/>
+      <c r="L35" s="31"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="L36" s="33"/>
+      <c r="L36" s="31"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="L37" s="33"/>
+      <c r="L37" s="31"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="L38" s="33"/>
+      <c r="L38" s="31"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="L39" s="33"/>
+      <c r="L39" s="31"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="L40" s="33"/>
+      <c r="L40" s="31"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="L41" s="33"/>
+      <c r="L41" s="31"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="L42" s="33"/>
+      <c r="L42" s="31"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="L43" s="33"/>
+      <c r="L43" s="31"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="L44" s="33"/>
+      <c r="L44" s="31"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="L45" s="33"/>
+      <c r="L45" s="31"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="L46" s="33"/>
+      <c r="L46" s="31"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="L47" s="33"/>
+      <c r="L47" s="31"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="L48" s="33"/>
+      <c r="L48" s="31"/>
     </row>
     <row r="49" spans="12:12">
-      <c r="L49" s="33"/>
+      <c r="L49" s="31"/>
     </row>
     <row r="50" spans="12:12">
-      <c r="L50" s="33"/>
+      <c r="L50" s="31"/>
     </row>
     <row r="51" spans="12:12">
-      <c r="L51" s="33"/>
+      <c r="L51" s="31"/>
     </row>
     <row r="52" spans="12:12">
-      <c r="L52" s="33"/>
+      <c r="L52" s="31"/>
     </row>
     <row r="53" spans="12:12">
-      <c r="L53" s="33"/>
+      <c r="L53" s="31"/>
     </row>
     <row r="54" spans="12:12">
-      <c r="L54" s="33"/>
+      <c r="L54" s="31"/>
     </row>
     <row r="55" spans="12:12">
-      <c r="L55" s="33"/>
+      <c r="L55" s="31"/>
     </row>
     <row r="56" spans="12:12">
-      <c r="L56" s="33"/>
+      <c r="L56" s="31"/>
     </row>
     <row r="57" spans="12:12">
-      <c r="L57" s="33"/>
+      <c r="L57" s="31"/>
     </row>
     <row r="58" spans="12:12">
-      <c r="L58" s="33"/>
+      <c r="L58" s="31"/>
     </row>
     <row r="59" spans="12:12">
-      <c r="L59" s="33"/>
+      <c r="L59" s="31"/>
     </row>
     <row r="60" spans="12:12">
-      <c r="L60" s="33"/>
+      <c r="L60" s="31"/>
     </row>
     <row r="61" spans="12:12">
-      <c r="L61" s="33"/>
+      <c r="L61" s="31"/>
     </row>
     <row r="62" spans="12:12">
-      <c r="L62" s="33"/>
+      <c r="L62" s="31"/>
     </row>
     <row r="63" spans="12:12">
-      <c r="L63" s="33"/>
+      <c r="L63" s="31"/>
     </row>
     <row r="64" spans="12:12">
-      <c r="L64" s="33"/>
+      <c r="L64" s="31"/>
     </row>
     <row r="65" spans="12:12">
-      <c r="L65" s="33"/>
+      <c r="L65" s="31"/>
     </row>
     <row r="66" spans="12:12">
-      <c r="L66" s="33"/>
+      <c r="L66" s="31"/>
     </row>
     <row r="67" spans="12:12">
-      <c r="L67" s="33"/>
+      <c r="L67" s="31"/>
     </row>
     <row r="68" spans="12:12">
-      <c r="L68" s="33"/>
+      <c r="L68" s="31"/>
     </row>
     <row r="69" spans="12:12">
-      <c r="L69" s="33"/>
+      <c r="L69" s="31"/>
     </row>
     <row r="70" spans="12:12">
-      <c r="L70" s="33"/>
+      <c r="L70" s="31"/>
     </row>
     <row r="71" spans="12:12">
-      <c r="L71" s="33"/>
+      <c r="L71" s="31"/>
     </row>
     <row r="72" spans="12:12">
-      <c r="L72" s="33"/>
+      <c r="L72" s="31"/>
     </row>
     <row r="73" spans="12:12">
-      <c r="L73" s="33"/>
+      <c r="L73" s="31"/>
     </row>
     <row r="74" spans="12:12">
-      <c r="L74" s="33"/>
+      <c r="L74" s="31"/>
     </row>
     <row r="75" spans="12:12">
-      <c r="L75" s="33"/>
+      <c r="L75" s="31"/>
     </row>
     <row r="76" spans="12:12">
-      <c r="L76" s="33"/>
+      <c r="L76" s="31"/>
     </row>
     <row r="77" spans="12:12">
-      <c r="L77" s="33"/>
+      <c r="L77" s="31"/>
     </row>
     <row r="78" spans="12:12">
-      <c r="L78" s="33"/>
+      <c r="L78" s="31"/>
     </row>
     <row r="79" spans="12:12">
-      <c r="L79" s="33"/>
+      <c r="L79" s="31"/>
     </row>
     <row r="80" spans="12:12">
-      <c r="L80" s="33"/>
+      <c r="L80" s="31"/>
     </row>
     <row r="81" spans="12:12">
-      <c r="L81" s="33"/>
+      <c r="L81" s="31"/>
     </row>
     <row r="82" spans="12:12">
-      <c r="L82" s="33"/>
+      <c r="L82" s="31"/>
     </row>
     <row r="83" spans="12:12">
-      <c r="L83" s="33"/>
+      <c r="L83" s="31"/>
     </row>
     <row r="84" spans="12:12">
-      <c r="L84" s="33"/>
+      <c r="L84" s="31"/>
     </row>
     <row r="85" spans="12:12">
-      <c r="L85" s="33"/>
+      <c r="L85" s="31"/>
     </row>
     <row r="86" spans="12:12">
-      <c r="L86" s="33"/>
+      <c r="L86" s="31"/>
     </row>
     <row r="87" spans="12:12">
-      <c r="L87" s="33"/>
+      <c r="L87" s="31"/>
     </row>
     <row r="88" spans="12:12">
-      <c r="L88" s="33"/>
+      <c r="L88" s="31"/>
     </row>
     <row r="89" spans="12:12">
-      <c r="L89" s="33"/>
+      <c r="L89" s="31"/>
     </row>
     <row r="90" spans="12:12">
-      <c r="L90" s="33"/>
+      <c r="L90" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2529,40 +2549,41 @@
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="14" style="35" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="35"/>
     <col min="8" max="8" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="4">
+      <c r="A1" s="34">
         <v>0.93141846115237104</v>
       </c>
       <c r="B1" s="4">
         <v>333.666666666666</v>
       </c>
-      <c r="C1" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C1" s="23">
+        <f>B1/200</f>
+        <v>1.6683333333333301</v>
       </c>
       <c r="D1" s="4">
         <v>0</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="34">
         <v>0.93161820896483605</v>
       </c>
       <c r="G1" s="4">
         <v>1551</v>
       </c>
-      <c r="H1" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H1" s="23">
+        <f>G1/200</f>
+        <v>7.7549999999999999</v>
       </c>
       <c r="I1" s="4">
         <v>0</v>
@@ -2570,28 +2591,28 @@
       <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="4">
+      <c r="A2" s="34">
         <v>0.93177838712583905</v>
       </c>
       <c r="B2" s="4">
         <v>245.666666666666</v>
       </c>
-      <c r="C2" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C2" s="23">
+        <f t="shared" ref="C2:C30" si="0">B2/200</f>
+        <v>1.2283333333333299</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="34">
         <v>0.93146144629903505</v>
       </c>
       <c r="G2" s="4">
         <v>610.66666666666595</v>
       </c>
-      <c r="H2" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H2" s="23">
+        <f t="shared" ref="H2:H30" si="1">G2/200</f>
+        <v>3.0533333333333297</v>
       </c>
       <c r="I2" s="4">
         <v>0</v>
@@ -2599,28 +2620,28 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="4">
+      <c r="A3" s="34">
         <v>0.93010423061970404</v>
       </c>
       <c r="B3" s="4">
         <v>3086.3333333333298</v>
       </c>
-      <c r="C3" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C3" s="23">
+        <f t="shared" si="0"/>
+        <v>15.431666666666649</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="34">
         <v>0.92956106014808904</v>
       </c>
       <c r="G3" s="4">
         <v>8156.2</v>
       </c>
-      <c r="H3" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H3" s="23">
+        <f t="shared" si="1"/>
+        <v>40.780999999999999</v>
       </c>
       <c r="I3" s="4">
         <v>0</v>
@@ -2628,28 +2649,28 @@
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="4">
+      <c r="A4" s="34">
         <v>0.93142041382462404</v>
       </c>
       <c r="B4" s="4">
         <v>11724.333333333299</v>
       </c>
-      <c r="C4" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C4" s="23">
+        <f t="shared" si="0"/>
+        <v>58.621666666666499</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="34">
         <v>0.93157331683028299</v>
       </c>
       <c r="G4" s="4">
         <v>34453.1</v>
       </c>
-      <c r="H4" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H4" s="23">
+        <f t="shared" si="1"/>
+        <v>172.2655</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>
@@ -2657,28 +2678,28 @@
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="4">
+      <c r="A5" s="34">
         <v>0.93246834134590295</v>
       </c>
       <c r="B5" s="4">
         <v>2088.3000000000002</v>
       </c>
-      <c r="C5" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C5" s="23">
+        <f t="shared" si="0"/>
+        <v>10.441500000000001</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="34">
         <v>0.931712902378247</v>
       </c>
       <c r="G5" s="4">
         <v>307.56666666666598</v>
       </c>
-      <c r="H5" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H5" s="23">
+        <f t="shared" si="1"/>
+        <v>1.5378333333333298</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
@@ -2686,28 +2707,28 @@
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="4">
+      <c r="A6" s="34">
         <v>0.93167305321321903</v>
       </c>
       <c r="B6" s="4">
         <v>433.2</v>
       </c>
-      <c r="C6" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C6" s="23">
+        <f t="shared" si="0"/>
+        <v>2.1659999999999999</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="34">
         <v>0.93175151047118299</v>
       </c>
       <c r="G6" s="4">
         <v>504.39999999999901</v>
       </c>
-      <c r="H6" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H6" s="23">
+        <f t="shared" si="1"/>
+        <v>2.5219999999999949</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -2715,28 +2736,28 @@
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="4">
+      <c r="A7" s="34">
         <v>0.93093808226953101</v>
       </c>
       <c r="B7" s="4">
         <v>1122.9666666666601</v>
       </c>
-      <c r="C7" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C7" s="23">
+        <f t="shared" si="0"/>
+        <v>5.6148333333333005</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="34">
         <v>0.93070397516774905</v>
       </c>
       <c r="G7" s="4">
         <v>1030.93333333333</v>
       </c>
-      <c r="H7" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H7" s="23">
+        <f t="shared" si="1"/>
+        <v>5.1546666666666496</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
@@ -2744,28 +2765,28 @@
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="4">
+      <c r="A8" s="34">
         <v>0.93196010662184203</v>
       </c>
       <c r="B8" s="4">
         <v>1285.7666666666601</v>
       </c>
-      <c r="C8" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C8" s="23">
+        <f t="shared" si="0"/>
+        <v>6.4288333333333005</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="34">
         <v>0.93027879246156997</v>
       </c>
       <c r="G8" s="4">
         <v>1737.36666666666</v>
       </c>
-      <c r="H8" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H8" s="23">
+        <f t="shared" si="1"/>
+        <v>8.6868333333333005</v>
       </c>
       <c r="I8" s="4">
         <v>0</v>
@@ -2773,28 +2794,28 @@
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="4">
+      <c r="A9" s="34">
         <v>0.93154711355015396</v>
       </c>
       <c r="B9" s="4">
         <v>13949.0666666666</v>
       </c>
-      <c r="C9" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C9" s="23">
+        <f t="shared" si="0"/>
+        <v>69.745333333333008</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="34">
         <v>0.90479044607720704</v>
       </c>
       <c r="G9" s="4">
         <v>4000.5999999999899</v>
       </c>
-      <c r="H9" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H9" s="23">
+        <f t="shared" si="1"/>
+        <v>20.00299999999995</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -2802,28 +2823,28 @@
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="4">
+      <c r="A10" s="34">
         <v>0.93161517235796398</v>
       </c>
       <c r="B10" s="4">
         <v>448.6</v>
       </c>
-      <c r="C10" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C10" s="23">
+        <f t="shared" si="0"/>
+        <v>2.2430000000000003</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="34">
         <v>0.92986398568293804</v>
       </c>
       <c r="G10" s="4">
         <v>2079.8333333333298</v>
       </c>
-      <c r="H10" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H10" s="23">
+        <f t="shared" si="1"/>
+        <v>10.39916666666665</v>
       </c>
       <c r="I10" s="4">
         <v>0</v>
@@ -2831,28 +2852,28 @@
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="4">
+      <c r="A11" s="34">
         <v>0.93054669333762696</v>
       </c>
       <c r="B11" s="4">
         <v>536.93333333333305</v>
       </c>
-      <c r="C11" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C11" s="23">
+        <f t="shared" si="0"/>
+        <v>2.6846666666666654</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="34">
         <v>0.93041763232657504</v>
       </c>
       <c r="G11" s="4">
         <v>901.1</v>
       </c>
-      <c r="H11" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H11" s="23">
+        <f t="shared" si="1"/>
+        <v>4.5055000000000005</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -2860,28 +2881,28 @@
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="4">
+      <c r="A12" s="34">
         <v>0.93228407834379301</v>
       </c>
       <c r="B12" s="4">
         <v>1665.43333333333</v>
       </c>
-      <c r="C12" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C12" s="23">
+        <f t="shared" si="0"/>
+        <v>8.3271666666666491</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="34">
         <v>0.93092702501128299</v>
       </c>
       <c r="G12" s="4">
         <v>4964.2999999999902</v>
       </c>
-      <c r="H12" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H12" s="23">
+        <f t="shared" si="1"/>
+        <v>24.821499999999951</v>
       </c>
       <c r="I12" s="4">
         <v>0</v>
@@ -2889,28 +2910,28 @@
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="4">
+      <c r="A13" s="34">
         <v>0.93150383417440197</v>
       </c>
       <c r="B13" s="4">
         <v>925.36666666666599</v>
       </c>
-      <c r="C13" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C13" s="23">
+        <f t="shared" si="0"/>
+        <v>4.6268333333333302</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="34">
         <v>0.93053832912419898</v>
       </c>
       <c r="G13" s="4">
         <v>4711.9333333333298</v>
       </c>
-      <c r="H13" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H13" s="23">
+        <f t="shared" si="1"/>
+        <v>23.559666666666647</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
@@ -2918,28 +2939,28 @@
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="4">
+      <c r="A14" s="34">
         <v>0.93188668790585605</v>
       </c>
       <c r="B14" s="4">
         <v>3405.4333333333302</v>
       </c>
-      <c r="C14" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C14" s="23">
+        <f t="shared" si="0"/>
+        <v>17.027166666666652</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="34">
         <v>0.93067605311611601</v>
       </c>
       <c r="G14" s="4">
         <v>2038.56666666666</v>
       </c>
-      <c r="H14" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H14" s="23">
+        <f t="shared" si="1"/>
+        <v>10.192833333333301</v>
       </c>
       <c r="I14" s="4">
         <v>0</v>
@@ -2947,28 +2968,28 @@
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="4">
+      <c r="A15" s="34">
         <v>0.929652854610163</v>
       </c>
       <c r="B15" s="4">
         <v>854.5</v>
       </c>
-      <c r="C15" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C15" s="23">
+        <f t="shared" si="0"/>
+        <v>4.2725</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="34">
         <v>0.93169709964366398</v>
       </c>
       <c r="G15" s="4">
         <v>489.7</v>
       </c>
-      <c r="H15" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H15" s="23">
+        <f t="shared" si="1"/>
+        <v>2.4485000000000001</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
@@ -2976,28 +2997,28 @@
       <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="4">
+      <c r="A16" s="34">
         <v>0.93177226360437704</v>
       </c>
       <c r="B16" s="4">
         <v>210.666666666666</v>
       </c>
-      <c r="C16" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C16" s="23">
+        <f t="shared" si="0"/>
+        <v>1.0533333333333301</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="34">
         <v>0.93167101241009598</v>
       </c>
       <c r="G16" s="4">
         <v>974.099999999999</v>
       </c>
-      <c r="H16" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H16" s="23">
+        <f t="shared" si="1"/>
+        <v>4.8704999999999954</v>
       </c>
       <c r="I16" s="4">
         <v>0</v>
@@ -3005,28 +3026,28 @@
       <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="4">
+      <c r="A17" s="34">
         <v>0.93062218214878401</v>
       </c>
       <c r="B17" s="4">
         <v>2280</v>
       </c>
-      <c r="C17" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C17" s="23">
+        <f t="shared" si="0"/>
+        <v>11.4</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="34">
         <v>0.93108864811301195</v>
       </c>
       <c r="G17" s="4">
         <v>842.36666666666599</v>
       </c>
-      <c r="H17" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H17" s="23">
+        <f t="shared" si="1"/>
+        <v>4.2118333333333302</v>
       </c>
       <c r="I17" s="4">
         <v>0</v>
@@ -3034,28 +3055,28 @@
       <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="4">
+      <c r="A18" s="34">
         <v>0.93094618842756405</v>
       </c>
       <c r="B18" s="4">
         <v>706.46666666666601</v>
       </c>
-      <c r="C18" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C18" s="23">
+        <f t="shared" si="0"/>
+        <v>3.5323333333333302</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="34">
         <v>0.93046747350589998</v>
       </c>
       <c r="G18" s="4">
         <v>20315.966666666602</v>
       </c>
-      <c r="H18" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H18" s="23">
+        <f t="shared" si="1"/>
+        <v>101.57983333333301</v>
       </c>
       <c r="I18" s="4">
         <v>0</v>
@@ -3063,28 +3084,28 @@
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="4">
+      <c r="A19" s="34">
         <v>0.92867961121210596</v>
       </c>
       <c r="B19" s="4">
         <v>342.63333333333298</v>
       </c>
-      <c r="C19" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C19" s="23">
+        <f t="shared" si="0"/>
+        <v>1.713166666666665</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="34">
         <v>0.92940488189721804</v>
       </c>
       <c r="G19" s="4">
         <v>1016.03333333333</v>
       </c>
-      <c r="H19" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H19" s="23">
+        <f t="shared" si="1"/>
+        <v>5.0801666666666501</v>
       </c>
       <c r="I19" s="4">
         <v>0</v>
@@ -3092,28 +3113,28 @@
       <c r="P19" s="4"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="4">
+      <c r="A20" s="34">
         <v>0.93077427271028002</v>
       </c>
       <c r="B20" s="4">
         <v>1355.8333333333301</v>
       </c>
-      <c r="C20" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C20" s="23">
+        <f t="shared" si="0"/>
+        <v>6.7791666666666508</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="34">
         <v>0.92959090734615502</v>
       </c>
       <c r="G20" s="4">
         <v>1692.7666666666601</v>
       </c>
-      <c r="H20" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H20" s="23">
+        <f t="shared" si="1"/>
+        <v>8.4638333333332998</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
@@ -3121,28 +3142,28 @@
       <c r="P20" s="4"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="4">
+      <c r="A21" s="34">
         <v>0.93214323605742599</v>
       </c>
       <c r="B21" s="4">
         <v>822.3</v>
       </c>
-      <c r="C21" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C21" s="23">
+        <f t="shared" si="0"/>
+        <v>4.1114999999999995</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="34">
         <v>0.932062366273398</v>
       </c>
       <c r="G21" s="4">
         <v>788.79999999999905</v>
       </c>
-      <c r="H21" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H21" s="23">
+        <f t="shared" si="1"/>
+        <v>3.9439999999999951</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
@@ -3150,28 +3171,28 @@
       <c r="P21" s="4"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="4">
+      <c r="A22" s="34">
         <v>0.92966292187777699</v>
       </c>
       <c r="B22" s="4">
         <v>4125.8999999999996</v>
       </c>
-      <c r="C22" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C22" s="23">
+        <f t="shared" si="0"/>
+        <v>20.629499999999997</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="34">
         <v>0.92959214642474697</v>
       </c>
       <c r="G22" s="4">
         <v>2048.8333333333298</v>
       </c>
-      <c r="H22" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H22" s="23">
+        <f t="shared" si="1"/>
+        <v>10.244166666666649</v>
       </c>
       <c r="I22" s="4">
         <v>0</v>
@@ -3179,28 +3200,28 @@
       <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="4">
+      <c r="A23" s="34">
         <v>0.93192999793570297</v>
       </c>
       <c r="B23" s="4">
         <v>1225.6666666666599</v>
       </c>
-      <c r="C23" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C23" s="23">
+        <f t="shared" si="0"/>
+        <v>6.1283333333332992</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="34">
         <v>0.92927101830462799</v>
       </c>
       <c r="G23" s="4">
         <v>1406.9</v>
       </c>
-      <c r="H23" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H23" s="23">
+        <f t="shared" si="1"/>
+        <v>7.0345000000000004</v>
       </c>
       <c r="I23" s="4">
         <v>0</v>
@@ -3208,28 +3229,28 @@
       <c r="P23" s="4"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="4">
+      <c r="A24" s="34">
         <v>0.93221751995225999</v>
       </c>
       <c r="B24" s="4">
         <v>1296.5999999999999</v>
       </c>
-      <c r="C24" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C24" s="23">
+        <f t="shared" si="0"/>
+        <v>6.4829999999999997</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="34">
         <v>0.932054835376119</v>
       </c>
       <c r="G24" s="4">
         <v>292.099999999999</v>
       </c>
-      <c r="H24" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H24" s="23">
+        <f t="shared" si="1"/>
+        <v>1.460499999999995</v>
       </c>
       <c r="I24" s="4">
         <v>0</v>
@@ -3237,28 +3258,28 @@
       <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="4">
+      <c r="A25" s="34">
         <v>0.93178446489920996</v>
       </c>
       <c r="B25" s="4">
         <v>2035.1</v>
       </c>
-      <c r="C25" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C25" s="23">
+        <f t="shared" si="0"/>
+        <v>10.1755</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="34">
         <v>0.93053641336326598</v>
       </c>
       <c r="G25" s="4">
         <v>1677.3</v>
       </c>
-      <c r="H25" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H25" s="23">
+        <f t="shared" si="1"/>
+        <v>8.3864999999999998</v>
       </c>
       <c r="I25" s="4">
         <v>0</v>
@@ -3266,28 +3287,28 @@
       <c r="P25" s="4"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="4">
+      <c r="A26" s="34">
         <v>0.93182051284017298</v>
       </c>
       <c r="B26" s="4">
         <v>1488.36666666666</v>
       </c>
-      <c r="C26" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C26" s="23">
+        <f t="shared" si="0"/>
+        <v>7.4418333333332995</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="34">
         <v>0.93032827057349299</v>
       </c>
       <c r="G26" s="4">
         <v>6267.2333333333299</v>
       </c>
-      <c r="H26" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H26" s="23">
+        <f t="shared" si="1"/>
+        <v>31.336166666666649</v>
       </c>
       <c r="I26" s="4">
         <v>0</v>
@@ -3295,28 +3316,28 @@
       <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="4">
+      <c r="A27" s="34">
         <v>0.93099747577553704</v>
       </c>
       <c r="B27" s="4">
         <v>828.33333333333303</v>
       </c>
-      <c r="C27" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C27" s="23">
+        <f t="shared" si="0"/>
+        <v>4.1416666666666648</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="34">
         <v>0.92952318461793604</v>
       </c>
       <c r="G27" s="4">
         <v>572.56666666666604</v>
       </c>
-      <c r="H27" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H27" s="23">
+        <f t="shared" si="1"/>
+        <v>2.86283333333333</v>
       </c>
       <c r="I27" s="4">
         <v>0</v>
@@ -3324,28 +3345,28 @@
       <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="4">
+      <c r="A28" s="34">
         <v>0.93015172328440698</v>
       </c>
       <c r="B28" s="4">
         <v>1925.1</v>
       </c>
-      <c r="C28" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C28" s="23">
+        <f t="shared" si="0"/>
+        <v>9.6254999999999988</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="34">
         <v>0.93024305962270404</v>
       </c>
       <c r="G28" s="4">
         <v>255.166666666666</v>
       </c>
-      <c r="H28" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H28" s="23">
+        <f t="shared" si="1"/>
+        <v>1.27583333333333</v>
       </c>
       <c r="I28" s="4">
         <v>0</v>
@@ -3353,28 +3374,28 @@
       <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="4">
+      <c r="A29" s="34">
         <v>0.92866233905472995</v>
       </c>
       <c r="B29" s="4">
         <v>3349.9333333333302</v>
       </c>
-      <c r="C29" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C29" s="23">
+        <f t="shared" si="0"/>
+        <v>16.749666666666652</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="34">
         <v>0.92860993609596598</v>
       </c>
       <c r="G29" s="4">
         <v>3480.2666666666601</v>
       </c>
-      <c r="H29" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H29" s="23">
+        <f t="shared" si="1"/>
+        <v>17.401333333333302</v>
       </c>
       <c r="I29" s="4">
         <v>0</v>
@@ -3382,28 +3403,28 @@
       <c r="P29" s="4"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="4">
+      <c r="A30" s="34">
         <v>0.93030095232871601</v>
       </c>
       <c r="B30" s="4">
         <v>1579.1666666666599</v>
       </c>
-      <c r="C30" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="C30" s="23">
+        <f t="shared" si="0"/>
+        <v>7.8958333333332993</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="34">
         <v>0.93151467210393202</v>
       </c>
       <c r="G30" s="4">
         <v>4502.8666666666604</v>
       </c>
-      <c r="H30" s="23" t="e">
-        <f>#REF!/30</f>
-        <v>#REF!</v>
+      <c r="H30" s="23">
+        <f t="shared" si="1"/>
+        <v>22.514333333333301</v>
       </c>
       <c r="I30" s="4">
         <v>0</v>
@@ -3411,39 +3432,39 @@
       <c r="P30" s="4"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32">
+      <c r="A32" s="35">
         <f>AVERAGE(A1:A31)</f>
         <v>0.9311087724187348</v>
       </c>
-      <c r="C32" s="11" t="e">
+      <c r="C32" s="11">
         <f>AVERAGE(C1:C31)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F32">
+        <v>10.946272222222197</v>
+      </c>
+      <c r="F32" s="35">
         <f>AVERAGE(F1:F31)</f>
         <v>0.92978435365771817</v>
       </c>
-      <c r="H32" s="11" t="e">
+      <c r="H32" s="11">
         <f>AVERAGE(H1:H31)</f>
-        <v>#REF!</v>
+        <v>18.945088888888865</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" t="e">
-        <f>STDEV(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C33" s="11" t="e">
-        <f t="shared" ref="C33:E33" si="0">STDEV(C1:C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F33" t="e">
-        <f>STDEV(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H33" s="11" t="e">
-        <f t="shared" ref="H33" si="1">STDEV(H1:H30)</f>
-        <v>#REF!</v>
+      <c r="A33" s="35">
+        <f t="shared" ref="A33" si="2">STDEV(A1:A30)</f>
+        <v>1.0155275294605299E-3</v>
+      </c>
+      <c r="C33" s="11">
+        <f t="shared" ref="C33" si="3">STDEV(C1:C30)</f>
+        <v>15.394332750785928</v>
+      </c>
+      <c r="F33" s="35">
+        <f t="shared" ref="F33" si="4">STDEV(F1:F30)</f>
+        <v>4.8123502653134023E-3</v>
+      </c>
+      <c r="H33" s="11">
+        <f t="shared" ref="H33" si="5">STDEV(H1:H30)</f>
+        <v>34.771239713560377</v>
       </c>
     </row>
   </sheetData>
@@ -3457,39 +3478,40 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="14" style="35" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="35"/>
     <col min="8" max="8" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="4">
+      <c r="A1" s="34">
         <v>0.857011876113</v>
       </c>
       <c r="B1" s="4">
         <v>1097.6666666666599</v>
       </c>
       <c r="C1" s="23">
-        <f>B1/30</f>
-        <v>36.588888888888661</v>
+        <f>B1/200</f>
+        <v>5.4883333333332995</v>
       </c>
       <c r="D1" s="4">
         <v>0</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="34">
         <v>0.85305863307040397</v>
       </c>
       <c r="G1" s="4">
         <v>1034</v>
       </c>
       <c r="H1" s="23">
-        <f>G1/30</f>
-        <v>34.466666666666669</v>
+        <f>G1/200</f>
+        <v>5.17</v>
       </c>
       <c r="I1" s="4">
         <v>0</v>
@@ -3497,28 +3519,28 @@
       <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="4">
+      <c r="A2" s="34">
         <v>0.86580955987344699</v>
       </c>
       <c r="B2" s="4">
         <v>579.03333333333296</v>
       </c>
       <c r="C2" s="23">
-        <f t="shared" ref="C2:C30" si="0">B2/30</f>
-        <v>19.301111111111098</v>
+        <f t="shared" ref="C2:C30" si="0">B2/200</f>
+        <v>2.8951666666666647</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="34">
         <v>0.86119511145215799</v>
       </c>
       <c r="G2" s="4">
         <v>1045.36666666666</v>
       </c>
       <c r="H2" s="23">
-        <f t="shared" ref="H2:H30" si="1">G2/30</f>
-        <v>34.845555555555329</v>
+        <f t="shared" ref="H2:H30" si="1">G2/200</f>
+        <v>5.2268333333332997</v>
       </c>
       <c r="I2" s="4">
         <v>0</v>
@@ -3526,7 +3548,7 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="4">
+      <c r="A3" s="34">
         <v>0.86635809448717505</v>
       </c>
       <c r="B3" s="4">
@@ -3534,12 +3556,12 @@
       </c>
       <c r="C3" s="23">
         <f t="shared" si="0"/>
-        <v>5.7266666666666328</v>
+        <v>0.85899999999999499</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="34">
         <v>0.86335966264664499</v>
       </c>
       <c r="G3" s="4">
@@ -3547,7 +3569,7 @@
       </c>
       <c r="H3" s="23">
         <f t="shared" si="1"/>
-        <v>16.966666666666633</v>
+        <v>2.544999999999995</v>
       </c>
       <c r="I3" s="4">
         <v>0</v>
@@ -3555,7 +3577,7 @@
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="4">
+      <c r="A4" s="34">
         <v>0.86551629884984205</v>
       </c>
       <c r="B4" s="4">
@@ -3563,12 +3585,12 @@
       </c>
       <c r="C4" s="23">
         <f t="shared" si="0"/>
-        <v>4.7733333333333325</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="34">
         <v>0.86009679813150997</v>
       </c>
       <c r="G4" s="4">
@@ -3576,7 +3598,7 @@
       </c>
       <c r="H4" s="23">
         <f t="shared" si="1"/>
-        <v>20.40555555555553</v>
+        <v>3.0608333333333295</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>
@@ -3584,7 +3606,7 @@
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="4">
+      <c r="A5" s="34">
         <v>0.86432614940077801</v>
       </c>
       <c r="B5" s="4">
@@ -3592,12 +3614,12 @@
       </c>
       <c r="C5" s="23">
         <f t="shared" si="0"/>
-        <v>3.7488888888888665</v>
+        <v>0.56233333333333002</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="34">
         <v>0.85312846173356105</v>
       </c>
       <c r="G5" s="4">
@@ -3605,7 +3627,7 @@
       </c>
       <c r="H5" s="23">
         <f t="shared" si="1"/>
-        <v>50.413333333333</v>
+        <v>7.5619999999999505</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
@@ -3613,7 +3635,7 @@
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="4">
+      <c r="A6" s="34">
         <v>0.86574294564780996</v>
       </c>
       <c r="B6" s="4">
@@ -3621,12 +3643,12 @@
       </c>
       <c r="C6" s="23">
         <f t="shared" si="0"/>
-        <v>7.9099999999999664</v>
+        <v>1.186499999999995</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="34">
         <v>0.85568687630863605</v>
       </c>
       <c r="G6" s="4">
@@ -3634,7 +3656,7 @@
       </c>
       <c r="H6" s="23">
         <f t="shared" si="1"/>
-        <v>33.425555555555334</v>
+        <v>5.0138333333332996</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -3642,7 +3664,7 @@
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="4">
+      <c r="A7" s="34">
         <v>0.85490246904207201</v>
       </c>
       <c r="B7" s="4">
@@ -3650,12 +3672,12 @@
       </c>
       <c r="C7" s="23">
         <f t="shared" si="0"/>
-        <v>6.7366666666666664</v>
+        <v>1.0105</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="34">
         <v>0.85319594732464699</v>
       </c>
       <c r="G7" s="4">
@@ -3663,7 +3685,7 @@
       </c>
       <c r="H7" s="23">
         <f t="shared" si="1"/>
-        <v>26.34333333333333</v>
+        <v>3.9514999999999998</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
@@ -3671,7 +3693,7 @@
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="4">
+      <c r="A8" s="34">
         <v>0.86338241180490405</v>
       </c>
       <c r="B8" s="4">
@@ -3679,12 +3701,12 @@
       </c>
       <c r="C8" s="23">
         <f t="shared" si="0"/>
-        <v>8.4133333333333002</v>
+        <v>1.2619999999999951</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="34">
         <v>0.85793063289923899</v>
       </c>
       <c r="G8" s="4">
@@ -3692,7 +3714,7 @@
       </c>
       <c r="H8" s="23">
         <f t="shared" si="1"/>
-        <v>38.091111111110997</v>
+        <v>5.7136666666666498</v>
       </c>
       <c r="I8" s="4">
         <v>0</v>
@@ -3700,7 +3722,7 @@
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="4">
+      <c r="A9" s="34">
         <v>0.86466250487457896</v>
       </c>
       <c r="B9" s="4">
@@ -3708,12 +3730,12 @@
       </c>
       <c r="C9" s="23">
         <f t="shared" si="0"/>
-        <v>16.888888888888868</v>
+        <v>2.5333333333333301</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="34">
         <v>0.85537382987203503</v>
       </c>
       <c r="G9" s="4">
@@ -3721,7 +3743,7 @@
       </c>
       <c r="H9" s="23">
         <f t="shared" si="1"/>
-        <v>10.316666666666666</v>
+        <v>1.5475000000000001</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -3729,7 +3751,7 @@
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="4">
+      <c r="A10" s="34">
         <v>0.857721391025971</v>
       </c>
       <c r="B10" s="4">
@@ -3737,12 +3759,12 @@
       </c>
       <c r="C10" s="23">
         <f t="shared" si="0"/>
-        <v>15.6322222222222</v>
+        <v>2.3448333333333302</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="34">
         <v>0.85830518126424604</v>
       </c>
       <c r="G10" s="4">
@@ -3750,7 +3772,7 @@
       </c>
       <c r="H10" s="23">
         <f t="shared" si="1"/>
-        <v>120.58111111111101</v>
+        <v>18.087166666666651</v>
       </c>
       <c r="I10" s="4">
         <v>0</v>
@@ -3758,7 +3780,7 @@
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="4">
+      <c r="A11" s="34">
         <v>0.866204271542801</v>
       </c>
       <c r="B11" s="4">
@@ -3766,12 +3788,12 @@
       </c>
       <c r="C11" s="23">
         <f t="shared" si="0"/>
-        <v>14.386666666666667</v>
+        <v>2.1579999999999999</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="34">
         <v>0.85188220397296499</v>
       </c>
       <c r="G11" s="4">
@@ -3779,7 +3801,7 @@
       </c>
       <c r="H11" s="23">
         <f t="shared" si="1"/>
-        <v>17.0911111111111</v>
+        <v>2.563666666666665</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -3787,7 +3809,7 @@
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="4">
+      <c r="A12" s="34">
         <v>0.84620685380458305</v>
       </c>
       <c r="B12" s="4">
@@ -3795,12 +3817,12 @@
       </c>
       <c r="C12" s="23">
         <f t="shared" si="0"/>
-        <v>10.4611111111111</v>
+        <v>1.5691666666666648</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="34">
         <v>0.84087386356206695</v>
       </c>
       <c r="G12" s="4">
@@ -3808,7 +3830,7 @@
       </c>
       <c r="H12" s="23">
         <f t="shared" si="1"/>
-        <v>4.5822222222221995</v>
+        <v>0.68733333333332991</v>
       </c>
       <c r="I12" s="4">
         <v>0</v>
@@ -3816,7 +3838,7 @@
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="4">
+      <c r="A13" s="34">
         <v>0.86592651315351499</v>
       </c>
       <c r="B13" s="4">
@@ -3824,12 +3846,12 @@
       </c>
       <c r="C13" s="23">
         <f t="shared" si="0"/>
-        <v>15.481111111111099</v>
+        <v>2.3221666666666652</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="34">
         <v>0.86467356114490201</v>
       </c>
       <c r="G13" s="4">
@@ -3837,7 +3859,7 @@
       </c>
       <c r="H13" s="23">
         <f t="shared" si="1"/>
-        <v>13.776666666666667</v>
+        <v>2.0665</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
@@ -3845,7 +3867,7 @@
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="4">
+      <c r="A14" s="34">
         <v>0.864176317166926</v>
       </c>
       <c r="B14" s="4">
@@ -3853,12 +3875,12 @@
       </c>
       <c r="C14" s="23">
         <f t="shared" si="0"/>
-        <v>3.7688888888888665</v>
+        <v>0.56533333333333002</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="34">
         <v>0.86206895627737601</v>
       </c>
       <c r="G14" s="4">
@@ -3866,7 +3888,7 @@
       </c>
       <c r="H14" s="23">
         <f t="shared" si="1"/>
-        <v>13.837777777777767</v>
+        <v>2.075666666666665</v>
       </c>
       <c r="I14" s="4">
         <v>0</v>
@@ -3874,7 +3896,7 @@
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="4">
+      <c r="A15" s="34">
         <v>0.86571173398294499</v>
       </c>
       <c r="B15" s="4">
@@ -3882,12 +3904,12 @@
       </c>
       <c r="C15" s="23">
         <f t="shared" si="0"/>
-        <v>6.2855555555555336</v>
+        <v>0.94283333333333008</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="34">
         <v>0.84860490933342003</v>
       </c>
       <c r="G15" s="4">
@@ -3895,7 +3917,7 @@
       </c>
       <c r="H15" s="23">
         <f t="shared" si="1"/>
-        <v>12.739999999999968</v>
+        <v>1.9109999999999951</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
@@ -3903,7 +3925,7 @@
       <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="4">
+      <c r="A16" s="34">
         <v>0.86559406436627195</v>
       </c>
       <c r="B16" s="4">
@@ -3911,12 +3933,12 @@
       </c>
       <c r="C16" s="23">
         <f t="shared" si="0"/>
-        <v>7.9822222222221999</v>
+        <v>1.19733333333333</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="34">
         <v>0.84924984164507</v>
       </c>
       <c r="G16" s="4">
@@ -3924,7 +3946,7 @@
       </c>
       <c r="H16" s="23">
         <f t="shared" si="1"/>
-        <v>12.509999999999966</v>
+        <v>1.8764999999999949</v>
       </c>
       <c r="I16" s="4">
         <v>0</v>
@@ -3932,7 +3954,7 @@
       <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="4">
+      <c r="A17" s="34">
         <v>0.86444526202058902</v>
       </c>
       <c r="B17" s="4">
@@ -3940,12 +3962,12 @@
       </c>
       <c r="C17" s="23">
         <f t="shared" si="0"/>
-        <v>12.688888888888867</v>
+        <v>1.90333333333333</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="34">
         <v>0.851400861793008</v>
       </c>
       <c r="G17" s="4">
@@ -3953,7 +3975,7 @@
       </c>
       <c r="H17" s="23">
         <f t="shared" si="1"/>
-        <v>29.434444444444431</v>
+        <v>4.4151666666666651</v>
       </c>
       <c r="I17" s="4">
         <v>0</v>
@@ -3961,7 +3983,7 @@
       <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="4">
+      <c r="A18" s="34">
         <v>0.86534004685296495</v>
       </c>
       <c r="B18" s="4">
@@ -3969,12 +3991,12 @@
       </c>
       <c r="C18" s="23">
         <f t="shared" si="0"/>
-        <v>6.86</v>
+        <v>1.0290000000000001</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="34">
         <v>0.84970861332167003</v>
       </c>
       <c r="G18" s="4">
@@ -3982,7 +4004,7 @@
       </c>
       <c r="H18" s="23">
         <f t="shared" si="1"/>
-        <v>18.224444444444433</v>
+        <v>2.7336666666666649</v>
       </c>
       <c r="I18" s="4">
         <v>0</v>
@@ -3990,7 +4012,7 @@
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="4">
+      <c r="A19" s="34">
         <v>0.86447798948614596</v>
       </c>
       <c r="B19" s="4">
@@ -3998,12 +4020,12 @@
       </c>
       <c r="C19" s="23">
         <f t="shared" si="0"/>
-        <v>4.8177777777777662</v>
+        <v>0.7226666666666649</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="34">
         <v>0.85982550857921103</v>
       </c>
       <c r="G19" s="4">
@@ -4011,7 +4033,7 @@
       </c>
       <c r="H19" s="23">
         <f t="shared" si="1"/>
-        <v>29.185555555555535</v>
+        <v>4.3778333333333306</v>
       </c>
       <c r="I19" s="4">
         <v>0</v>
@@ -4019,7 +4041,7 @@
       <c r="P19" s="4"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="4">
+      <c r="A20" s="34">
         <v>0.85240760731303</v>
       </c>
       <c r="B20" s="4">
@@ -4027,12 +4049,12 @@
       </c>
       <c r="C20" s="23">
         <f t="shared" si="0"/>
-        <v>26.124444444444432</v>
+        <v>3.918666666666665</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="34">
         <v>0.85904173986020205</v>
       </c>
       <c r="G20" s="4">
@@ -4040,7 +4062,7 @@
       </c>
       <c r="H20" s="23">
         <f t="shared" si="1"/>
-        <v>12.555555555555534</v>
+        <v>1.88333333333333</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
@@ -4048,7 +4070,7 @@
       <c r="P20" s="4"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="4">
+      <c r="A21" s="34">
         <v>0.86336522559668505</v>
       </c>
       <c r="B21" s="4">
@@ -4056,12 +4078,12 @@
       </c>
       <c r="C21" s="23">
         <f t="shared" si="0"/>
-        <v>5.5233333333333325</v>
+        <v>0.8284999999999999</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="34">
         <v>0.86365424914647804</v>
       </c>
       <c r="G21" s="4">
@@ -4069,7 +4091,7 @@
       </c>
       <c r="H21" s="23">
         <f t="shared" si="1"/>
-        <v>12.068888888888866</v>
+        <v>1.8103333333333298</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
@@ -4077,7 +4099,7 @@
       <c r="P21" s="4"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="4">
+      <c r="A22" s="34">
         <v>0.86576866464498203</v>
       </c>
       <c r="B22" s="4">
@@ -4085,12 +4107,12 @@
       </c>
       <c r="C22" s="23">
         <f t="shared" si="0"/>
-        <v>30.102222222222203</v>
+        <v>4.5153333333333299</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="34">
         <v>0.86342974948982398</v>
       </c>
       <c r="G22" s="4">
@@ -4098,7 +4120,7 @@
       </c>
       <c r="H22" s="23">
         <f t="shared" si="1"/>
-        <v>19.234444444444431</v>
+        <v>2.8851666666666649</v>
       </c>
       <c r="I22" s="4">
         <v>0</v>
@@ -4106,7 +4128,7 @@
       <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="4">
+      <c r="A23" s="34">
         <v>0.85416305660825298</v>
       </c>
       <c r="B23" s="4">
@@ -4114,12 +4136,12 @@
       </c>
       <c r="C23" s="23">
         <f t="shared" si="0"/>
-        <v>12.6011111111111</v>
+        <v>1.890166666666665</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="34">
         <v>0.83545544542121197</v>
       </c>
       <c r="G23" s="4">
@@ -4127,7 +4149,7 @@
       </c>
       <c r="H23" s="23">
         <f t="shared" si="1"/>
-        <v>30.4033333333333</v>
+        <v>4.5604999999999949</v>
       </c>
       <c r="I23" s="4">
         <v>0</v>
@@ -4135,7 +4157,7 @@
       <c r="P23" s="4"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="4">
+      <c r="A24" s="34">
         <v>0.86336847519486704</v>
       </c>
       <c r="B24" s="4">
@@ -4143,12 +4165,12 @@
       </c>
       <c r="C24" s="23">
         <f t="shared" si="0"/>
-        <v>13.604444444444432</v>
+        <v>2.0406666666666649</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="34">
         <v>0.84294665527622403</v>
       </c>
       <c r="G24" s="4">
@@ -4156,7 +4178,7 @@
       </c>
       <c r="H24" s="23">
         <f t="shared" si="1"/>
-        <v>16.638888888888868</v>
+        <v>2.49583333333333</v>
       </c>
       <c r="I24" s="4">
         <v>0</v>
@@ -4164,7 +4186,7 @@
       <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="4">
+      <c r="A25" s="34">
         <v>0.86515298275401398</v>
       </c>
       <c r="B25" s="4">
@@ -4172,12 +4194,12 @@
       </c>
       <c r="C25" s="23">
         <f t="shared" si="0"/>
-        <v>12.422222222222199</v>
+        <v>1.86333333333333</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="34">
         <v>0.85789602778263296</v>
       </c>
       <c r="G25" s="4">
@@ -4185,7 +4207,7 @@
       </c>
       <c r="H25" s="23">
         <f t="shared" si="1"/>
-        <v>59.042222222222001</v>
+        <v>8.8563333333332999</v>
       </c>
       <c r="I25" s="4">
         <v>0</v>
@@ -4193,7 +4215,7 @@
       <c r="P25" s="4"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="4">
+      <c r="A26" s="34">
         <v>0.86590373393075004</v>
       </c>
       <c r="B26" s="4">
@@ -4201,12 +4223,12 @@
       </c>
       <c r="C26" s="23">
         <f t="shared" si="0"/>
-        <v>31.218888888888866</v>
+        <v>4.6828333333333303</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="34">
         <v>0.85508836930476695</v>
       </c>
       <c r="G26" s="4">
@@ -4214,7 +4236,7 @@
       </c>
       <c r="H26" s="23">
         <f t="shared" si="1"/>
-        <v>36.214444444444332</v>
+        <v>5.4321666666666495</v>
       </c>
       <c r="I26" s="4">
         <v>0</v>
@@ -4222,7 +4244,7 @@
       <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="4">
+      <c r="A27" s="34">
         <v>0.86595814719364095</v>
       </c>
       <c r="B27" s="4">
@@ -4230,12 +4252,12 @@
       </c>
       <c r="C27" s="23">
         <f t="shared" si="0"/>
-        <v>6.2388888888888667</v>
+        <v>0.93583333333332996</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="34">
         <v>0.85732649513759396</v>
       </c>
       <c r="G27" s="4">
@@ -4243,7 +4265,7 @@
       </c>
       <c r="H27" s="23">
         <f t="shared" si="1"/>
-        <v>37.512222222222</v>
+        <v>5.6268333333333</v>
       </c>
       <c r="I27" s="4">
         <v>0</v>
@@ -4251,7 +4273,7 @@
       <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="4">
+      <c r="A28" s="34">
         <v>0.86173690256948299</v>
       </c>
       <c r="B28" s="4">
@@ -4259,12 +4281,12 @@
       </c>
       <c r="C28" s="23">
         <f t="shared" si="0"/>
-        <v>6.0911111111111005</v>
+        <v>0.91366666666666507</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="34">
         <v>0.79768248041062195</v>
       </c>
       <c r="G28" s="4">
@@ -4272,7 +4294,7 @@
       </c>
       <c r="H28" s="23">
         <f t="shared" si="1"/>
-        <v>14.206666666666667</v>
+        <v>2.1309999999999998</v>
       </c>
       <c r="I28" s="4">
         <v>0</v>
@@ -4280,7 +4302,7 @@
       <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="4">
+      <c r="A29" s="34">
         <v>0.86312954535032604</v>
       </c>
       <c r="B29" s="4">
@@ -4288,12 +4310,12 @@
       </c>
       <c r="C29" s="23">
         <f t="shared" si="0"/>
-        <v>11.375555555555534</v>
+        <v>1.7063333333333301</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="34">
         <v>0.85700463773638003</v>
       </c>
       <c r="G29" s="4">
@@ -4301,7 +4323,7 @@
       </c>
       <c r="H29" s="23">
         <f t="shared" si="1"/>
-        <v>51.232222222222006</v>
+        <v>7.6848333333333008</v>
       </c>
       <c r="I29" s="4">
         <v>0</v>
@@ -4309,7 +4331,7 @@
       <c r="P29" s="4"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="4">
+      <c r="A30" s="34">
         <v>0.86450714035533405</v>
       </c>
       <c r="B30" s="4">
@@ -4317,12 +4339,12 @@
       </c>
       <c r="C30" s="23">
         <f t="shared" si="0"/>
-        <v>24.254444444444434</v>
+        <v>3.638166666666665</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="34">
         <v>0.85176121138171002</v>
       </c>
       <c r="G30" s="4">
@@ -4330,7 +4352,7 @@
       </c>
       <c r="H30" s="23">
         <f t="shared" si="1"/>
-        <v>14.296666666666665</v>
+        <v>2.1444999999999999</v>
       </c>
       <c r="I30" s="4">
         <v>0</v>
@@ -4338,39 +4360,39 @@
       <c r="P30" s="4"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32">
+      <c r="A32" s="35">
         <f>AVERAGE(A1:A31)</f>
         <v>0.86263260783358942</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="24">
         <f>AVERAGE(C1:C31)</f>
-        <v>12.933629629629609</v>
-      </c>
-      <c r="F32">
+        <v>1.9400444444444409</v>
+      </c>
+      <c r="F32" s="35">
         <f>AVERAGE(F1:F31)</f>
         <v>0.85303021717601402</v>
       </c>
       <c r="H32" s="11">
         <f>AVERAGE(H1:H31)</f>
-        <v>28.021444444444377</v>
+        <v>4.2032166666666555</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33">
+      <c r="A33" s="35">
         <f t="shared" ref="A33:C33" si="2">STDEV(A1:A30)</f>
         <v>4.9581704704270658E-3</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="24">
         <f t="shared" si="2"/>
-        <v>8.8304189265960122</v>
-      </c>
-      <c r="F33">
+        <v>1.3245628389894024</v>
+      </c>
+      <c r="F33" s="35">
         <f t="shared" ref="F33" si="3">STDEV(F1:F30)</f>
         <v>1.251576205052406E-2</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" ref="H33" si="4">STDEV(H1:H30)</f>
-        <v>22.107790110733468</v>
+        <v>3.3161685166100203</v>
       </c>
     </row>
   </sheetData>
@@ -4384,39 +4406,41 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="14" style="35" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="35"/>
+    <col min="6" max="6" width="10.83203125" style="35"/>
     <col min="8" max="8" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="4">
+      <c r="A1" s="34">
         <v>0.79639761921750796</v>
       </c>
       <c r="B1" s="4">
         <v>3794.9</v>
       </c>
       <c r="C1" s="23">
-        <f>B1/30</f>
-        <v>126.49666666666667</v>
-      </c>
-      <c r="D1" s="4">
+        <f>B1/200</f>
+        <v>18.974499999999999</v>
+      </c>
+      <c r="D1" s="34">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="34">
         <v>0.78590039333166795</v>
       </c>
       <c r="G1" s="4">
         <v>4797.6333333333296</v>
       </c>
       <c r="H1" s="23">
-        <f>G1/30</f>
-        <v>159.92111111111097</v>
+        <f>G1/200</f>
+        <v>23.988166666666647</v>
       </c>
       <c r="I1" s="4">
         <v>0</v>
@@ -4424,28 +4448,28 @@
       <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="4">
+      <c r="A2" s="34">
         <v>0.79467701732643703</v>
       </c>
       <c r="B2" s="4">
         <v>6902.0666666666602</v>
       </c>
       <c r="C2" s="23">
-        <f>B2/30</f>
-        <v>230.06888888888867</v>
-      </c>
-      <c r="D2" s="4">
+        <f t="shared" ref="C2:C30" si="0">B2/200</f>
+        <v>34.5103333333333</v>
+      </c>
+      <c r="D2" s="34">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="34">
         <v>0.74028738644514602</v>
       </c>
       <c r="G2" s="4">
         <v>3537.4333333333302</v>
       </c>
       <c r="H2" s="23">
-        <f>G2/30</f>
-        <v>117.91444444444434</v>
+        <f t="shared" ref="H2:H30" si="1">G2/200</f>
+        <v>17.687166666666652</v>
       </c>
       <c r="I2" s="4">
         <v>6.6666666666666596E-2</v>
@@ -4453,28 +4477,28 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="4">
+      <c r="A3" s="34">
         <v>0.79552417599469105</v>
       </c>
       <c r="B3" s="4">
         <v>5356.8333333333303</v>
       </c>
       <c r="C3" s="23">
-        <f>B3/30</f>
-        <v>178.56111111111102</v>
-      </c>
-      <c r="D3" s="4">
+        <f t="shared" si="0"/>
+        <v>26.78416666666665</v>
+      </c>
+      <c r="D3" s="34">
         <v>6.6666666666666693E-2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="34">
         <v>0.78769046924533404</v>
       </c>
       <c r="G3" s="4">
         <v>7234.1666666666597</v>
       </c>
       <c r="H3" s="23">
-        <f>G3/30</f>
-        <v>241.13888888888866</v>
+        <f t="shared" si="1"/>
+        <v>36.170833333333299</v>
       </c>
       <c r="I3" s="4">
         <v>6.6666666666666596E-2</v>
@@ -4482,28 +4506,28 @@
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="4">
+      <c r="A4" s="34">
         <v>0.79708621652324096</v>
       </c>
       <c r="B4" s="4">
         <v>4434.8666666666604</v>
       </c>
       <c r="C4" s="23">
-        <f>B4/30</f>
-        <v>147.82888888888868</v>
-      </c>
-      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>22.174333333333301</v>
+      </c>
+      <c r="D4" s="34">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="34">
         <v>0.77466110496966101</v>
       </c>
       <c r="G4" s="4">
         <v>2827.8333333333298</v>
       </c>
       <c r="H4" s="23">
-        <f>G4/30</f>
-        <v>94.261111111110992</v>
+        <f t="shared" si="1"/>
+        <v>14.139166666666648</v>
       </c>
       <c r="I4" s="4">
         <v>0.1</v>
@@ -4511,28 +4535,28 @@
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="4">
+      <c r="A5" s="34">
         <v>0.79645054322921904</v>
       </c>
       <c r="B5" s="4">
         <v>7314.5666666666602</v>
       </c>
       <c r="C5" s="23">
-        <f>B5/30</f>
-        <v>243.81888888888867</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>36.5728333333333</v>
+      </c>
+      <c r="D5" s="34">
+        <v>0</v>
+      </c>
+      <c r="F5" s="34">
         <v>0.78333056880413698</v>
       </c>
       <c r="G5" s="4">
         <v>3775.36666666666</v>
       </c>
       <c r="H5" s="23">
-        <f>G5/30</f>
-        <v>125.84555555555534</v>
+        <f t="shared" si="1"/>
+        <v>18.876833333333298</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
@@ -4540,28 +4564,28 @@
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="4">
+      <c r="A6" s="34">
         <v>0.79326562375816401</v>
       </c>
       <c r="B6" s="4">
         <v>8520.4999999999909</v>
       </c>
       <c r="C6" s="23">
-        <f>B6/30</f>
-        <v>284.01666666666637</v>
-      </c>
-      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>42.602499999999957</v>
+      </c>
+      <c r="D6" s="34">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="34">
         <v>0.79184372022268901</v>
       </c>
       <c r="G6" s="4">
         <v>7447.7666666666601</v>
       </c>
       <c r="H6" s="23">
-        <f>G6/30</f>
-        <v>248.25888888888866</v>
+        <f t="shared" si="1"/>
+        <v>37.238833333333304</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -4569,28 +4593,28 @@
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="4">
+      <c r="A7" s="34">
         <v>0.79423270747827501</v>
       </c>
       <c r="B7" s="4">
         <v>4118.0333333333301</v>
       </c>
       <c r="C7" s="23">
-        <f>B7/30</f>
-        <v>137.26777777777767</v>
-      </c>
-      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>20.590166666666651</v>
+      </c>
+      <c r="D7" s="34">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="34">
         <v>0.78980902156988397</v>
       </c>
       <c r="G7" s="4">
         <v>10942.4666666666</v>
       </c>
       <c r="H7" s="23">
-        <f>G7/30</f>
-        <v>364.74888888888665</v>
+        <f t="shared" si="1"/>
+        <v>54.712333333333</v>
       </c>
       <c r="I7" s="4">
         <v>0.133333333333333</v>
@@ -4598,28 +4622,28 @@
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="4">
+      <c r="A8" s="34">
         <v>0.79331060295154798</v>
       </c>
       <c r="B8" s="4">
         <v>8343.9333333333307</v>
       </c>
       <c r="C8" s="23">
-        <f>B8/30</f>
-        <v>278.13111111111101</v>
-      </c>
-      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>41.719666666666654</v>
+      </c>
+      <c r="D8" s="34">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="34">
         <v>0.76726141045362395</v>
       </c>
       <c r="G8" s="4">
         <v>6840</v>
       </c>
       <c r="H8" s="23">
-        <f>G8/30</f>
-        <v>228</v>
+        <f t="shared" si="1"/>
+        <v>34.200000000000003</v>
       </c>
       <c r="I8" s="4">
         <v>6.6666666666666596E-2</v>
@@ -4627,28 +4651,28 @@
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="4">
+      <c r="A9" s="34">
         <v>0.79589007770922804</v>
       </c>
       <c r="B9" s="4">
         <v>1036.3333333333301</v>
       </c>
       <c r="C9" s="23">
-        <f>B9/30</f>
-        <v>34.544444444444338</v>
-      </c>
-      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>5.1816666666666507</v>
+      </c>
+      <c r="D9" s="34">
         <v>0.1</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="34">
         <v>0.77625597599247198</v>
       </c>
       <c r="G9" s="4">
         <v>1622.29999999999</v>
       </c>
       <c r="H9" s="23">
-        <f>G9/30</f>
-        <v>54.076666666666334</v>
+        <f t="shared" si="1"/>
+        <v>8.1114999999999498</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -4656,28 +4680,28 @@
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="4">
+      <c r="A10" s="34">
         <v>0.79510870850460302</v>
       </c>
       <c r="B10" s="4">
         <v>2925.0333333333301</v>
       </c>
       <c r="C10" s="23">
-        <f>B10/30</f>
-        <v>97.501111111111001</v>
-      </c>
-      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>14.625166666666651</v>
+      </c>
+      <c r="D10" s="34">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="34">
         <v>0.77921279125505205</v>
       </c>
       <c r="G10" s="4">
         <v>2570.4333333333302</v>
       </c>
       <c r="H10" s="23">
-        <f>G10/30</f>
-        <v>85.681111111111008</v>
+        <f t="shared" si="1"/>
+        <v>12.852166666666651</v>
       </c>
       <c r="I10" s="4">
         <v>0</v>
@@ -4685,28 +4709,28 @@
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="4">
+      <c r="A11" s="34">
         <v>0.75715737026051999</v>
       </c>
       <c r="B11" s="4">
         <v>6727.2666666666601</v>
       </c>
       <c r="C11" s="23">
-        <f>B11/30</f>
-        <v>224.24222222222201</v>
-      </c>
-      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>33.636333333333297</v>
+      </c>
+      <c r="D11" s="34">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="34">
         <v>0.795582722124069</v>
       </c>
       <c r="G11" s="4">
         <v>1065.5</v>
       </c>
       <c r="H11" s="23">
-        <f>G11/30</f>
-        <v>35.516666666666666</v>
+        <f t="shared" si="1"/>
+        <v>5.3274999999999997</v>
       </c>
       <c r="I11" s="4">
         <v>3.3333333333333298E-2</v>
@@ -4714,28 +4738,28 @@
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="4">
+      <c r="A12" s="34">
         <v>0.79158943222228895</v>
       </c>
       <c r="B12" s="4">
         <v>3364.0999999999899</v>
       </c>
       <c r="C12" s="23">
-        <f>B12/30</f>
-        <v>112.13666666666633</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>16.820499999999949</v>
+      </c>
+      <c r="D12" s="34">
+        <v>0</v>
+      </c>
+      <c r="F12" s="34">
         <v>0.78907560905617802</v>
       </c>
       <c r="G12" s="4">
         <v>7694.4333333333298</v>
       </c>
       <c r="H12" s="23">
-        <f>G12/30</f>
-        <v>256.48111111111098</v>
+        <f t="shared" si="1"/>
+        <v>38.472166666666652</v>
       </c>
       <c r="I12" s="4">
         <v>0.133333333333333</v>
@@ -4743,28 +4767,28 @@
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="4">
+      <c r="A13" s="34">
         <v>0.78338263614549797</v>
       </c>
       <c r="B13" s="4">
         <v>4198.8</v>
       </c>
       <c r="C13" s="23">
-        <f>B13/30</f>
-        <v>139.96</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>20.994</v>
+      </c>
+      <c r="D13" s="34">
+        <v>0</v>
+      </c>
+      <c r="F13" s="34">
         <v>0.75506486656287297</v>
       </c>
       <c r="G13" s="4">
         <v>12477.233333333301</v>
       </c>
       <c r="H13" s="23">
-        <f>G13/30</f>
-        <v>415.90777777777669</v>
+        <f t="shared" si="1"/>
+        <v>62.386166666666504</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
@@ -4772,28 +4796,28 @@
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="4">
+      <c r="A14" s="34">
         <v>0.79074715699460196</v>
       </c>
       <c r="B14" s="4">
         <v>7125.5999999999904</v>
       </c>
       <c r="C14" s="23">
-        <f>B14/30</f>
-        <v>237.51999999999967</v>
-      </c>
-      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>35.62799999999995</v>
+      </c>
+      <c r="D14" s="34">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="34">
         <v>0.78433882527377397</v>
       </c>
       <c r="G14" s="4">
         <v>4900.2333333333299</v>
       </c>
       <c r="H14" s="23">
-        <f>G14/30</f>
-        <v>163.34111111111099</v>
+        <f t="shared" si="1"/>
+        <v>24.501166666666649</v>
       </c>
       <c r="I14" s="4">
         <v>0.1</v>
@@ -4801,28 +4825,28 @@
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="4">
+      <c r="A15" s="34">
         <v>0.79598632445791595</v>
       </c>
       <c r="B15" s="4">
         <v>4229.3666666666604</v>
       </c>
       <c r="C15" s="23">
-        <f>B15/30</f>
-        <v>140.97888888888869</v>
-      </c>
-      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>21.146833333333301</v>
+      </c>
+      <c r="D15" s="34">
         <v>0.1</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="34">
         <v>0.780649196737777</v>
       </c>
       <c r="G15" s="4">
         <v>5880.3666666666604</v>
       </c>
       <c r="H15" s="23">
-        <f>G15/30</f>
-        <v>196.01222222222202</v>
+        <f t="shared" si="1"/>
+        <v>29.4018333333333</v>
       </c>
       <c r="I15" s="4">
         <v>6.6666666666666596E-2</v>
@@ -4830,28 +4854,28 @@
       <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="4">
+      <c r="A16" s="34">
         <v>0.79197233431302205</v>
       </c>
       <c r="B16" s="4">
         <v>3604.6666666666601</v>
       </c>
       <c r="C16" s="23">
-        <f>B16/30</f>
-        <v>120.15555555555534</v>
-      </c>
-      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>18.023333333333301</v>
+      </c>
+      <c r="D16" s="34">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="34">
         <v>0.77647358038038405</v>
       </c>
       <c r="G16" s="4">
         <v>9559.1</v>
       </c>
       <c r="H16" s="23">
-        <f>G16/30</f>
-        <v>318.63666666666666</v>
+        <f t="shared" si="1"/>
+        <v>47.795500000000004</v>
       </c>
       <c r="I16" s="4">
         <v>3.3333333333333298E-2</v>
@@ -4859,28 +4883,28 @@
       <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="4">
+      <c r="A17" s="34">
         <v>0.79333218197194799</v>
       </c>
       <c r="B17" s="4">
         <v>8871.8666666666595</v>
       </c>
       <c r="C17" s="23">
-        <f>B17/30</f>
-        <v>295.72888888888866</v>
-      </c>
-      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>44.359333333333296</v>
+      </c>
+      <c r="D17" s="34">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="34">
         <v>0.78841550852796205</v>
       </c>
       <c r="G17" s="4">
         <v>5440.7</v>
       </c>
       <c r="H17" s="23">
-        <f>G17/30</f>
-        <v>181.35666666666665</v>
+        <f t="shared" si="1"/>
+        <v>27.203499999999998</v>
       </c>
       <c r="I17" s="4">
         <v>0</v>
@@ -4888,28 +4912,28 @@
       <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="4">
+      <c r="A18" s="34">
         <v>0.79541512401565695</v>
       </c>
       <c r="B18" s="4">
         <v>11662.5</v>
       </c>
       <c r="C18" s="23">
-        <f>B18/30</f>
-        <v>388.75</v>
-      </c>
-      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>58.3125</v>
+      </c>
+      <c r="D18" s="34">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="34">
         <v>0.77454660418268195</v>
       </c>
       <c r="G18" s="4">
         <v>10178.9</v>
       </c>
       <c r="H18" s="23">
-        <f>G18/30</f>
-        <v>339.29666666666668</v>
+        <f t="shared" si="1"/>
+        <v>50.894500000000001</v>
       </c>
       <c r="I18" s="4">
         <v>0.1</v>
@@ -4917,28 +4941,28 @@
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="4">
+      <c r="A19" s="34">
         <v>0.79373808559474901</v>
       </c>
       <c r="B19" s="4">
         <v>4631.9333333333298</v>
       </c>
       <c r="C19" s="23">
-        <f>B19/30</f>
-        <v>154.39777777777766</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>23.159666666666649</v>
+      </c>
+      <c r="D19" s="34">
+        <v>0</v>
+      </c>
+      <c r="F19" s="34">
         <v>0.78695882348739699</v>
       </c>
       <c r="G19" s="4">
         <v>5404.0999999999904</v>
       </c>
       <c r="H19" s="23">
-        <f>G19/30</f>
-        <v>180.13666666666634</v>
+        <f t="shared" si="1"/>
+        <v>27.020499999999952</v>
       </c>
       <c r="I19" s="4">
         <v>3.3333333333333298E-2</v>
@@ -4946,28 +4970,28 @@
       <c r="P19" s="4"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="4">
+      <c r="A20" s="34">
         <v>0.79645881245153305</v>
       </c>
       <c r="B20" s="4">
         <v>3674.1</v>
       </c>
       <c r="C20" s="23">
-        <f>B20/30</f>
-        <v>122.47</v>
-      </c>
-      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>18.3705</v>
+      </c>
+      <c r="D20" s="34">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="34">
         <v>0.75640643570707899</v>
       </c>
       <c r="G20" s="4">
         <v>3714.1</v>
       </c>
       <c r="H20" s="23">
-        <f>G20/30</f>
-        <v>123.80333333333333</v>
+        <f t="shared" si="1"/>
+        <v>18.570499999999999</v>
       </c>
       <c r="I20" s="4">
         <v>3.3333333333333298E-2</v>
@@ -4975,28 +4999,28 @@
       <c r="P20" s="4"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="4">
+      <c r="A21" s="34">
         <v>0.79530702491627403</v>
       </c>
       <c r="B21" s="4">
         <v>7817.5333333333301</v>
       </c>
       <c r="C21" s="23">
-        <f>B21/30</f>
-        <v>260.58444444444433</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>39.087666666666649</v>
+      </c>
+      <c r="D21" s="34">
+        <v>0</v>
+      </c>
+      <c r="F21" s="34">
         <v>0.79435811733253303</v>
       </c>
       <c r="G21" s="4">
         <v>7491.1666666666597</v>
       </c>
       <c r="H21" s="23">
-        <f>G21/30</f>
-        <v>249.70555555555532</v>
+        <f t="shared" si="1"/>
+        <v>37.455833333333295</v>
       </c>
       <c r="I21" s="4">
         <v>3.3333333333333298E-2</v>
@@ -5004,28 +5028,28 @@
       <c r="P21" s="4"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="4">
+      <c r="A22" s="34">
         <v>0.79666983727804996</v>
       </c>
       <c r="B22" s="4">
         <v>3611.2333333333299</v>
       </c>
       <c r="C22" s="23">
-        <f>B22/30</f>
-        <v>120.37444444444434</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>18.056166666666648</v>
+      </c>
+      <c r="D22" s="34">
+        <v>0</v>
+      </c>
+      <c r="F22" s="34">
         <v>0.79104539037531696</v>
       </c>
       <c r="G22" s="4">
         <v>2171.6</v>
       </c>
       <c r="H22" s="23">
-        <f>G22/30</f>
-        <v>72.38666666666667</v>
+        <f t="shared" si="1"/>
+        <v>10.857999999999999</v>
       </c>
       <c r="I22" s="4">
         <v>0.1</v>
@@ -5033,28 +5057,28 @@
       <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="4">
+      <c r="A23" s="34">
         <v>0.79655571488961596</v>
       </c>
       <c r="B23" s="4">
         <v>5153.7333333333299</v>
       </c>
       <c r="C23" s="23">
-        <f>B23/30</f>
-        <v>171.79111111111101</v>
-      </c>
-      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>25.76866666666665</v>
+      </c>
+      <c r="D23" s="34">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="34">
         <v>0.77790352812046903</v>
       </c>
       <c r="G23" s="4">
         <v>2335.0333333333301</v>
       </c>
       <c r="H23" s="23">
-        <f>G23/30</f>
-        <v>77.834444444444344</v>
+        <f t="shared" si="1"/>
+        <v>11.67516666666665</v>
       </c>
       <c r="I23" s="4">
         <v>3.3333333333333298E-2</v>
@@ -5062,28 +5086,28 @@
       <c r="P23" s="4"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="4">
+      <c r="A24" s="34">
         <v>0.79499614030160104</v>
       </c>
       <c r="B24" s="4">
         <v>1673.5333333333299</v>
       </c>
       <c r="C24" s="23">
-        <f>B24/30</f>
-        <v>55.784444444444333</v>
-      </c>
-      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3676666666666488</v>
+      </c>
+      <c r="D24" s="34">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="34">
         <v>0.78527109167303599</v>
       </c>
       <c r="G24" s="4">
         <v>3610.3999999999901</v>
       </c>
       <c r="H24" s="23">
-        <f>G24/30</f>
-        <v>120.34666666666634</v>
+        <f t="shared" si="1"/>
+        <v>18.05199999999995</v>
       </c>
       <c r="I24" s="4">
         <v>6.6666666666666596E-2</v>
@@ -5091,28 +5115,28 @@
       <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="4">
+      <c r="A25" s="34">
         <v>0.79327398253750203</v>
       </c>
       <c r="B25" s="4">
         <v>5026.4333333333298</v>
       </c>
       <c r="C25" s="23">
-        <f>B25/30</f>
-        <v>167.54777777777767</v>
-      </c>
-      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>25.132166666666649</v>
+      </c>
+      <c r="D25" s="34">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="34">
         <v>0.79233949407529403</v>
       </c>
       <c r="G25" s="4">
         <v>6383.2333333333299</v>
       </c>
       <c r="H25" s="23">
-        <f>G25/30</f>
-        <v>212.77444444444433</v>
+        <f t="shared" si="1"/>
+        <v>31.916166666666651</v>
       </c>
       <c r="I25" s="4">
         <v>6.6666666666666693E-2</v>
@@ -5120,28 +5144,28 @@
       <c r="P25" s="4"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="4">
+      <c r="A26" s="34">
         <v>0.79584957159061498</v>
       </c>
       <c r="B26" s="4">
         <v>6105.6</v>
       </c>
       <c r="C26" s="23">
-        <f>B26/30</f>
-        <v>203.52</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
+        <f t="shared" si="0"/>
+        <v>30.528000000000002</v>
+      </c>
+      <c r="D26" s="34">
+        <v>0</v>
+      </c>
+      <c r="F26" s="34">
         <v>0.78089569718429197</v>
       </c>
       <c r="G26" s="4">
         <v>4613.5</v>
       </c>
       <c r="H26" s="23">
-        <f>G26/30</f>
-        <v>153.78333333333333</v>
+        <f t="shared" si="1"/>
+        <v>23.067499999999999</v>
       </c>
       <c r="I26" s="4">
         <v>3.3333333333333298E-2</v>
@@ -5149,28 +5173,28 @@
       <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="4">
+      <c r="A27" s="34">
         <v>0.79638032777594003</v>
       </c>
       <c r="B27" s="4">
         <v>4133.9666666666599</v>
       </c>
       <c r="C27" s="23">
-        <f>B27/30</f>
-        <v>137.79888888888865</v>
-      </c>
-      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>20.669833333333301</v>
+      </c>
+      <c r="D27" s="34">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="34">
         <v>0.78510242961892496</v>
       </c>
       <c r="G27" s="4">
         <v>3352.7333333333299</v>
       </c>
       <c r="H27" s="23">
-        <f>G27/30</f>
-        <v>111.75777777777766</v>
+        <f t="shared" si="1"/>
+        <v>16.763666666666651</v>
       </c>
       <c r="I27" s="4">
         <v>0</v>
@@ -5178,28 +5202,28 @@
       <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="4">
+      <c r="A28" s="34">
         <v>0.79650868617627102</v>
       </c>
       <c r="B28" s="4">
         <v>15103.8</v>
       </c>
       <c r="C28" s="23">
-        <f>B28/30</f>
-        <v>503.46</v>
-      </c>
-      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>75.518999999999991</v>
+      </c>
+      <c r="D28" s="34">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="34">
         <v>0.78336283778591198</v>
       </c>
       <c r="G28" s="4">
         <v>3850.7333333333299</v>
       </c>
       <c r="H28" s="23">
-        <f>G28/30</f>
-        <v>128.35777777777767</v>
+        <f t="shared" si="1"/>
+        <v>19.25366666666665</v>
       </c>
       <c r="I28" s="4">
         <v>6.6666666666666596E-2</v>
@@ -5207,28 +5231,28 @@
       <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="4">
+      <c r="A29" s="34">
         <v>0.79376094074583303</v>
       </c>
       <c r="B29" s="4">
         <v>4735.1666666666597</v>
       </c>
       <c r="C29" s="23">
-        <f>B29/30</f>
-        <v>157.83888888888865</v>
-      </c>
-      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>23.675833333333298</v>
+      </c>
+      <c r="D29" s="34">
         <v>0.1</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="34">
         <v>0.77339803638415405</v>
       </c>
       <c r="G29" s="4">
         <v>3101.7999999999902</v>
       </c>
       <c r="H29" s="23">
-        <f>G29/30</f>
-        <v>103.393333333333</v>
+        <f t="shared" si="1"/>
+        <v>15.508999999999951</v>
       </c>
       <c r="I29" s="4">
         <v>0</v>
@@ -5236,28 +5260,28 @@
       <c r="P29" s="4"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="4">
+      <c r="A30" s="34">
         <v>0.77211683128944097</v>
       </c>
       <c r="B30" s="4">
         <v>6227.2333333333299</v>
       </c>
       <c r="C30" s="23">
-        <f>B30/30</f>
-        <v>207.57444444444434</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4">
+        <f t="shared" si="0"/>
+        <v>31.13616666666665</v>
+      </c>
+      <c r="D30" s="34">
+        <v>0</v>
+      </c>
+      <c r="F30" s="34">
         <v>0.78572751063806301</v>
       </c>
       <c r="G30" s="4">
         <v>14816.9666666666</v>
       </c>
       <c r="H30" s="23">
-        <f>G30/30</f>
-        <v>493.89888888888669</v>
+        <f t="shared" si="1"/>
+        <v>74.084833333332995</v>
       </c>
       <c r="I30" s="4">
         <v>0.1</v>
@@ -5265,25 +5289,25 @@
       <c r="P30" s="4"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32">
+      <c r="A32" s="35">
         <f>AVERAGE(A1:A31)</f>
         <v>0.79243806028739316</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="24">
         <f>AVERAGE(C1:C31)</f>
-        <v>189.36166666666654</v>
-      </c>
-      <c r="D32" s="9">
+        <v>28.40424999999998</v>
+      </c>
+      <c r="D32" s="35">
         <f>AVERAGE(D1:D31)</f>
         <v>3.5555555555555542E-2</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="35">
         <f>AVERAGE(F1:F31)</f>
         <v>0.78043897158392783</v>
       </c>
       <c r="H32" s="11">
         <f>AVERAGE(H1:H31)</f>
-        <v>188.48581481481455</v>
+        <v>28.272872222222173</v>
       </c>
       <c r="I32" s="9">
         <f>AVERAGE(I1:I31)</f>
@@ -5291,28 +5315,28 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33">
+      <c r="A33" s="35">
         <f>STDEV(A1:A30)</f>
         <v>8.2442416339522269E-3</v>
       </c>
-      <c r="C33" s="11">
-        <f t="shared" ref="C33:D33" si="0">STDEV(C1:C30)</f>
-        <v>96.4034681618202</v>
-      </c>
-      <c r="D33" s="9">
-        <f t="shared" si="0"/>
+      <c r="C33" s="24">
+        <f t="shared" ref="C33:D33" si="2">STDEV(C1:C30)</f>
+        <v>14.46052022427302</v>
+      </c>
+      <c r="D33" s="35">
+        <f t="shared" si="2"/>
         <v>3.0239571310657864E-2</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="35">
         <f>STDEV(F1:F30)</f>
         <v>1.2359099627600284E-2</v>
       </c>
       <c r="H33" s="11">
-        <f t="shared" ref="H33:I33" si="1">STDEV(H1:H30)</f>
-        <v>110.88304890398196</v>
+        <f t="shared" ref="H33:I33" si="3">STDEV(H1:H30)</f>
+        <v>16.632457335597302</v>
       </c>
       <c r="I33" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.26455886632994E-2</v>
       </c>
     </row>
@@ -5327,39 +5351,41 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="14" style="35" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="35"/>
+    <col min="6" max="6" width="10.83203125" style="35"/>
     <col min="8" max="8" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="4">
+      <c r="A1" s="34">
         <v>0.83031522978411498</v>
       </c>
       <c r="B1" s="4">
         <v>5974.8666666666604</v>
       </c>
       <c r="C1" s="23">
-        <f>B1/30</f>
-        <v>199.16222222222203</v>
-      </c>
-      <c r="D1" s="4">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4">
+        <f>B1/200</f>
+        <v>29.874333333333301</v>
+      </c>
+      <c r="D1" s="34">
+        <v>0</v>
+      </c>
+      <c r="F1" s="34">
         <v>0.81891860619101198</v>
       </c>
       <c r="G1" s="4">
         <v>5062.8333333333303</v>
       </c>
       <c r="H1" s="23">
-        <f>G1/30</f>
-        <v>168.76111111111101</v>
+        <f>G1/200</f>
+        <v>25.314166666666651</v>
       </c>
       <c r="I1" s="4">
         <v>0</v>
@@ -5368,28 +5394,28 @@
       <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="4">
+      <c r="A2" s="34">
         <v>0.83009100375657996</v>
       </c>
       <c r="B2" s="4">
         <v>7858.7999999999902</v>
       </c>
       <c r="C2" s="23">
-        <f t="shared" ref="C2:C30" si="0">B2/30</f>
-        <v>261.9599999999997</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
+        <f t="shared" ref="C2:C30" si="0">B2/200</f>
+        <v>39.293999999999954</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="F2" s="34">
         <v>0.81359787424129104</v>
       </c>
       <c r="G2" s="4">
         <v>23919.1</v>
       </c>
       <c r="H2" s="23">
-        <f t="shared" ref="H2:H29" si="1">G2/30</f>
-        <v>797.30333333333328</v>
+        <f t="shared" ref="H2:H30" si="1">G2/200</f>
+        <v>119.59549999999999</v>
       </c>
       <c r="I2" s="4">
         <v>0</v>
@@ -5398,7 +5424,7 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="4">
+      <c r="A3" s="34">
         <v>0.830179825409465</v>
       </c>
       <c r="B3" s="4">
@@ -5406,12 +5432,12 @@
       </c>
       <c r="C3" s="23">
         <f t="shared" si="0"/>
-        <v>255.38777777777764</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
+        <v>38.308166666666651</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="F3" s="34">
         <v>0.809895476392956</v>
       </c>
       <c r="G3" s="4">
@@ -5419,7 +5445,7 @@
       </c>
       <c r="H3" s="23">
         <f t="shared" si="1"/>
-        <v>162.85555555555533</v>
+        <v>24.428333333333299</v>
       </c>
       <c r="I3" s="4">
         <v>0</v>
@@ -5428,7 +5454,7 @@
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="4">
+      <c r="A4" s="34">
         <v>0.829950399259891</v>
       </c>
       <c r="B4" s="4">
@@ -5436,12 +5462,12 @@
       </c>
       <c r="C4" s="23">
         <f t="shared" si="0"/>
-        <v>217.84888888888867</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
+        <v>32.677333333333301</v>
+      </c>
+      <c r="D4" s="34">
+        <v>0</v>
+      </c>
+      <c r="F4" s="34">
         <v>0.80938718790970998</v>
       </c>
       <c r="G4" s="4">
@@ -5449,7 +5475,7 @@
       </c>
       <c r="H4" s="23">
         <f t="shared" si="1"/>
-        <v>440.18333333333334</v>
+        <v>66.027500000000003</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>
@@ -5458,7 +5484,7 @@
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="4">
+      <c r="A5" s="34">
         <v>0.82191999585140896</v>
       </c>
       <c r="B5" s="4">
@@ -5466,12 +5492,12 @@
       </c>
       <c r="C5" s="23">
         <f t="shared" si="0"/>
-        <v>316.56</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
+        <v>47.483999999999995</v>
+      </c>
+      <c r="D5" s="34">
+        <v>0</v>
+      </c>
+      <c r="F5" s="34">
         <v>0.81102199878688896</v>
       </c>
       <c r="G5" s="4">
@@ -5479,7 +5505,7 @@
       </c>
       <c r="H5" s="23">
         <f t="shared" si="1"/>
-        <v>403.88222222221998</v>
+        <v>60.582333333332997</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
@@ -5488,7 +5514,7 @@
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="4">
+      <c r="A6" s="34">
         <v>0.83008716397331805</v>
       </c>
       <c r="B6" s="4">
@@ -5496,12 +5522,12 @@
       </c>
       <c r="C6" s="23">
         <f t="shared" si="0"/>
-        <v>446.96555555555335</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
+        <v>67.044833333333003</v>
+      </c>
+      <c r="D6" s="34">
+        <v>0</v>
+      </c>
+      <c r="F6" s="34">
         <v>0.80106554061875901</v>
       </c>
       <c r="G6" s="4">
@@ -5509,7 +5535,7 @@
       </c>
       <c r="H6" s="23">
         <f t="shared" si="1"/>
-        <v>391.46555555555335</v>
+        <v>58.719833333333</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -5518,7 +5544,7 @@
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="4">
+      <c r="A7" s="34">
         <v>0.83012835871239599</v>
       </c>
       <c r="B7" s="4">
@@ -5526,12 +5552,12 @@
       </c>
       <c r="C7" s="23">
         <f t="shared" si="0"/>
-        <v>127.60555555555534</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
+        <v>19.140833333333301</v>
+      </c>
+      <c r="D7" s="34">
+        <v>0</v>
+      </c>
+      <c r="F7" s="34">
         <v>0.80367569626147195</v>
       </c>
       <c r="G7" s="4">
@@ -5539,7 +5565,7 @@
       </c>
       <c r="H7" s="23">
         <f t="shared" si="1"/>
-        <v>124.05666666666666</v>
+        <v>18.608499999999999</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
@@ -5548,7 +5574,7 @@
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="4">
+      <c r="A8" s="34">
         <v>0.830371348679659</v>
       </c>
       <c r="B8" s="4">
@@ -5556,12 +5582,12 @@
       </c>
       <c r="C8" s="23">
         <f t="shared" si="0"/>
-        <v>456.72222222222001</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
+        <v>68.508333333332999</v>
+      </c>
+      <c r="D8" s="34">
+        <v>0</v>
+      </c>
+      <c r="F8" s="34">
         <v>0.80500269925435097</v>
       </c>
       <c r="G8" s="4">
@@ -5569,7 +5595,7 @@
       </c>
       <c r="H8" s="23">
         <f t="shared" si="1"/>
-        <v>302.27222222222201</v>
+        <v>45.3408333333333</v>
       </c>
       <c r="I8" s="4">
         <v>0</v>
@@ -5578,7 +5604,7 @@
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="4">
+      <c r="A9" s="34">
         <v>0.830211069940195</v>
       </c>
       <c r="B9" s="4">
@@ -5586,12 +5612,12 @@
       </c>
       <c r="C9" s="23">
         <f t="shared" si="0"/>
-        <v>305.83777777777766</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
+        <v>45.875666666666646</v>
+      </c>
+      <c r="D9" s="34">
+        <v>0</v>
+      </c>
+      <c r="F9" s="34">
         <v>0.82500517327509304</v>
       </c>
       <c r="G9" s="4">
@@ -5599,7 +5625,7 @@
       </c>
       <c r="H9" s="23">
         <f t="shared" si="1"/>
-        <v>421.56333333333333</v>
+        <v>63.234499999999997</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -5608,7 +5634,7 @@
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="4">
+      <c r="A10" s="34">
         <v>0.82931044386894603</v>
       </c>
       <c r="B10" s="4">
@@ -5616,12 +5642,12 @@
       </c>
       <c r="C10" s="23">
         <f t="shared" si="0"/>
-        <v>61.484444444444328</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
+        <v>9.2226666666666492</v>
+      </c>
+      <c r="D10" s="34">
+        <v>0</v>
+      </c>
+      <c r="F10" s="34">
         <v>0.81157001616982405</v>
       </c>
       <c r="G10" s="4">
@@ -5629,7 +5655,7 @@
       </c>
       <c r="H10" s="23">
         <f t="shared" si="1"/>
-        <v>146.89555555555535</v>
+        <v>22.034333333333301</v>
       </c>
       <c r="I10" s="4">
         <v>0</v>
@@ -5638,7 +5664,7 @@
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="4">
+      <c r="A11" s="34">
         <v>0.83011396236331303</v>
       </c>
       <c r="B11" s="4">
@@ -5646,12 +5672,12 @@
       </c>
       <c r="C11" s="23">
         <f t="shared" si="0"/>
-        <v>107.45777777777766</v>
-      </c>
-      <c r="D11" s="4">
+        <v>16.118666666666648</v>
+      </c>
+      <c r="D11" s="34">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="34">
         <v>0.818473039040304</v>
       </c>
       <c r="G11" s="4">
@@ -5659,7 +5685,7 @@
       </c>
       <c r="H11" s="23">
         <f t="shared" si="1"/>
-        <v>472.11111111111001</v>
+        <v>70.816666666666492</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -5668,7 +5694,7 @@
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="4">
+      <c r="A12" s="34">
         <v>0.83033215563624296</v>
       </c>
       <c r="B12" s="4">
@@ -5676,12 +5702,12 @@
       </c>
       <c r="C12" s="23">
         <f t="shared" si="0"/>
-        <v>116.42333333333333</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
+        <v>17.4635</v>
+      </c>
+      <c r="D12" s="34">
+        <v>0</v>
+      </c>
+      <c r="F12" s="34">
         <v>0.82337142332430702</v>
       </c>
       <c r="G12" s="4">
@@ -5689,7 +5715,7 @@
       </c>
       <c r="H12" s="23">
         <f t="shared" si="1"/>
-        <v>433.93777777777666</v>
+        <v>65.090666666666507</v>
       </c>
       <c r="I12" s="4">
         <v>0</v>
@@ -5698,7 +5724,7 @@
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="4">
+      <c r="A13" s="34">
         <v>0.83028982045210098</v>
       </c>
       <c r="B13" s="4">
@@ -5706,12 +5732,12 @@
       </c>
       <c r="C13" s="23">
         <f t="shared" si="0"/>
-        <v>222.68666666666635</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
+        <v>33.402999999999949</v>
+      </c>
+      <c r="D13" s="34">
+        <v>0</v>
+      </c>
+      <c r="F13" s="34">
         <v>0.80022339370487106</v>
       </c>
       <c r="G13" s="4">
@@ -5719,7 +5745,7 @@
       </c>
       <c r="H13" s="23">
         <f t="shared" si="1"/>
-        <v>644.43333333333328</v>
+        <v>96.665000000000006</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
@@ -5728,7 +5754,7 @@
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="4">
+      <c r="A14" s="34">
         <v>0.830143065568264</v>
       </c>
       <c r="B14" s="4">
@@ -5736,12 +5762,12 @@
       </c>
       <c r="C14" s="23">
         <f t="shared" si="0"/>
-        <v>750.64333333333332</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
+        <v>112.59649999999999</v>
+      </c>
+      <c r="D14" s="34">
+        <v>0</v>
+      </c>
+      <c r="F14" s="34">
         <v>0.80401558884569002</v>
       </c>
       <c r="G14" s="4">
@@ -5749,7 +5775,7 @@
       </c>
       <c r="H14" s="23">
         <f t="shared" si="1"/>
-        <v>872.81777777777666</v>
+        <v>130.92266666666649</v>
       </c>
       <c r="I14" s="4">
         <v>0</v>
@@ -5758,7 +5784,7 @@
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="4">
+      <c r="A15" s="34">
         <v>0.82894411859817396</v>
       </c>
       <c r="B15" s="4">
@@ -5766,12 +5792,12 @@
       </c>
       <c r="C15" s="23">
         <f t="shared" si="0"/>
-        <v>930.74333333333334</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
+        <v>139.61150000000001</v>
+      </c>
+      <c r="D15" s="34">
+        <v>0</v>
+      </c>
+      <c r="F15" s="34">
         <v>0.81637771591979602</v>
       </c>
       <c r="G15" s="4">
@@ -5779,7 +5805,7 @@
       </c>
       <c r="H15" s="23">
         <f t="shared" si="1"/>
-        <v>116.73666666666632</v>
+        <v>17.510499999999951</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
@@ -5788,7 +5814,7 @@
       <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="4">
+      <c r="A16" s="34">
         <v>0.82947306544098998</v>
       </c>
       <c r="B16" s="4">
@@ -5796,12 +5822,12 @@
       </c>
       <c r="C16" s="23">
         <f t="shared" si="0"/>
-        <v>79.794444444444323</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
+        <v>11.969166666666649</v>
+      </c>
+      <c r="D16" s="34">
+        <v>0</v>
+      </c>
+      <c r="F16" s="34">
         <v>0.80795712181524904</v>
       </c>
       <c r="G16" s="4">
@@ -5809,7 +5835,7 @@
       </c>
       <c r="H16" s="23">
         <f t="shared" si="1"/>
-        <v>203.38888888888866</v>
+        <v>30.508333333333297</v>
       </c>
       <c r="I16" s="4">
         <v>0</v>
@@ -5818,7 +5844,7 @@
       <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="4">
+      <c r="A17" s="34">
         <v>0.83029676258832297</v>
       </c>
       <c r="B17" s="4">
@@ -5826,12 +5852,12 @@
       </c>
       <c r="C17" s="23">
         <f t="shared" si="0"/>
-        <v>118.43777777777767</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
+        <v>17.76566666666665</v>
+      </c>
+      <c r="D17" s="34">
+        <v>0</v>
+      </c>
+      <c r="F17" s="34">
         <v>0.80821879796690999</v>
       </c>
       <c r="G17" s="4">
@@ -5839,7 +5865,7 @@
       </c>
       <c r="H17" s="23">
         <f t="shared" si="1"/>
-        <v>452.72888888888667</v>
+        <v>67.909333333332995</v>
       </c>
       <c r="I17" s="4">
         <v>0</v>
@@ -5848,7 +5874,7 @@
       <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="4">
+      <c r="A18" s="34">
         <v>0.82986158007976496</v>
       </c>
       <c r="B18" s="4">
@@ -5856,12 +5882,12 @@
       </c>
       <c r="C18" s="23">
         <f t="shared" si="0"/>
-        <v>24.438888888888901</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
+        <v>3.6658333333333348</v>
+      </c>
+      <c r="D18" s="34">
+        <v>0</v>
+      </c>
+      <c r="F18" s="34">
         <v>0.82288478395678899</v>
       </c>
       <c r="G18" s="4">
@@ -5869,7 +5895,7 @@
       </c>
       <c r="H18" s="23">
         <f t="shared" si="1"/>
-        <v>130.75</v>
+        <v>19.612500000000001</v>
       </c>
       <c r="I18" s="4">
         <v>0</v>
@@ -5878,7 +5904,7 @@
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="4">
+      <c r="A19" s="34">
         <v>0.829629299208411</v>
       </c>
       <c r="B19" s="4">
@@ -5886,12 +5912,12 @@
       </c>
       <c r="C19" s="23">
         <f t="shared" si="0"/>
-        <v>393.72222222222001</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
+        <v>59.058333333333003</v>
+      </c>
+      <c r="D19" s="34">
+        <v>0</v>
+      </c>
+      <c r="F19" s="34">
         <v>0.82785180941869596</v>
       </c>
       <c r="G19" s="4">
@@ -5899,7 +5925,7 @@
       </c>
       <c r="H19" s="23">
         <f t="shared" si="1"/>
-        <v>142.70888888888868</v>
+        <v>21.406333333333301</v>
       </c>
       <c r="I19" s="4">
         <v>0</v>
@@ -5908,7 +5934,7 @@
       <c r="P19" s="4"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="4">
+      <c r="A20" s="34">
         <v>0.83032160641794905</v>
       </c>
       <c r="B20" s="4">
@@ -5916,12 +5942,12 @@
       </c>
       <c r="C20" s="23">
         <f t="shared" si="0"/>
-        <v>66.053333333333327</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
+        <v>9.9079999999999995</v>
+      </c>
+      <c r="D20" s="34">
+        <v>0</v>
+      </c>
+      <c r="F20" s="34">
         <v>0.82108377221239304</v>
       </c>
       <c r="G20" s="4">
@@ -5929,7 +5955,7 @@
       </c>
       <c r="H20" s="23">
         <f t="shared" si="1"/>
-        <v>52.932222222222002</v>
+        <v>7.9398333333333007</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
@@ -5938,7 +5964,7 @@
       <c r="P20" s="4"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="4">
+      <c r="A21" s="34">
         <v>0.830415940474722</v>
       </c>
       <c r="B21" s="4">
@@ -5946,12 +5972,12 @@
       </c>
       <c r="C21" s="23">
         <f t="shared" si="0"/>
-        <v>99.421111111111003</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
+        <v>14.913166666666649</v>
+      </c>
+      <c r="D21" s="34">
+        <v>0</v>
+      </c>
+      <c r="F21" s="34">
         <v>0.82731939232430296</v>
       </c>
       <c r="G21" s="4">
@@ -5959,7 +5985,7 @@
       </c>
       <c r="H21" s="23">
         <f t="shared" si="1"/>
-        <v>829.02555555555341</v>
+        <v>124.353833333333</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
@@ -5968,7 +5994,7 @@
       <c r="P21" s="4"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="4">
+      <c r="A22" s="34">
         <v>0.83023208283004102</v>
       </c>
       <c r="B22" s="4">
@@ -5976,12 +6002,12 @@
       </c>
       <c r="C22" s="23">
         <f t="shared" si="0"/>
-        <v>25.290000000000003</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
+        <v>3.7935000000000003</v>
+      </c>
+      <c r="D22" s="34">
+        <v>0</v>
+      </c>
+      <c r="F22" s="34">
         <v>0.79458743800669296</v>
       </c>
       <c r="G22" s="4">
@@ -5989,7 +6015,7 @@
       </c>
       <c r="H22" s="23">
         <f t="shared" si="1"/>
-        <v>100.382222222222</v>
+        <v>15.057333333333299</v>
       </c>
       <c r="I22" s="4">
         <v>0</v>
@@ -5998,7 +6024,7 @@
       <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="4">
+      <c r="A23" s="34">
         <v>0.83026809851656702</v>
       </c>
       <c r="B23" s="4">
@@ -6006,12 +6032,12 @@
       </c>
       <c r="C23" s="23">
         <f t="shared" si="0"/>
-        <v>37.209999999999667</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
+        <v>5.5814999999999495</v>
+      </c>
+      <c r="D23" s="34">
+        <v>0</v>
+      </c>
+      <c r="F23" s="34">
         <v>0.82038132629856597</v>
       </c>
       <c r="G23" s="4">
@@ -6019,7 +6045,7 @@
       </c>
       <c r="H23" s="23">
         <f t="shared" si="1"/>
-        <v>465.42555555555333</v>
+        <v>69.813833333332994</v>
       </c>
       <c r="I23" s="4">
         <v>0</v>
@@ -6028,7 +6054,7 @@
       <c r="P23" s="4"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="4">
+      <c r="A24" s="34">
         <v>0.83039242409869896</v>
       </c>
       <c r="B24" s="4">
@@ -6036,12 +6062,12 @@
       </c>
       <c r="C24" s="23">
         <f t="shared" si="0"/>
-        <v>359.05333333332999</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
+        <v>53.8579999999995</v>
+      </c>
+      <c r="D24" s="34">
+        <v>0</v>
+      </c>
+      <c r="F24" s="34">
         <v>0.77173317927171503</v>
       </c>
       <c r="G24" s="4">
@@ -6049,7 +6075,7 @@
       </c>
       <c r="H24" s="23">
         <f t="shared" si="1"/>
-        <v>142.32333333333332</v>
+        <v>21.348499999999998</v>
       </c>
       <c r="I24" s="4">
         <v>0</v>
@@ -6058,7 +6084,7 @@
       <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="4">
+      <c r="A25" s="34">
         <v>0.83038773044127401</v>
       </c>
       <c r="B25" s="4">
@@ -6066,12 +6092,12 @@
       </c>
       <c r="C25" s="23">
         <f t="shared" si="0"/>
-        <v>247.06111111111102</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
+        <v>37.059166666666648</v>
+      </c>
+      <c r="D25" s="34">
+        <v>0</v>
+      </c>
+      <c r="F25" s="34">
         <v>0.82868610548372101</v>
       </c>
       <c r="G25" s="4">
@@ -6079,7 +6105,7 @@
       </c>
       <c r="H25" s="23">
         <f t="shared" si="1"/>
-        <v>277.58444444444433</v>
+        <v>41.637666666666647</v>
       </c>
       <c r="I25" s="4">
         <v>0</v>
@@ -6088,7 +6114,7 @@
       <c r="P25" s="4"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="4">
+      <c r="A26" s="34">
         <v>0.83013972272664305</v>
       </c>
       <c r="B26" s="4">
@@ -6096,12 +6122,12 @@
       </c>
       <c r="C26" s="23">
         <f t="shared" si="0"/>
-        <v>144.87555555555534</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
+        <v>21.7313333333333</v>
+      </c>
+      <c r="D26" s="34">
+        <v>0</v>
+      </c>
+      <c r="F26" s="34">
         <v>0.81331107791803203</v>
       </c>
       <c r="G26" s="4">
@@ -6109,7 +6135,7 @@
       </c>
       <c r="H26" s="23">
         <f t="shared" si="1"/>
-        <v>150.91444444444431</v>
+        <v>22.637166666666648</v>
       </c>
       <c r="I26" s="4">
         <v>0</v>
@@ -6118,7 +6144,7 @@
       <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="4">
+      <c r="A27" s="34">
         <v>0.82910565857948804</v>
       </c>
       <c r="B27" s="4">
@@ -6126,12 +6152,12 @@
       </c>
       <c r="C27" s="23">
         <f t="shared" si="0"/>
-        <v>155.23111111111101</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
+        <v>23.284666666666649</v>
+      </c>
+      <c r="D27" s="34">
+        <v>0</v>
+      </c>
+      <c r="F27" s="34">
         <v>0.81660716739255201</v>
       </c>
       <c r="G27" s="4">
@@ -6139,7 +6165,7 @@
       </c>
       <c r="H27" s="23">
         <f t="shared" si="1"/>
-        <v>251.13666666666634</v>
+        <v>37.670499999999954</v>
       </c>
       <c r="I27" s="4">
         <v>0</v>
@@ -6148,7 +6174,7 @@
       <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="4">
+      <c r="A28" s="34">
         <v>0.82449679387325603</v>
       </c>
       <c r="B28" s="4">
@@ -6156,12 +6182,12 @@
       </c>
       <c r="C28" s="23">
         <f t="shared" si="0"/>
-        <v>254.63777777777764</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
+        <v>38.195666666666646</v>
+      </c>
+      <c r="D28" s="34">
+        <v>0</v>
+      </c>
+      <c r="F28" s="34">
         <v>0.82855021856946298</v>
       </c>
       <c r="G28" s="4">
@@ -6169,7 +6195,7 @@
       </c>
       <c r="H28" s="23">
         <f t="shared" si="1"/>
-        <v>230.38555555555533</v>
+        <v>34.557833333333299</v>
       </c>
       <c r="I28" s="4">
         <v>0</v>
@@ -6178,7 +6204,7 @@
       <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="4">
+      <c r="A29" s="34">
         <v>0.819051886591181</v>
       </c>
       <c r="B29" s="4">
@@ -6186,12 +6212,12 @@
       </c>
       <c r="C29" s="23">
         <f t="shared" si="0"/>
-        <v>165.27555555555534</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4">
+        <v>24.791333333333299</v>
+      </c>
+      <c r="D29" s="34">
+        <v>0</v>
+      </c>
+      <c r="F29" s="34">
         <v>0.80618285026316605</v>
       </c>
       <c r="G29" s="4">
@@ -6199,7 +6225,7 @@
       </c>
       <c r="H29" s="23">
         <f t="shared" si="1"/>
-        <v>329.19111111111101</v>
+        <v>49.378666666666646</v>
       </c>
       <c r="I29" s="4">
         <v>0</v>
@@ -6208,7 +6234,7 @@
       <c r="P29" s="4"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="4">
+      <c r="A30" s="34">
         <v>0.82999186633405997</v>
       </c>
       <c r="B30" s="4">
@@ -6216,20 +6242,20 @@
       </c>
       <c r="C30" s="23">
         <f t="shared" si="0"/>
-        <v>167.66777777777767</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4">
+        <v>25.150166666666649</v>
+      </c>
+      <c r="D30" s="34">
+        <v>0</v>
+      </c>
+      <c r="F30" s="34">
         <v>0.82273475937007201</v>
       </c>
       <c r="G30" s="4">
         <v>5577.9666666666599</v>
       </c>
       <c r="H30" s="23">
-        <f>G30/30</f>
-        <v>185.93222222222201</v>
+        <f t="shared" si="1"/>
+        <v>27.8898333333333</v>
       </c>
       <c r="I30" s="4">
         <v>0</v>
@@ -6238,47 +6264,47 @@
       <c r="P30" s="4"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32">
+      <c r="A32" s="35">
         <f>AVERAGE(A1:A31)</f>
         <v>0.82921508266851451</v>
       </c>
       <c r="C32" s="11">
         <f>AVERAGE(C1:C31)</f>
-        <v>237.18862962962919</v>
-      </c>
-      <c r="D32" s="11">
+        <v>35.578294444444374</v>
+      </c>
+      <c r="D32" s="35">
         <f>AVERAGE(D1:D31)</f>
         <v>1.11111111111111E-3</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="35">
         <f>AVERAGE(F1:F31)</f>
         <v>0.81298970767348833</v>
       </c>
       <c r="H32" s="11">
         <f>AVERAGE(H1:H31)</f>
-        <v>328.13618518518462</v>
+        <v>49.220427777777694</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33">
+      <c r="A33" s="35">
         <f t="shared" ref="A33" si="2">STDEV(A1:A30)</f>
         <v>2.6337690981441107E-3</v>
       </c>
       <c r="C33" s="11">
-        <f t="shared" ref="C33:E33" si="3">STDEV(C1:C30)</f>
-        <v>204.04813181920741</v>
-      </c>
-      <c r="D33">
+        <f t="shared" ref="C33" si="3">STDEV(C1:C30)</f>
+        <v>30.607219772881123</v>
+      </c>
+      <c r="D33" s="35">
         <f t="shared" ref="D33:F33" si="4">STDEV(D1:D30)</f>
         <v>6.0858061945018391E-3</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="35">
         <f t="shared" si="4"/>
         <v>1.2134325074666021E-2</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" ref="H33" si="5">STDEV(H1:H30)</f>
-        <v>224.24903392771233</v>
+        <v>33.637355089156841</v>
       </c>
     </row>
   </sheetData>
@@ -7260,7 +7286,7 @@
         <v>#REF!</v>
       </c>
       <c r="C33" s="11">
-        <f t="shared" ref="A33:E33" si="1">STDEV(C1:C30)</f>
+        <f t="shared" ref="C33" si="1">STDEV(C1:C30)</f>
         <v>56.257325428497033</v>
       </c>
       <c r="F33" t="e">
@@ -9926,21 +9952,21 @@
       </c>
     </row>
     <row r="38" spans="1:19">
-      <c r="B38" s="32">
+      <c r="B38" s="33">
         <v>50</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="I38" s="32">
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="I38" s="33">
         <v>200</v>
       </c>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
       <c r="N38" s="22"/>
     </row>
   </sheetData>
@@ -26751,18 +26777,18 @@
       </c>
     </row>
     <row r="38" spans="1:19">
-      <c r="B38" s="31">
+      <c r="B38" s="32">
         <v>200</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="G38" s="32">
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="G38" s="33">
         <v>50</v>
       </c>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
       <c r="K38" s="29"/>
       <c r="L38" s="30"/>
       <c r="M38" s="28"/>

--- a/GA4Robust/Book1.xlsx
+++ b/GA4Robust/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenwang/Documents/Experiment-Results/GA4Robust/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFA1296-81AA-E94F-AA64-E2C40D0A618D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC056A9-4BFF-554D-B1B2-5B3EB44C38C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="9" xr2:uid="{F1300CCD-A310-7946-86EE-3F30CFB335E8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" activeTab="13" xr2:uid="{F1300CCD-A310-7946-86EE-3F30CFB335E8}"/>
   </bookViews>
   <sheets>
     <sheet name="0901(50)" sheetId="1" r:id="rId1"/>
@@ -1397,7 +1397,7 @@
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
@@ -5350,8 +5350,8 @@
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/GA4Robust/Book1.xlsx
+++ b/GA4Robust/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenwang/Documents/Experiment-Results/GA4Robust/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC056A9-4BFF-554D-B1B2-5B3EB44C38C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AAB130-A77F-6C46-852F-1716643D2C3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" activeTab="13" xr2:uid="{F1300CCD-A310-7946-86EE-3F30CFB335E8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" activeTab="10" xr2:uid="{F1300CCD-A310-7946-86EE-3F30CFB335E8}"/>
   </bookViews>
   <sheets>
     <sheet name="0901(50)" sheetId="1" r:id="rId1"/>
@@ -1398,7 +1398,7 @@
   <dimension ref="A1:P90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2549,8 +2549,8 @@
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3478,7 +3478,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4406,7 +4406,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5350,8 +5350,8 @@
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H1:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/GA4Robust/Book1.xlsx
+++ b/GA4Robust/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenwang/Documents/Experiment-Results/GA4Robust/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenwang/Documents/ExperimentResults/GA4Robust/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AAB130-A77F-6C46-852F-1716643D2C3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A8A720-E58D-524B-A108-BF0CE8F305A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" activeTab="10" xr2:uid="{F1300CCD-A310-7946-86EE-3F30CFB335E8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="9" xr2:uid="{F1300CCD-A310-7946-86EE-3F30CFB335E8}"/>
   </bookViews>
   <sheets>
     <sheet name="0901(50)" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
     <numFmt numFmtId="165" formatCode="0.000000000000000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -176,7 +176,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +198,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,15 +263,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1397,22 +1403,23 @@
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14" style="35" customWidth="1"/>
+    <col min="1" max="1" width="14" style="32" customWidth="1"/>
     <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="32" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="11"/>
-    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="32" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="34">
+      <c r="A1" s="31">
         <v>0.92322826033213901</v>
       </c>
       <c r="B1" s="23">
@@ -1425,7 +1432,7 @@
       <c r="D1" s="4">
         <v>0</v>
       </c>
-      <c r="F1" s="34">
+      <c r="F1" s="31">
         <v>0.92322826033213901</v>
       </c>
       <c r="G1" s="4">
@@ -1438,11 +1445,16 @@
       <c r="I1" s="4">
         <v>0</v>
       </c>
-      <c r="L1" s="31"/>
+      <c r="L1" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N1" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="34">
+      <c r="A2" s="31">
         <v>0.92281247835541402</v>
       </c>
       <c r="B2" s="23">
@@ -1455,7 +1467,7 @@
       <c r="D2" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="31">
         <v>0.92292545435178197</v>
       </c>
       <c r="G2" s="4">
@@ -1468,11 +1480,16 @@
       <c r="I2" s="4">
         <v>0</v>
       </c>
-      <c r="L2" s="31"/>
+      <c r="L2" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N2" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="34">
+      <c r="A3" s="31">
         <v>0.92260643833603395</v>
       </c>
       <c r="B3" s="23">
@@ -1485,7 +1502,7 @@
       <c r="D3" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="31">
         <v>0.92248772312945504</v>
       </c>
       <c r="G3" s="4">
@@ -1498,11 +1515,16 @@
       <c r="I3" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="L3" s="31"/>
+      <c r="L3" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N3" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="34">
+      <c r="A4" s="31">
         <v>0.92297836278434897</v>
       </c>
       <c r="B4" s="23">
@@ -1515,7 +1537,7 @@
       <c r="D4" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="31">
         <v>0.92326160235986998</v>
       </c>
       <c r="G4" s="4">
@@ -1528,11 +1550,16 @@
       <c r="I4" s="4">
         <v>0</v>
       </c>
-      <c r="L4" s="31"/>
+      <c r="L4" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N4" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="34">
+      <c r="A5" s="31">
         <v>0.92320182075023505</v>
       </c>
       <c r="B5" s="23">
@@ -1545,7 +1572,7 @@
       <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="31">
         <v>0.92233394677146197</v>
       </c>
       <c r="G5" s="4">
@@ -1558,11 +1585,16 @@
       <c r="I5" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="L5" s="31"/>
+      <c r="L5" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N5" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="34">
+      <c r="A6" s="31">
         <v>0.92321690481923702</v>
       </c>
       <c r="B6" s="23">
@@ -1575,7 +1607,7 @@
       <c r="D6" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="31">
         <v>0.92321690481923702</v>
       </c>
       <c r="G6" s="4">
@@ -1588,11 +1620,16 @@
       <c r="I6" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="L6" s="31"/>
+      <c r="L6" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N6" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="34">
+      <c r="A7" s="31">
         <v>0.92252559787660104</v>
       </c>
       <c r="B7" s="23">
@@ -1605,7 +1642,7 @@
       <c r="D7" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="31">
         <v>0.92252559787660104</v>
       </c>
       <c r="G7" s="4">
@@ -1618,11 +1655,16 @@
       <c r="I7" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="L7" s="31"/>
+      <c r="L7" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N7" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="34">
+      <c r="A8" s="31">
         <v>0.92237530761723197</v>
       </c>
       <c r="B8" s="23">
@@ -1635,7 +1677,7 @@
       <c r="D8" s="4">
         <v>0.133333333333333</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="31">
         <v>0.92237530761723197</v>
       </c>
       <c r="G8" s="4">
@@ -1648,11 +1690,16 @@
       <c r="I8" s="4">
         <v>0.133333333333333</v>
       </c>
-      <c r="L8" s="31"/>
+      <c r="L8" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N8" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="34">
+      <c r="A9" s="31">
         <v>0.92287255742616303</v>
       </c>
       <c r="B9" s="23">
@@ -1665,7 +1712,7 @@
       <c r="D9" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="31">
         <v>0.92287255742616303</v>
       </c>
       <c r="G9" s="4">
@@ -1678,11 +1725,16 @@
       <c r="I9" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="L9" s="31"/>
+      <c r="L9" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N9" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="34">
+      <c r="A10" s="31">
         <v>0.92306031437150304</v>
       </c>
       <c r="B10" s="23">
@@ -1695,7 +1747,7 @@
       <c r="D10" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="31">
         <v>0.92306266404663095</v>
       </c>
       <c r="G10" s="4">
@@ -1708,11 +1760,16 @@
       <c r="I10" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="L10" s="31"/>
+      <c r="L10" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N10" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="34">
+      <c r="A11" s="31">
         <v>0.92279605665054298</v>
       </c>
       <c r="B11" s="23">
@@ -1725,7 +1782,7 @@
       <c r="D11" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="31">
         <v>0.92326558596716801</v>
       </c>
       <c r="G11" s="4">
@@ -1738,11 +1795,16 @@
       <c r="I11" s="4">
         <v>0</v>
       </c>
-      <c r="L11" s="31"/>
+      <c r="L11" s="31">
+        <v>0.63787305502253799</v>
+      </c>
+      <c r="N11" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="34">
+      <c r="A12" s="31">
         <v>0.92267391765388096</v>
       </c>
       <c r="B12" s="23">
@@ -1755,7 +1817,7 @@
       <c r="D12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="31">
         <v>0.92267391765388096</v>
       </c>
       <c r="G12" s="4">
@@ -1768,11 +1830,16 @@
       <c r="I12" s="4">
         <v>0</v>
       </c>
-      <c r="L12" s="31"/>
+      <c r="L12" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N12" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="34">
+      <c r="A13" s="31">
         <v>0.92298040705418904</v>
       </c>
       <c r="B13" s="23">
@@ -1785,7 +1852,7 @@
       <c r="D13" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="31">
         <v>0.92299282807097804</v>
       </c>
       <c r="G13" s="4">
@@ -1798,11 +1865,16 @@
       <c r="I13" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="L13" s="31"/>
+      <c r="L13" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N13" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="34">
+      <c r="A14" s="31">
         <v>0.92305836596063495</v>
       </c>
       <c r="B14" s="23">
@@ -1815,7 +1887,7 @@
       <c r="D14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="31">
         <v>0.92265531361268105</v>
       </c>
       <c r="G14" s="4">
@@ -1828,11 +1900,16 @@
       <c r="I14" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="L14" s="31"/>
+      <c r="L14" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N14" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="34">
+      <c r="A15" s="31">
         <v>0.92312139351153799</v>
       </c>
       <c r="B15" s="23">
@@ -1845,7 +1922,7 @@
       <c r="D15" s="4">
         <v>0</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="31">
         <v>0.92312139351153799</v>
       </c>
       <c r="G15" s="4">
@@ -1858,11 +1935,16 @@
       <c r="I15" s="4">
         <v>0</v>
       </c>
-      <c r="L15" s="31"/>
+      <c r="L15" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N15" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="34">
+      <c r="A16" s="31">
         <v>0.92252807525971103</v>
       </c>
       <c r="B16" s="23">
@@ -1875,7 +1957,7 @@
       <c r="D16" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="31">
         <v>0.92252807525971103</v>
       </c>
       <c r="G16" s="4">
@@ -1888,11 +1970,16 @@
       <c r="I16" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="L16" s="31"/>
+      <c r="L16" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N16" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="34">
+      <c r="A17" s="31">
         <v>0.922672472554252</v>
       </c>
       <c r="B17" s="23">
@@ -1905,7 +1992,7 @@
       <c r="D17" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="31">
         <v>0.922672472554252</v>
       </c>
       <c r="G17" s="4">
@@ -1918,11 +2005,16 @@
       <c r="I17" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="L17" s="31"/>
+      <c r="L17" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N17" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="34">
+      <c r="A18" s="31">
         <v>0.92270002401779205</v>
       </c>
       <c r="B18" s="23">
@@ -1935,7 +2027,7 @@
       <c r="D18" s="4">
         <v>0</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="31">
         <v>0.92270002401779205</v>
       </c>
       <c r="G18" s="4">
@@ -1948,11 +2040,16 @@
       <c r="I18" s="4">
         <v>0</v>
       </c>
-      <c r="L18" s="31"/>
+      <c r="L18" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N18" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="34">
+      <c r="A19" s="31">
         <v>0.92264340073625395</v>
       </c>
       <c r="B19" s="23">
@@ -1965,7 +2062,7 @@
       <c r="D19" s="4">
         <v>0</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="31">
         <v>0.92264340073625395</v>
       </c>
       <c r="G19" s="4">
@@ -1978,11 +2075,16 @@
       <c r="I19" s="4">
         <v>0</v>
       </c>
-      <c r="L19" s="31"/>
+      <c r="L19" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N19" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P19" s="4"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="34">
+      <c r="A20" s="31">
         <v>0.92302293929962598</v>
       </c>
       <c r="B20" s="23">
@@ -1995,7 +2097,7 @@
       <c r="D20" s="4">
         <v>0</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="31">
         <v>0.92302293929962598</v>
       </c>
       <c r="G20" s="4">
@@ -2008,11 +2110,16 @@
       <c r="I20" s="4">
         <v>0</v>
       </c>
-      <c r="L20" s="31"/>
+      <c r="L20" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N20" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P20" s="4"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="34">
+      <c r="A21" s="31">
         <v>0.922669135102412</v>
       </c>
       <c r="B21" s="23">
@@ -2025,7 +2132,7 @@
       <c r="D21" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="31">
         <v>0.922670700123703</v>
       </c>
       <c r="G21" s="4">
@@ -2038,11 +2145,16 @@
       <c r="I21" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="L21" s="31"/>
+      <c r="L21" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N21" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P21" s="4"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="34">
+      <c r="A22" s="31">
         <v>0.92273238338041497</v>
       </c>
       <c r="B22" s="23">
@@ -2055,7 +2167,7 @@
       <c r="D22" s="4">
         <v>0</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="31">
         <v>0.92273238338041497</v>
       </c>
       <c r="G22" s="4">
@@ -2068,11 +2180,16 @@
       <c r="I22" s="4">
         <v>0</v>
       </c>
-      <c r="L22" s="31"/>
+      <c r="L22" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N22" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="34">
+      <c r="A23" s="31">
         <v>0.92301645379582897</v>
       </c>
       <c r="B23" s="23">
@@ -2085,7 +2202,7 @@
       <c r="D23" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="31">
         <v>0.92301645379582897</v>
       </c>
       <c r="G23" s="4">
@@ -2098,11 +2215,16 @@
       <c r="I23" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="L23" s="31"/>
+      <c r="L23" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N23" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P23" s="4"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="34">
+      <c r="A24" s="31">
         <v>0.92320369195208396</v>
       </c>
       <c r="B24" s="23">
@@ -2115,7 +2237,7 @@
       <c r="D24" s="4">
         <v>0</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="31">
         <v>0.92320369195208396</v>
       </c>
       <c r="G24" s="4">
@@ -2128,11 +2250,16 @@
       <c r="I24" s="4">
         <v>0</v>
       </c>
-      <c r="L24" s="31"/>
+      <c r="L24" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N24" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="34">
+      <c r="A25" s="31">
         <v>0.92279114918441796</v>
       </c>
       <c r="B25" s="23">
@@ -2145,7 +2272,7 @@
       <c r="D25" s="4">
         <v>0</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="31">
         <v>0.92258286979230197</v>
       </c>
       <c r="G25" s="4">
@@ -2158,11 +2285,16 @@
       <c r="I25" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="L25" s="31"/>
+      <c r="L25" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N25" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P25" s="4"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="34">
+      <c r="A26" s="31">
         <v>0.92241873884005399</v>
       </c>
       <c r="B26" s="23">
@@ -2175,7 +2307,7 @@
       <c r="D26" s="4">
         <v>6.6666666666666693E-2</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="31">
         <v>0.92241873884005399</v>
       </c>
       <c r="G26" s="4">
@@ -2188,11 +2320,16 @@
       <c r="I26" s="4">
         <v>6.6666666666666693E-2</v>
       </c>
-      <c r="L26" s="31"/>
+      <c r="L26" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N26" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="34">
+      <c r="A27" s="31">
         <v>0.922647721524675</v>
       </c>
       <c r="B27" s="23">
@@ -2205,7 +2342,7 @@
       <c r="D27" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="31">
         <v>0.922647721524675</v>
       </c>
       <c r="G27" s="4">
@@ -2218,11 +2355,16 @@
       <c r="I27" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="L27" s="31"/>
+      <c r="L27" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N27" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="34">
+      <c r="A28" s="31">
         <v>0.92333943651750405</v>
       </c>
       <c r="B28" s="23">
@@ -2235,7 +2377,7 @@
       <c r="D28" s="4">
         <v>0</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="31">
         <v>0.92263493309323497</v>
       </c>
       <c r="G28" s="4">
@@ -2248,11 +2390,16 @@
       <c r="I28" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="L28" s="31"/>
+      <c r="L28" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N28" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="34">
+      <c r="A29" s="31">
         <v>0.92283460673656703</v>
       </c>
       <c r="B29" s="23">
@@ -2265,7 +2412,7 @@
       <c r="D29" s="4">
         <v>0</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="31">
         <v>0.92283460673656703</v>
       </c>
       <c r="G29" s="4">
@@ -2278,11 +2425,16 @@
       <c r="I29" s="4">
         <v>0</v>
       </c>
-      <c r="L29" s="31"/>
+      <c r="L29" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N29" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P29" s="4"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="34">
+      <c r="A30" s="31">
         <v>0.92269571424708696</v>
       </c>
       <c r="B30" s="23">
@@ -2295,7 +2447,7 @@
       <c r="D30" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="31">
         <v>0.92269571424708696</v>
       </c>
       <c r="G30" s="4">
@@ -2308,14 +2460,19 @@
       <c r="I30" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="L30" s="31"/>
+      <c r="L30" s="31">
+        <v>0.92379275735532096</v>
+      </c>
+      <c r="N30" s="31">
+        <v>0.92379275735532096</v>
+      </c>
       <c r="P30" s="4"/>
     </row>
     <row r="31" spans="1:16">
       <c r="L31" s="31"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="35">
+      <c r="A32" s="32">
         <f>AVERAGE(A1:A31)</f>
         <v>0.92284747088827923</v>
       </c>
@@ -2323,11 +2480,11 @@
         <f>AVERAGE(C1:C31)</f>
         <v>62.945172222222105</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="32">
         <f>AVERAGE(D1:D31)</f>
         <v>2.7777777777777752E-2</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="32">
         <f>AVERAGE(F1:F31)</f>
         <v>0.92280012609668016</v>
       </c>
@@ -2335,14 +2492,21 @@
         <f>AVERAGE(H1:H31)</f>
         <v>63.991394444444367</v>
       </c>
-      <c r="I32" s="35">
+      <c r="I32" s="32">
         <f>AVERAGE(I1:I31)</f>
         <v>2.9999999999999975E-2</v>
       </c>
-      <c r="L32" s="31"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="35">
+      <c r="L32" s="32">
+        <f>AVERAGE(L1:L30)</f>
+        <v>0.91426210061089519</v>
+      </c>
+      <c r="N32" s="32">
+        <f>AVERAGE(N1:N30)</f>
+        <v>0.9237927573553214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="32">
         <f t="shared" ref="A33" si="2">STDEV(A1:A30)</f>
         <v>2.5899919852117085E-4</v>
       </c>
@@ -2350,11 +2514,11 @@
         <f t="shared" ref="C33:D33" si="3">STDEV(C1:C30)</f>
         <v>55.283498730541773</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="32">
         <f t="shared" si="3"/>
         <v>3.1663137532726336E-2</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="32">
         <f t="shared" ref="F33" si="4">STDEV(F1:F30)</f>
         <v>2.8071952321607731E-4</v>
       </c>
@@ -2362,55 +2526,62 @@
         <f t="shared" ref="H33:I33" si="5">STDEV(H1:H30)</f>
         <v>50.400467297681658</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="32">
         <f t="shared" si="5"/>
         <v>3.1984191497474536E-2</v>
       </c>
-      <c r="L33" s="31"/>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="L33" s="32">
+        <f t="shared" ref="L33:N33" si="6">STDEV(L1:L30)</f>
+        <v>5.2201556867609217E-2</v>
+      </c>
+      <c r="N33" s="32">
+        <f t="shared" si="6"/>
+        <v>4.5168102832669614E-16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="L34" s="31"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:14">
       <c r="L35" s="31"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:14">
       <c r="L36" s="31"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:14">
       <c r="L37" s="31"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:14">
       <c r="L38" s="31"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:14">
       <c r="L39" s="31"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:14">
       <c r="L40" s="31"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:14">
       <c r="L41" s="31"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:14">
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:14">
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:14">
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:14">
       <c r="L45" s="31"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:14">
       <c r="L46" s="31"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:14">
       <c r="L47" s="31"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:14">
       <c r="L48" s="31"/>
     </row>
     <row r="49" spans="12:12">
@@ -2549,20 +2720,20 @@
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14" style="35" customWidth="1"/>
+    <col min="1" max="1" width="14" style="32" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="35"/>
+    <col min="6" max="6" width="10.83203125" style="32"/>
     <col min="8" max="8" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="34">
+      <c r="A1" s="31">
         <v>0.93141846115237104</v>
       </c>
       <c r="B1" s="4">
@@ -2575,7 +2746,7 @@
       <c r="D1" s="4">
         <v>0</v>
       </c>
-      <c r="F1" s="34">
+      <c r="F1" s="31">
         <v>0.93161820896483605</v>
       </c>
       <c r="G1" s="4">
@@ -2588,10 +2759,16 @@
       <c r="I1" s="4">
         <v>0</v>
       </c>
+      <c r="K1" s="4">
+        <v>0.93302586969941503</v>
+      </c>
+      <c r="M1" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="34">
+      <c r="A2" s="31">
         <v>0.93177838712583905</v>
       </c>
       <c r="B2" s="4">
@@ -2604,7 +2781,7 @@
       <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="31">
         <v>0.93146144629903505</v>
       </c>
       <c r="G2" s="4">
@@ -2617,10 +2794,16 @@
       <c r="I2" s="4">
         <v>0</v>
       </c>
+      <c r="K2" s="4">
+        <v>0.93302586969941503</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="34">
+      <c r="A3" s="31">
         <v>0.93010423061970404</v>
       </c>
       <c r="B3" s="4">
@@ -2633,7 +2816,7 @@
       <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="31">
         <v>0.92956106014808904</v>
       </c>
       <c r="G3" s="4">
@@ -2646,10 +2829,16 @@
       <c r="I3" s="4">
         <v>0</v>
       </c>
+      <c r="K3" s="4">
+        <v>0.93302586969941503</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="34">
+      <c r="A4" s="31">
         <v>0.93142041382462404</v>
       </c>
       <c r="B4" s="4">
@@ -2662,7 +2851,7 @@
       <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="31">
         <v>0.93157331683028299</v>
       </c>
       <c r="G4" s="4">
@@ -2675,10 +2864,16 @@
       <c r="I4" s="4">
         <v>0</v>
       </c>
+      <c r="K4" s="4">
+        <v>0.81393267512995104</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="34">
+      <c r="A5" s="31">
         <v>0.93246834134590295</v>
       </c>
       <c r="B5" s="4">
@@ -2691,7 +2886,7 @@
       <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="31">
         <v>0.931712902378247</v>
       </c>
       <c r="G5" s="4">
@@ -2704,10 +2899,16 @@
       <c r="I5" s="4">
         <v>0</v>
       </c>
+      <c r="K5" s="4">
+        <v>0.93302586969941503</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="34">
+      <c r="A6" s="31">
         <v>0.93167305321321903</v>
       </c>
       <c r="B6" s="4">
@@ -2720,7 +2921,7 @@
       <c r="D6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="31">
         <v>0.93175151047118299</v>
       </c>
       <c r="G6" s="4">
@@ -2733,10 +2934,16 @@
       <c r="I6" s="4">
         <v>0</v>
       </c>
+      <c r="K6" s="4">
+        <v>0.93302586969941503</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="34">
+      <c r="A7" s="31">
         <v>0.93093808226953101</v>
       </c>
       <c r="B7" s="4">
@@ -2749,7 +2956,7 @@
       <c r="D7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="31">
         <v>0.93070397516774905</v>
       </c>
       <c r="G7" s="4">
@@ -2762,10 +2969,16 @@
       <c r="I7" s="4">
         <v>0</v>
       </c>
+      <c r="K7" s="4">
+        <v>0.93302586969941503</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="34">
+      <c r="A8" s="31">
         <v>0.93196010662184203</v>
       </c>
       <c r="B8" s="4">
@@ -2778,7 +2991,7 @@
       <c r="D8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="31">
         <v>0.93027879246156997</v>
       </c>
       <c r="G8" s="4">
@@ -2791,10 +3004,16 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
+      <c r="K8" s="4">
+        <v>0.93302586969941503</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="34">
+      <c r="A9" s="31">
         <v>0.93154711355015396</v>
       </c>
       <c r="B9" s="4">
@@ -2807,7 +3026,7 @@
       <c r="D9" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="31">
         <v>0.90479044607720704</v>
       </c>
       <c r="G9" s="4">
@@ -2820,10 +3039,16 @@
       <c r="I9" s="4">
         <v>0</v>
       </c>
+      <c r="K9" s="4">
+        <v>0.84874636957170102</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.91792772281026502</v>
+      </c>
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="34">
+      <c r="A10" s="31">
         <v>0.93161517235796398</v>
       </c>
       <c r="B10" s="4">
@@ -2836,7 +3061,7 @@
       <c r="D10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="31">
         <v>0.92986398568293804</v>
       </c>
       <c r="G10" s="4">
@@ -2849,10 +3074,16 @@
       <c r="I10" s="4">
         <v>0</v>
       </c>
+      <c r="K10" s="4">
+        <v>0.82733838331365595</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="34">
+      <c r="A11" s="31">
         <v>0.93054669333762696</v>
       </c>
       <c r="B11" s="4">
@@ -2865,7 +3096,7 @@
       <c r="D11" s="4">
         <v>0</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="31">
         <v>0.93041763232657504</v>
       </c>
       <c r="G11" s="4">
@@ -2878,10 +3109,16 @@
       <c r="I11" s="4">
         <v>0</v>
       </c>
+      <c r="K11" s="4">
+        <v>0.93302586969941503</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="34">
+      <c r="A12" s="31">
         <v>0.93228407834379301</v>
       </c>
       <c r="B12" s="4">
@@ -2894,7 +3131,7 @@
       <c r="D12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="31">
         <v>0.93092702501128299</v>
       </c>
       <c r="G12" s="4">
@@ -2907,10 +3144,16 @@
       <c r="I12" s="4">
         <v>0</v>
       </c>
+      <c r="K12" s="4">
+        <v>0.91792772281026502</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="34">
+      <c r="A13" s="31">
         <v>0.93150383417440197</v>
       </c>
       <c r="B13" s="4">
@@ -2923,7 +3166,7 @@
       <c r="D13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="31">
         <v>0.93053832912419898</v>
       </c>
       <c r="G13" s="4">
@@ -2936,10 +3179,16 @@
       <c r="I13" s="4">
         <v>0</v>
       </c>
+      <c r="K13" s="4">
+        <v>0.79066248301700703</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="34">
+      <c r="A14" s="31">
         <v>0.93188668790585605</v>
       </c>
       <c r="B14" s="4">
@@ -2952,7 +3201,7 @@
       <c r="D14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="31">
         <v>0.93067605311611601</v>
       </c>
       <c r="G14" s="4">
@@ -2965,10 +3214,16 @@
       <c r="I14" s="4">
         <v>0</v>
       </c>
+      <c r="K14" s="4">
+        <v>0.93302586969941503</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="34">
+      <c r="A15" s="31">
         <v>0.929652854610163</v>
       </c>
       <c r="B15" s="4">
@@ -2981,7 +3236,7 @@
       <c r="D15" s="4">
         <v>0</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="31">
         <v>0.93169709964366398</v>
       </c>
       <c r="G15" s="4">
@@ -2994,10 +3249,16 @@
       <c r="I15" s="4">
         <v>0</v>
       </c>
+      <c r="K15" s="4">
+        <v>0.69434657512212605</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="34">
+      <c r="A16" s="31">
         <v>0.93177226360437704</v>
       </c>
       <c r="B16" s="4">
@@ -3010,7 +3271,7 @@
       <c r="D16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="31">
         <v>0.93167101241009598</v>
       </c>
       <c r="G16" s="4">
@@ -3023,10 +3284,16 @@
       <c r="I16" s="4">
         <v>0</v>
       </c>
+      <c r="K16" s="4">
+        <v>0.93302586969941503</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="34">
+      <c r="A17" s="31">
         <v>0.93062218214878401</v>
       </c>
       <c r="B17" s="4">
@@ -3039,7 +3306,7 @@
       <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="31">
         <v>0.93108864811301195</v>
       </c>
       <c r="G17" s="4">
@@ -3052,10 +3319,16 @@
       <c r="I17" s="4">
         <v>0</v>
       </c>
+      <c r="K17" s="4">
+        <v>0.93302586969941503</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="34">
+      <c r="A18" s="31">
         <v>0.93094618842756405</v>
       </c>
       <c r="B18" s="4">
@@ -3068,7 +3341,7 @@
       <c r="D18" s="4">
         <v>0</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="31">
         <v>0.93046747350589998</v>
       </c>
       <c r="G18" s="4">
@@ -3081,10 +3354,16 @@
       <c r="I18" s="4">
         <v>0</v>
       </c>
+      <c r="K18" s="4">
+        <v>0.93302586969941503</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="34">
+      <c r="A19" s="31">
         <v>0.92867961121210596</v>
       </c>
       <c r="B19" s="4">
@@ -3097,7 +3376,7 @@
       <c r="D19" s="4">
         <v>0</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="31">
         <v>0.92940488189721804</v>
       </c>
       <c r="G19" s="4">
@@ -3110,10 +3389,16 @@
       <c r="I19" s="4">
         <v>0</v>
       </c>
+      <c r="K19" s="4">
+        <v>0.93302586969941503</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P19" s="4"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="34">
+      <c r="A20" s="31">
         <v>0.93077427271028002</v>
       </c>
       <c r="B20" s="4">
@@ -3126,7 +3411,7 @@
       <c r="D20" s="4">
         <v>0</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="31">
         <v>0.92959090734615502</v>
       </c>
       <c r="G20" s="4">
@@ -3139,10 +3424,16 @@
       <c r="I20" s="4">
         <v>0</v>
       </c>
+      <c r="K20" s="4">
+        <v>0.93302586969941503</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P20" s="4"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="34">
+      <c r="A21" s="31">
         <v>0.93214323605742599</v>
       </c>
       <c r="B21" s="4">
@@ -3155,7 +3446,7 @@
       <c r="D21" s="4">
         <v>0</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="31">
         <v>0.932062366273398</v>
       </c>
       <c r="G21" s="4">
@@ -3168,10 +3459,16 @@
       <c r="I21" s="4">
         <v>0</v>
       </c>
+      <c r="K21" s="4">
+        <v>0.84874636957170102</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P21" s="4"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="34">
+      <c r="A22" s="31">
         <v>0.92966292187777699</v>
       </c>
       <c r="B22" s="4">
@@ -3184,7 +3481,7 @@
       <c r="D22" s="4">
         <v>0</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="31">
         <v>0.92959214642474697</v>
       </c>
       <c r="G22" s="4">
@@ -3197,10 +3494,16 @@
       <c r="I22" s="4">
         <v>0</v>
       </c>
+      <c r="K22" s="4">
+        <v>0.93302586969941503</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="34">
+      <c r="A23" s="31">
         <v>0.93192999793570297</v>
       </c>
       <c r="B23" s="4">
@@ -3213,7 +3516,7 @@
       <c r="D23" s="4">
         <v>0</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="31">
         <v>0.92927101830462799</v>
       </c>
       <c r="G23" s="4">
@@ -3226,10 +3529,16 @@
       <c r="I23" s="4">
         <v>0</v>
       </c>
+      <c r="K23" s="4">
+        <v>0.82733838331365595</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P23" s="4"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="34">
+      <c r="A24" s="31">
         <v>0.93221751995225999</v>
       </c>
       <c r="B24" s="4">
@@ -3242,7 +3551,7 @@
       <c r="D24" s="4">
         <v>0</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="31">
         <v>0.932054835376119</v>
       </c>
       <c r="G24" s="4">
@@ -3255,10 +3564,16 @@
       <c r="I24" s="4">
         <v>0</v>
       </c>
+      <c r="K24" s="4">
+        <v>0.93302586969941503</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="34">
+      <c r="A25" s="31">
         <v>0.93178446489920996</v>
       </c>
       <c r="B25" s="4">
@@ -3271,7 +3586,7 @@
       <c r="D25" s="4">
         <v>0</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="31">
         <v>0.93053641336326598</v>
       </c>
       <c r="G25" s="4">
@@ -3284,10 +3599,16 @@
       <c r="I25" s="4">
         <v>0</v>
       </c>
+      <c r="K25" s="4">
+        <v>0.93302586969941503</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P25" s="4"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="34">
+      <c r="A26" s="31">
         <v>0.93182051284017298</v>
       </c>
       <c r="B26" s="4">
@@ -3300,7 +3621,7 @@
       <c r="D26" s="4">
         <v>0</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="31">
         <v>0.93032827057349299</v>
       </c>
       <c r="G26" s="4">
@@ -3313,10 +3634,16 @@
       <c r="I26" s="4">
         <v>0</v>
       </c>
+      <c r="K26" s="4">
+        <v>0.93302586969941503</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="34">
+      <c r="A27" s="31">
         <v>0.93099747577553704</v>
       </c>
       <c r="B27" s="4">
@@ -3329,7 +3656,7 @@
       <c r="D27" s="4">
         <v>0</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="31">
         <v>0.92952318461793604</v>
       </c>
       <c r="G27" s="4">
@@ -3342,10 +3669,16 @@
       <c r="I27" s="4">
         <v>0</v>
       </c>
+      <c r="K27" s="4">
+        <v>0.93302586969941503</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="34">
+      <c r="A28" s="31">
         <v>0.93015172328440698</v>
       </c>
       <c r="B28" s="4">
@@ -3358,7 +3691,7 @@
       <c r="D28" s="4">
         <v>0</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="31">
         <v>0.93024305962270404</v>
       </c>
       <c r="G28" s="4">
@@ -3371,10 +3704,16 @@
       <c r="I28" s="4">
         <v>0</v>
       </c>
+      <c r="K28" s="4">
+        <v>0.79066248301700703</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="34">
+      <c r="A29" s="31">
         <v>0.92866233905472995</v>
       </c>
       <c r="B29" s="4">
@@ -3387,7 +3726,7 @@
       <c r="D29" s="4">
         <v>0</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="31">
         <v>0.92860993609596598</v>
       </c>
       <c r="G29" s="4">
@@ -3400,10 +3739,16 @@
       <c r="I29" s="4">
         <v>0</v>
       </c>
+      <c r="K29" s="4">
+        <v>0.79066248301700703</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P29" s="4"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="34">
+      <c r="A30" s="31">
         <v>0.93030095232871601</v>
       </c>
       <c r="B30" s="4">
@@ -3416,7 +3761,7 @@
       <c r="D30" s="4">
         <v>0</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="31">
         <v>0.93151467210393202</v>
       </c>
       <c r="G30" s="4">
@@ -3429,10 +3774,16 @@
       <c r="I30" s="4">
         <v>0</v>
       </c>
+      <c r="K30" s="4">
+        <v>0.75237810369404301</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0.93302586969941503</v>
+      </c>
       <c r="P30" s="4"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="35">
+      <c r="A32" s="32">
         <f>AVERAGE(A1:A31)</f>
         <v>0.9311087724187348</v>
       </c>
@@ -3440,7 +3791,7 @@
         <f>AVERAGE(C1:C31)</f>
         <v>10.946272222222197</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="32">
         <f>AVERAGE(F1:F31)</f>
         <v>0.92978435365771817</v>
       </c>
@@ -3448,9 +3799,17 @@
         <f>AVERAGE(H1:H31)</f>
         <v>18.945088888888865</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="35">
+      <c r="K32" s="32">
+        <f>AVERAGE(K1:K30)</f>
+        <v>0.88767445186223315</v>
+      </c>
+      <c r="M32" s="35">
+        <f>AVERAGE(M1:M30)</f>
+        <v>0.93252259813644289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="32">
         <f t="shared" ref="A33" si="2">STDEV(A1:A30)</f>
         <v>1.0155275294605299E-3</v>
       </c>
@@ -3458,13 +3817,21 @@
         <f t="shared" ref="C33" si="3">STDEV(C1:C30)</f>
         <v>15.394332750785928</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="32">
         <f t="shared" ref="F33" si="4">STDEV(F1:F30)</f>
         <v>4.8123502653134023E-3</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" ref="H33" si="5">STDEV(H1:H30)</f>
         <v>34.771239713560377</v>
+      </c>
+      <c r="K33" s="32">
+        <f t="shared" ref="K33" si="6">STDEV(K1:K30)</f>
+        <v>6.9395863561340379E-2</v>
+      </c>
+      <c r="M33" s="35">
+        <f t="shared" ref="M33" si="7">STDEV(M1:M30)</f>
+        <v>2.7565318759046379E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3478,19 +3845,19 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14" style="35" customWidth="1"/>
+    <col min="1" max="1" width="14" style="32" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="35"/>
+    <col min="6" max="6" width="10.83203125" style="32"/>
     <col min="8" max="8" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="34">
+      <c r="A1" s="31">
         <v>0.857011876113</v>
       </c>
       <c r="B1" s="4">
@@ -3503,7 +3870,7 @@
       <c r="D1" s="4">
         <v>0</v>
       </c>
-      <c r="F1" s="34">
+      <c r="F1" s="31">
         <v>0.85305863307040397</v>
       </c>
       <c r="G1" s="4">
@@ -3516,10 +3883,16 @@
       <c r="I1" s="4">
         <v>0</v>
       </c>
+      <c r="K1" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M1" s="4">
+        <v>0.87025083782996404</v>
+      </c>
       <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="34">
+      <c r="A2" s="31">
         <v>0.86580955987344699</v>
       </c>
       <c r="B2" s="4">
@@ -3532,7 +3905,7 @@
       <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="31">
         <v>0.86119511145215799</v>
       </c>
       <c r="G2" s="4">
@@ -3545,10 +3918,16 @@
       <c r="I2" s="4">
         <v>0</v>
       </c>
+      <c r="K2" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.87025083782996404</v>
+      </c>
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="34">
+      <c r="A3" s="31">
         <v>0.86635809448717505</v>
       </c>
       <c r="B3" s="4">
@@ -3561,7 +3940,7 @@
       <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="31">
         <v>0.86335966264664499</v>
       </c>
       <c r="G3" s="4">
@@ -3574,10 +3953,16 @@
       <c r="I3" s="4">
         <v>0</v>
       </c>
+      <c r="K3" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.87025083782996404</v>
+      </c>
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="34">
+      <c r="A4" s="31">
         <v>0.86551629884984205</v>
       </c>
       <c r="B4" s="4">
@@ -3590,7 +3975,7 @@
       <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="31">
         <v>0.86009679813150997</v>
       </c>
       <c r="G4" s="4">
@@ -3603,10 +3988,16 @@
       <c r="I4" s="4">
         <v>0</v>
       </c>
+      <c r="K4" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.87025083782996404</v>
+      </c>
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="34">
+      <c r="A5" s="31">
         <v>0.86432614940077801</v>
       </c>
       <c r="B5" s="4">
@@ -3619,7 +4010,7 @@
       <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="31">
         <v>0.85312846173356105</v>
       </c>
       <c r="G5" s="4">
@@ -3632,10 +4023,16 @@
       <c r="I5" s="4">
         <v>0</v>
       </c>
+      <c r="K5" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.87025083782996404</v>
+      </c>
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="34">
+      <c r="A6" s="31">
         <v>0.86574294564780996</v>
       </c>
       <c r="B6" s="4">
@@ -3648,7 +4045,7 @@
       <c r="D6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="31">
         <v>0.85568687630863605</v>
       </c>
       <c r="G6" s="4">
@@ -3661,10 +4058,16 @@
       <c r="I6" s="4">
         <v>0</v>
       </c>
+      <c r="K6" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.87025083782996404</v>
+      </c>
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="34">
+      <c r="A7" s="31">
         <v>0.85490246904207201</v>
       </c>
       <c r="B7" s="4">
@@ -3677,7 +4080,7 @@
       <c r="D7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="31">
         <v>0.85319594732464699</v>
       </c>
       <c r="G7" s="4">
@@ -3690,10 +4093,16 @@
       <c r="I7" s="4">
         <v>0</v>
       </c>
+      <c r="K7" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.87025083782996404</v>
+      </c>
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="34">
+      <c r="A8" s="31">
         <v>0.86338241180490405</v>
       </c>
       <c r="B8" s="4">
@@ -3706,7 +4115,7 @@
       <c r="D8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="31">
         <v>0.85793063289923899</v>
       </c>
       <c r="G8" s="4">
@@ -3719,10 +4128,16 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
+      <c r="K8" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.87025083782996404</v>
+      </c>
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="34">
+      <c r="A9" s="31">
         <v>0.86466250487457896</v>
       </c>
       <c r="B9" s="4">
@@ -3735,7 +4150,7 @@
       <c r="D9" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="31">
         <v>0.85537382987203503</v>
       </c>
       <c r="G9" s="4">
@@ -3748,10 +4163,16 @@
       <c r="I9" s="4">
         <v>0</v>
       </c>
+      <c r="K9" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.87025083782996404</v>
+      </c>
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="34">
+      <c r="A10" s="31">
         <v>0.857721391025971</v>
       </c>
       <c r="B10" s="4">
@@ -3764,7 +4185,7 @@
       <c r="D10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="31">
         <v>0.85830518126424604</v>
       </c>
       <c r="G10" s="4">
@@ -3777,10 +4198,16 @@
       <c r="I10" s="4">
         <v>0</v>
       </c>
+      <c r="K10" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.87025083782996404</v>
+      </c>
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="34">
+      <c r="A11" s="31">
         <v>0.866204271542801</v>
       </c>
       <c r="B11" s="4">
@@ -3793,7 +4220,7 @@
       <c r="D11" s="4">
         <v>0</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="31">
         <v>0.85188220397296499</v>
       </c>
       <c r="G11" s="4">
@@ -3806,10 +4233,16 @@
       <c r="I11" s="4">
         <v>0</v>
       </c>
+      <c r="K11" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.85678539465610304</v>
+      </c>
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="34">
+      <c r="A12" s="31">
         <v>0.84620685380458305</v>
       </c>
       <c r="B12" s="4">
@@ -3822,7 +4255,7 @@
       <c r="D12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="31">
         <v>0.84087386356206695</v>
       </c>
       <c r="G12" s="4">
@@ -3835,10 +4268,16 @@
       <c r="I12" s="4">
         <v>0</v>
       </c>
+      <c r="K12" s="4">
+        <v>0.85678539465610304</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.84067305564584904</v>
+      </c>
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="34">
+      <c r="A13" s="31">
         <v>0.86592651315351499</v>
       </c>
       <c r="B13" s="4">
@@ -3851,7 +4290,7 @@
       <c r="D13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="31">
         <v>0.86467356114490201</v>
       </c>
       <c r="G13" s="4">
@@ -3864,10 +4303,16 @@
       <c r="I13" s="4">
         <v>0</v>
       </c>
+      <c r="K13" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.87025083782996404</v>
+      </c>
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="34">
+      <c r="A14" s="31">
         <v>0.864176317166926</v>
       </c>
       <c r="B14" s="4">
@@ -3880,7 +4325,7 @@
       <c r="D14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="31">
         <v>0.86206895627737601</v>
       </c>
       <c r="G14" s="4">
@@ -3893,10 +4338,16 @@
       <c r="I14" s="4">
         <v>0</v>
       </c>
+      <c r="K14" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.87025083782996404</v>
+      </c>
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="34">
+      <c r="A15" s="31">
         <v>0.86571173398294499</v>
       </c>
       <c r="B15" s="4">
@@ -3909,7 +4360,7 @@
       <c r="D15" s="4">
         <v>0</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="31">
         <v>0.84860490933342003</v>
       </c>
       <c r="G15" s="4">
@@ -3922,10 +4373,16 @@
       <c r="I15" s="4">
         <v>0</v>
       </c>
+      <c r="K15" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.87025083782996404</v>
+      </c>
       <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="34">
+      <c r="A16" s="31">
         <v>0.86559406436627195</v>
       </c>
       <c r="B16" s="4">
@@ -3938,7 +4395,7 @@
       <c r="D16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="31">
         <v>0.84924984164507</v>
       </c>
       <c r="G16" s="4">
@@ -3951,10 +4408,16 @@
       <c r="I16" s="4">
         <v>0</v>
       </c>
+      <c r="K16" s="4">
+        <v>0.85678539465610304</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.85678539465610304</v>
+      </c>
       <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="34">
+      <c r="A17" s="31">
         <v>0.86444526202058902</v>
       </c>
       <c r="B17" s="4">
@@ -3967,7 +4430,7 @@
       <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="31">
         <v>0.851400861793008</v>
       </c>
       <c r="G17" s="4">
@@ -3980,10 +4443,16 @@
       <c r="I17" s="4">
         <v>0</v>
       </c>
+      <c r="K17" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.87025083782996404</v>
+      </c>
       <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="34">
+      <c r="A18" s="31">
         <v>0.86534004685296495</v>
       </c>
       <c r="B18" s="4">
@@ -3996,7 +4465,7 @@
       <c r="D18" s="4">
         <v>0</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="31">
         <v>0.84970861332167003</v>
       </c>
       <c r="G18" s="4">
@@ -4009,10 +4478,16 @@
       <c r="I18" s="4">
         <v>0</v>
       </c>
+      <c r="K18" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0.87025083782996404</v>
+      </c>
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="34">
+      <c r="A19" s="31">
         <v>0.86447798948614596</v>
       </c>
       <c r="B19" s="4">
@@ -4025,7 +4500,7 @@
       <c r="D19" s="4">
         <v>0</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="31">
         <v>0.85982550857921103</v>
       </c>
       <c r="G19" s="4">
@@ -4038,10 +4513,16 @@
       <c r="I19" s="4">
         <v>0</v>
       </c>
+      <c r="K19" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0.87025083782996404</v>
+      </c>
       <c r="P19" s="4"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="34">
+      <c r="A20" s="31">
         <v>0.85240760731303</v>
       </c>
       <c r="B20" s="4">
@@ -4054,7 +4535,7 @@
       <c r="D20" s="4">
         <v>0</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="31">
         <v>0.85904173986020205</v>
       </c>
       <c r="G20" s="4">
@@ -4067,10 +4548,16 @@
       <c r="I20" s="4">
         <v>0</v>
       </c>
+      <c r="K20" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.87025083782996404</v>
+      </c>
       <c r="P20" s="4"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="34">
+      <c r="A21" s="31">
         <v>0.86336522559668505</v>
       </c>
       <c r="B21" s="4">
@@ -4083,7 +4570,7 @@
       <c r="D21" s="4">
         <v>0</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="31">
         <v>0.86365424914647804</v>
       </c>
       <c r="G21" s="4">
@@ -4096,10 +4583,16 @@
       <c r="I21" s="4">
         <v>0</v>
       </c>
+      <c r="K21" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.87025083782996404</v>
+      </c>
       <c r="P21" s="4"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="34">
+      <c r="A22" s="31">
         <v>0.86576866464498203</v>
       </c>
       <c r="B22" s="4">
@@ -4112,7 +4605,7 @@
       <c r="D22" s="4">
         <v>0</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="31">
         <v>0.86342974948982398</v>
       </c>
       <c r="G22" s="4">
@@ -4125,10 +4618,16 @@
       <c r="I22" s="4">
         <v>0</v>
       </c>
+      <c r="K22" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.87025083782996404</v>
+      </c>
       <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="34">
+      <c r="A23" s="31">
         <v>0.85416305660825298</v>
       </c>
       <c r="B23" s="4">
@@ -4141,7 +4640,7 @@
       <c r="D23" s="4">
         <v>0</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="31">
         <v>0.83545544542121197</v>
       </c>
       <c r="G23" s="4">
@@ -4154,10 +4653,16 @@
       <c r="I23" s="4">
         <v>0</v>
       </c>
+      <c r="K23" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.84067305564584904</v>
+      </c>
       <c r="P23" s="4"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="34">
+      <c r="A24" s="31">
         <v>0.86336847519486704</v>
       </c>
       <c r="B24" s="4">
@@ -4170,7 +4675,7 @@
       <c r="D24" s="4">
         <v>0</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="31">
         <v>0.84294665527622403</v>
       </c>
       <c r="G24" s="4">
@@ -4183,10 +4688,16 @@
       <c r="I24" s="4">
         <v>0</v>
       </c>
+      <c r="K24" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.85678539465610304</v>
+      </c>
       <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="34">
+      <c r="A25" s="31">
         <v>0.86515298275401398</v>
       </c>
       <c r="B25" s="4">
@@ -4199,7 +4710,7 @@
       <c r="D25" s="4">
         <v>0</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="31">
         <v>0.85789602778263296</v>
       </c>
       <c r="G25" s="4">
@@ -4212,10 +4723,16 @@
       <c r="I25" s="4">
         <v>0</v>
       </c>
+      <c r="K25" s="4">
+        <v>0.85678539465610304</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0.87025083782996404</v>
+      </c>
       <c r="P25" s="4"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="34">
+      <c r="A26" s="31">
         <v>0.86590373393075004</v>
       </c>
       <c r="B26" s="4">
@@ -4228,7 +4745,7 @@
       <c r="D26" s="4">
         <v>0</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="31">
         <v>0.85508836930476695</v>
       </c>
       <c r="G26" s="4">
@@ -4241,10 +4758,16 @@
       <c r="I26" s="4">
         <v>0</v>
       </c>
+      <c r="K26" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.87025083782996404</v>
+      </c>
       <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="34">
+      <c r="A27" s="31">
         <v>0.86595814719364095</v>
       </c>
       <c r="B27" s="4">
@@ -4257,7 +4780,7 @@
       <c r="D27" s="4">
         <v>0</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="31">
         <v>0.85732649513759396</v>
       </c>
       <c r="G27" s="4">
@@ -4270,10 +4793,16 @@
       <c r="I27" s="4">
         <v>0</v>
       </c>
+      <c r="K27" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0.87025083782996404</v>
+      </c>
       <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="34">
+      <c r="A28" s="31">
         <v>0.86173690256948299</v>
       </c>
       <c r="B28" s="4">
@@ -4286,7 +4815,7 @@
       <c r="D28" s="4">
         <v>0</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="31">
         <v>0.79768248041062195</v>
       </c>
       <c r="G28" s="4">
@@ -4299,10 +4828,16 @@
       <c r="I28" s="4">
         <v>0</v>
       </c>
+      <c r="K28" s="4">
+        <v>0.87025083782996404</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.87025083782996404</v>
+      </c>
       <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="34">
+      <c r="A29" s="31">
         <v>0.86312954535032604</v>
       </c>
       <c r="B29" s="4">
@@ -4315,7 +4850,7 @@
       <c r="D29" s="4">
         <v>0</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="31">
         <v>0.85700463773638003</v>
       </c>
       <c r="G29" s="4">
@@ -4328,10 +4863,16 @@
       <c r="I29" s="4">
         <v>0</v>
       </c>
+      <c r="K29" s="4">
+        <v>0.84067305564584904</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0.87025083782996404</v>
+      </c>
       <c r="P29" s="4"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="34">
+      <c r="A30" s="31">
         <v>0.86450714035533405</v>
       </c>
       <c r="B30" s="4">
@@ -4344,7 +4885,7 @@
       <c r="D30" s="4">
         <v>0</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="31">
         <v>0.85176121138171002</v>
       </c>
       <c r="G30" s="4">
@@ -4357,10 +4898,16 @@
       <c r="I30" s="4">
         <v>0</v>
       </c>
+      <c r="K30" s="4">
+        <v>0.85678539465610304</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0.85678539465610304</v>
+      </c>
       <c r="P30" s="4"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="35">
+      <c r="A32" s="32">
         <f>AVERAGE(A1:A31)</f>
         <v>0.86263260783358942</v>
       </c>
@@ -4368,7 +4915,7 @@
         <f>AVERAGE(C1:C31)</f>
         <v>1.9400444444444409</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="32">
         <f>AVERAGE(F1:F31)</f>
         <v>0.85303021717601402</v>
       </c>
@@ -4376,9 +4923,17 @@
         <f>AVERAGE(H1:H31)</f>
         <v>4.2032166666666555</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="35">
+      <c r="K32" s="32">
+        <f>AVERAGE(K1:K30)</f>
+        <v>0.86746951933397876</v>
+      </c>
+      <c r="M32" s="32">
+        <f>AVERAGE(M1:M30)</f>
+        <v>0.86648359326117508</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="32">
         <f t="shared" ref="A33:C33" si="2">STDEV(A1:A30)</f>
         <v>4.9581704704270658E-3</v>
       </c>
@@ -4386,13 +4941,21 @@
         <f t="shared" si="2"/>
         <v>1.3245628389894024</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="32">
         <f t="shared" ref="F33" si="3">STDEV(F1:F30)</f>
         <v>1.251576205052406E-2</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" ref="H33" si="4">STDEV(H1:H30)</f>
         <v>3.3161685166100203</v>
+      </c>
+      <c r="K33" s="32">
+        <f t="shared" ref="K33" si="5">STDEV(K1:K30)</f>
+        <v>6.8683327824945037E-3</v>
+      </c>
+      <c r="M33" s="32">
+        <f t="shared" ref="M33" si="6">STDEV(M1:M30)</f>
+        <v>8.406071467743817E-3</v>
       </c>
     </row>
   </sheetData>
@@ -4406,20 +4969,20 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14" style="35" customWidth="1"/>
+    <col min="1" max="1" width="14" style="32" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="35"/>
-    <col min="6" max="6" width="10.83203125" style="35"/>
+    <col min="4" max="4" width="10.83203125" style="32"/>
+    <col min="6" max="6" width="10.83203125" style="32"/>
     <col min="8" max="8" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="34">
+      <c r="A1" s="31">
         <v>0.79639761921750796</v>
       </c>
       <c r="B1" s="4">
@@ -4429,10 +4992,10 @@
         <f>B1/200</f>
         <v>18.974499999999999</v>
       </c>
-      <c r="D1" s="34">
+      <c r="D1" s="31">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F1" s="34">
+      <c r="F1" s="31">
         <v>0.78590039333166795</v>
       </c>
       <c r="G1" s="4">
@@ -4445,10 +5008,16 @@
       <c r="I1" s="4">
         <v>0</v>
       </c>
+      <c r="K1" s="4">
+        <v>0.80227841792640298</v>
+      </c>
+      <c r="M1" s="4">
+        <v>0.79792352640696096</v>
+      </c>
       <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="34">
+      <c r="A2" s="31">
         <v>0.79467701732643703</v>
       </c>
       <c r="B2" s="4">
@@ -4458,10 +5027,10 @@
         <f t="shared" ref="C2:C30" si="0">B2/200</f>
         <v>34.5103333333333</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="31">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="31">
         <v>0.74028738644514602</v>
       </c>
       <c r="G2" s="4">
@@ -4474,10 +5043,16 @@
       <c r="I2" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
+      <c r="K2" s="4">
+        <v>0.68840945771119699</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.76950478734356598</v>
+      </c>
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="34">
+      <c r="A3" s="31">
         <v>0.79552417599469105</v>
       </c>
       <c r="B3" s="4">
@@ -4487,10 +5062,10 @@
         <f t="shared" si="0"/>
         <v>26.78416666666665</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="31">
         <v>6.6666666666666693E-2</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="31">
         <v>0.78769046924533404</v>
       </c>
       <c r="G3" s="4">
@@ -4503,10 +5078,16 @@
       <c r="I3" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
+      <c r="K3" s="4">
+        <v>0.80552667565855995</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.80092752542617696</v>
+      </c>
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="34">
+      <c r="A4" s="31">
         <v>0.79708621652324096</v>
       </c>
       <c r="B4" s="4">
@@ -4516,10 +5097,10 @@
         <f t="shared" si="0"/>
         <v>22.174333333333301</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="31">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="31">
         <v>0.77466110496966101</v>
       </c>
       <c r="G4" s="4">
@@ -4532,10 +5113,16 @@
       <c r="I4" s="4">
         <v>0.1</v>
       </c>
+      <c r="K4" s="4">
+        <v>0.80552667565855995</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.798458484029414</v>
+      </c>
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="34">
+      <c r="A5" s="31">
         <v>0.79645054322921904</v>
       </c>
       <c r="B5" s="4">
@@ -4545,10 +5132,10 @@
         <f t="shared" si="0"/>
         <v>36.5728333333333</v>
       </c>
-      <c r="D5" s="34">
-        <v>0</v>
-      </c>
-      <c r="F5" s="34">
+      <c r="D5" s="31">
+        <v>0</v>
+      </c>
+      <c r="F5" s="31">
         <v>0.78333056880413698</v>
       </c>
       <c r="G5" s="4">
@@ -4561,10 +5148,16 @@
       <c r="I5" s="4">
         <v>0</v>
       </c>
+      <c r="K5" s="4">
+        <v>0.80552667565855995</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.79012089732586099</v>
+      </c>
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="34">
+      <c r="A6" s="31">
         <v>0.79326562375816401</v>
       </c>
       <c r="B6" s="4">
@@ -4574,10 +5167,10 @@
         <f t="shared" si="0"/>
         <v>42.602499999999957</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="31">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="31">
         <v>0.79184372022268901</v>
       </c>
       <c r="G6" s="4">
@@ -4590,10 +5183,16 @@
       <c r="I6" s="4">
         <v>0</v>
       </c>
+      <c r="K6" s="4">
+        <v>0.80092752542617696</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.80092752542617696</v>
+      </c>
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="34">
+      <c r="A7" s="31">
         <v>0.79423270747827501</v>
       </c>
       <c r="B7" s="4">
@@ -4603,10 +5202,10 @@
         <f t="shared" si="0"/>
         <v>20.590166666666651</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="31">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="31">
         <v>0.78980902156988397</v>
       </c>
       <c r="G7" s="4">
@@ -4619,10 +5218,16 @@
       <c r="I7" s="4">
         <v>0.133333333333333</v>
       </c>
+      <c r="K7" s="4">
+        <v>0.80092752542617696</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.79792352640696096</v>
+      </c>
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="34">
+      <c r="A8" s="31">
         <v>0.79331060295154798</v>
       </c>
       <c r="B8" s="4">
@@ -4632,10 +5237,10 @@
         <f t="shared" si="0"/>
         <v>41.719666666666654</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="31">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="31">
         <v>0.76726141045362395</v>
       </c>
       <c r="G8" s="4">
@@ -4648,10 +5253,16 @@
       <c r="I8" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
+      <c r="K8" s="4">
+        <v>0.80092752542617696</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.78246985693772597</v>
+      </c>
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="34">
+      <c r="A9" s="31">
         <v>0.79589007770922804</v>
       </c>
       <c r="B9" s="4">
@@ -4661,10 +5272,10 @@
         <f t="shared" si="0"/>
         <v>5.1816666666666507</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="31">
         <v>0.1</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="31">
         <v>0.77625597599247198</v>
       </c>
       <c r="G9" s="4">
@@ -4677,10 +5288,16 @@
       <c r="I9" s="4">
         <v>0</v>
       </c>
+      <c r="K9" s="4">
+        <v>0.80092752542617696</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.80552667565855995</v>
+      </c>
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="34">
+      <c r="A10" s="31">
         <v>0.79510870850460302</v>
       </c>
       <c r="B10" s="4">
@@ -4690,10 +5307,10 @@
         <f t="shared" si="0"/>
         <v>14.625166666666651</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="31">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="31">
         <v>0.77921279125505205</v>
       </c>
       <c r="G10" s="4">
@@ -4706,10 +5323,16 @@
       <c r="I10" s="4">
         <v>0</v>
       </c>
+      <c r="K10" s="4">
+        <v>0.79374925854227296</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.80092752542617696</v>
+      </c>
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="34">
+      <c r="A11" s="31">
         <v>0.75715737026051999</v>
       </c>
       <c r="B11" s="4">
@@ -4719,10 +5342,10 @@
         <f t="shared" si="0"/>
         <v>33.636333333333297</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="31">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="31">
         <v>0.795582722124069</v>
       </c>
       <c r="G11" s="4">
@@ -4735,10 +5358,16 @@
       <c r="I11" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
+      <c r="K11" s="4">
+        <v>0.80092752542617696</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.80552667565855995</v>
+      </c>
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="34">
+      <c r="A12" s="31">
         <v>0.79158943222228895</v>
       </c>
       <c r="B12" s="4">
@@ -4748,10 +5377,10 @@
         <f t="shared" si="0"/>
         <v>16.820499999999949</v>
       </c>
-      <c r="D12" s="34">
-        <v>0</v>
-      </c>
-      <c r="F12" s="34">
+      <c r="D12" s="31">
+        <v>0</v>
+      </c>
+      <c r="F12" s="31">
         <v>0.78907560905617802</v>
       </c>
       <c r="G12" s="4">
@@ -4764,10 +5393,16 @@
       <c r="I12" s="4">
         <v>0.133333333333333</v>
       </c>
+      <c r="K12" s="4">
+        <v>0.80552667565855995</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.80552667565855995</v>
+      </c>
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="34">
+      <c r="A13" s="31">
         <v>0.78338263614549797</v>
       </c>
       <c r="B13" s="4">
@@ -4777,10 +5412,10 @@
         <f t="shared" si="0"/>
         <v>20.994</v>
       </c>
-      <c r="D13" s="34">
-        <v>0</v>
-      </c>
-      <c r="F13" s="34">
+      <c r="D13" s="31">
+        <v>0</v>
+      </c>
+      <c r="F13" s="31">
         <v>0.75506486656287297</v>
       </c>
       <c r="G13" s="4">
@@ -4793,10 +5428,16 @@
       <c r="I13" s="4">
         <v>0</v>
       </c>
+      <c r="K13" s="4">
+        <v>0.79019802588363897</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.77566990662183799</v>
+      </c>
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="34">
+      <c r="A14" s="31">
         <v>0.79074715699460196</v>
       </c>
       <c r="B14" s="4">
@@ -4806,10 +5447,10 @@
         <f t="shared" si="0"/>
         <v>35.62799999999995</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="31">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="31">
         <v>0.78433882527377397</v>
       </c>
       <c r="G14" s="4">
@@ -4822,10 +5463,16 @@
       <c r="I14" s="4">
         <v>0.1</v>
       </c>
+      <c r="K14" s="4">
+        <v>0.80092752542617696</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.80092752542617696</v>
+      </c>
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="34">
+      <c r="A15" s="31">
         <v>0.79598632445791595</v>
       </c>
       <c r="B15" s="4">
@@ -4835,10 +5482,10 @@
         <f t="shared" si="0"/>
         <v>21.146833333333301</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="31">
         <v>0.1</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="31">
         <v>0.780649196737777</v>
       </c>
       <c r="G15" s="4">
@@ -4851,10 +5498,16 @@
       <c r="I15" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
+      <c r="K15" s="4">
+        <v>0.80552667565855995</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.80092752542617696</v>
+      </c>
       <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="34">
+      <c r="A16" s="31">
         <v>0.79197233431302205</v>
       </c>
       <c r="B16" s="4">
@@ -4864,10 +5517,10 @@
         <f t="shared" si="0"/>
         <v>18.023333333333301</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="31">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="31">
         <v>0.77647358038038405</v>
       </c>
       <c r="G16" s="4">
@@ -4880,10 +5533,16 @@
       <c r="I16" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
+      <c r="K16" s="4">
+        <v>0.80092752542617696</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.77350089230945096</v>
+      </c>
       <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="34">
+      <c r="A17" s="31">
         <v>0.79333218197194799</v>
       </c>
       <c r="B17" s="4">
@@ -4893,10 +5552,10 @@
         <f t="shared" si="0"/>
         <v>44.359333333333296</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="31">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="31">
         <v>0.78841550852796205</v>
       </c>
       <c r="G17" s="4">
@@ -4909,10 +5568,16 @@
       <c r="I17" s="4">
         <v>0</v>
       </c>
+      <c r="K17" s="4">
+        <v>0.80227841792640298</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.79512807965797305</v>
+      </c>
       <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="34">
+      <c r="A18" s="31">
         <v>0.79541512401565695</v>
       </c>
       <c r="B18" s="4">
@@ -4922,10 +5587,10 @@
         <f t="shared" si="0"/>
         <v>58.3125</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="31">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="31">
         <v>0.77454660418268195</v>
       </c>
       <c r="G18" s="4">
@@ -4938,10 +5603,16 @@
       <c r="I18" s="4">
         <v>0.1</v>
       </c>
+      <c r="K18" s="4">
+        <v>0.80092752542617696</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0.80092752542617696</v>
+      </c>
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="34">
+      <c r="A19" s="31">
         <v>0.79373808559474901</v>
       </c>
       <c r="B19" s="4">
@@ -4951,10 +5622,10 @@
         <f t="shared" si="0"/>
         <v>23.159666666666649</v>
       </c>
-      <c r="D19" s="34">
-        <v>0</v>
-      </c>
-      <c r="F19" s="34">
+      <c r="D19" s="31">
+        <v>0</v>
+      </c>
+      <c r="F19" s="31">
         <v>0.78695882348739699</v>
       </c>
       <c r="G19" s="4">
@@ -4967,10 +5638,16 @@
       <c r="I19" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
+      <c r="K19" s="4">
+        <v>0.80092752542617696</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0.80092752542617696</v>
+      </c>
       <c r="P19" s="4"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="34">
+      <c r="A20" s="31">
         <v>0.79645881245153305</v>
       </c>
       <c r="B20" s="4">
@@ -4980,10 +5657,10 @@
         <f t="shared" si="0"/>
         <v>18.3705</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="31">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="31">
         <v>0.75640643570707899</v>
       </c>
       <c r="G20" s="4">
@@ -4996,10 +5673,16 @@
       <c r="I20" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
+      <c r="K20" s="4">
+        <v>0.80552667565855995</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.76471992282025203</v>
+      </c>
       <c r="P20" s="4"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="34">
+      <c r="A21" s="31">
         <v>0.79530702491627403</v>
       </c>
       <c r="B21" s="4">
@@ -5009,10 +5692,10 @@
         <f t="shared" si="0"/>
         <v>39.087666666666649</v>
       </c>
-      <c r="D21" s="34">
-        <v>0</v>
-      </c>
-      <c r="F21" s="34">
+      <c r="D21" s="31">
+        <v>0</v>
+      </c>
+      <c r="F21" s="31">
         <v>0.79435811733253303</v>
       </c>
       <c r="G21" s="4">
@@ -5025,10 +5708,16 @@
       <c r="I21" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
+      <c r="K21" s="4">
+        <v>0.80092752542617696</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.80552667565855995</v>
+      </c>
       <c r="P21" s="4"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="34">
+      <c r="A22" s="31">
         <v>0.79666983727804996</v>
       </c>
       <c r="B22" s="4">
@@ -5038,10 +5727,10 @@
         <f t="shared" si="0"/>
         <v>18.056166666666648</v>
       </c>
-      <c r="D22" s="34">
-        <v>0</v>
-      </c>
-      <c r="F22" s="34">
+      <c r="D22" s="31">
+        <v>0</v>
+      </c>
+      <c r="F22" s="31">
         <v>0.79104539037531696</v>
       </c>
       <c r="G22" s="4">
@@ -5054,10 +5743,16 @@
       <c r="I22" s="4">
         <v>0.1</v>
       </c>
+      <c r="K22" s="4">
+        <v>0.80092752542617696</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.80092752542617696</v>
+      </c>
       <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="34">
+      <c r="A23" s="31">
         <v>0.79655571488961596</v>
       </c>
       <c r="B23" s="4">
@@ -5067,10 +5762,10 @@
         <f t="shared" si="0"/>
         <v>25.76866666666665</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="31">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="31">
         <v>0.77790352812046903</v>
       </c>
       <c r="G23" s="4">
@@ -5083,10 +5778,16 @@
       <c r="I23" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
+      <c r="K23" s="4">
+        <v>0.80552667565855995</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.79352304096861603</v>
+      </c>
       <c r="P23" s="4"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="34">
+      <c r="A24" s="31">
         <v>0.79499614030160104</v>
       </c>
       <c r="B24" s="4">
@@ -5096,10 +5797,10 @@
         <f t="shared" si="0"/>
         <v>8.3676666666666488</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="31">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="31">
         <v>0.78527109167303599</v>
       </c>
       <c r="G24" s="4">
@@ -5112,10 +5813,16 @@
       <c r="I24" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
+      <c r="K24" s="4">
+        <v>0.80092752542617696</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.80092752542617696</v>
+      </c>
       <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="34">
+      <c r="A25" s="31">
         <v>0.79327398253750203</v>
       </c>
       <c r="B25" s="4">
@@ -5125,10 +5832,10 @@
         <f t="shared" si="0"/>
         <v>25.132166666666649</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="31">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="31">
         <v>0.79233949407529403</v>
       </c>
       <c r="G25" s="4">
@@ -5141,10 +5848,16 @@
       <c r="I25" s="4">
         <v>6.6666666666666693E-2</v>
       </c>
+      <c r="K25" s="4">
+        <v>0.79792352640696096</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0.80092752542617696</v>
+      </c>
       <c r="P25" s="4"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="34">
+      <c r="A26" s="31">
         <v>0.79584957159061498</v>
       </c>
       <c r="B26" s="4">
@@ -5154,10 +5867,10 @@
         <f t="shared" si="0"/>
         <v>30.528000000000002</v>
       </c>
-      <c r="D26" s="34">
-        <v>0</v>
-      </c>
-      <c r="F26" s="34">
+      <c r="D26" s="31">
+        <v>0</v>
+      </c>
+      <c r="F26" s="31">
         <v>0.78089569718429197</v>
       </c>
       <c r="G26" s="4">
@@ -5170,10 +5883,16 @@
       <c r="I26" s="4">
         <v>3.3333333333333298E-2</v>
       </c>
+      <c r="K26" s="4">
+        <v>0.80092752542617696</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.80092752542617696</v>
+      </c>
       <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="34">
+      <c r="A27" s="31">
         <v>0.79638032777594003</v>
       </c>
       <c r="B27" s="4">
@@ -5183,10 +5902,10 @@
         <f t="shared" si="0"/>
         <v>20.669833333333301</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="31">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="31">
         <v>0.78510242961892496</v>
       </c>
       <c r="G27" s="4">
@@ -5199,10 +5918,16 @@
       <c r="I27" s="4">
         <v>0</v>
       </c>
+      <c r="K27" s="4">
+        <v>0.80092752542617696</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0.79352304096861603</v>
+      </c>
       <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="34">
+      <c r="A28" s="31">
         <v>0.79650868617627102</v>
       </c>
       <c r="B28" s="4">
@@ -5212,10 +5937,10 @@
         <f t="shared" si="0"/>
         <v>75.518999999999991</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="31">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="31">
         <v>0.78336283778591198</v>
       </c>
       <c r="G28" s="4">
@@ -5228,10 +5953,16 @@
       <c r="I28" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
+      <c r="K28" s="4">
+        <v>0.80552667565855995</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.80092752542617696</v>
+      </c>
       <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="34">
+      <c r="A29" s="31">
         <v>0.79376094074583303</v>
       </c>
       <c r="B29" s="4">
@@ -5241,10 +5972,10 @@
         <f t="shared" si="0"/>
         <v>23.675833333333298</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="31">
         <v>0.1</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="31">
         <v>0.77339803638415405</v>
       </c>
       <c r="G29" s="4">
@@ -5257,10 +5988,16 @@
       <c r="I29" s="4">
         <v>0</v>
       </c>
+      <c r="K29" s="4">
+        <v>0.79792352640696096</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0.80092752542617696</v>
+      </c>
       <c r="P29" s="4"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="34">
+      <c r="A30" s="31">
         <v>0.77211683128944097</v>
       </c>
       <c r="B30" s="4">
@@ -5270,10 +6007,10 @@
         <f t="shared" si="0"/>
         <v>31.13616666666665</v>
       </c>
-      <c r="D30" s="34">
-        <v>0</v>
-      </c>
-      <c r="F30" s="34">
+      <c r="D30" s="31">
+        <v>0</v>
+      </c>
+      <c r="F30" s="31">
         <v>0.78572751063806301</v>
       </c>
       <c r="G30" s="4">
@@ -5286,10 +6023,16 @@
       <c r="I30" s="4">
         <v>0.1</v>
       </c>
+      <c r="K30" s="4">
+        <v>0.80092752542617696</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0.78321127975443905</v>
+      </c>
       <c r="P30" s="4"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="35">
+      <c r="A32" s="32">
         <f>AVERAGE(A1:A31)</f>
         <v>0.79243806028739316</v>
       </c>
@@ -5297,11 +6040,11 @@
         <f>AVERAGE(C1:C31)</f>
         <v>28.40424999999998</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="32">
         <f>AVERAGE(D1:D31)</f>
         <v>3.5555555555555542E-2</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="32">
         <f>AVERAGE(F1:F31)</f>
         <v>0.78043897158392783</v>
       </c>
@@ -5313,9 +6056,17 @@
         <f>AVERAGE(I1:I31)</f>
         <v>4.888888888888885E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="35">
+      <c r="K32" s="32">
+        <f>AVERAGE(K1:K30)</f>
+        <v>0.79769623058216554</v>
+      </c>
+      <c r="M32" s="32">
+        <f>AVERAGE(M1:M30)</f>
+        <v>0.79499472582420694</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="32">
         <f>STDEV(A1:A30)</f>
         <v>8.2442416339522269E-3</v>
       </c>
@@ -5323,11 +6074,11 @@
         <f t="shared" ref="C33:D33" si="2">STDEV(C1:C30)</f>
         <v>14.46052022427302</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="32">
         <f t="shared" si="2"/>
         <v>3.0239571310657864E-2</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="32">
         <f>STDEV(F1:F30)</f>
         <v>1.2359099627600284E-2</v>
       </c>
@@ -5338,6 +6089,14 @@
       <c r="I33" s="9">
         <f t="shared" si="3"/>
         <v>4.26455886632994E-2</v>
+      </c>
+      <c r="K33" s="32">
+        <f>STDEV(K1:K30)</f>
+        <v>2.0930626423006398E-2</v>
+      </c>
+      <c r="M33" s="32">
+        <f>STDEV(M1:M30)</f>
+        <v>1.1228007621697501E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5351,20 +6110,20 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H1:H30"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14" style="35" customWidth="1"/>
+    <col min="1" max="1" width="14" style="32" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="35"/>
-    <col min="6" max="6" width="10.83203125" style="35"/>
+    <col min="4" max="4" width="10.83203125" style="32"/>
+    <col min="6" max="6" width="10.83203125" style="32"/>
     <col min="8" max="8" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="34">
+      <c r="A1" s="31">
         <v>0.83031522978411498</v>
       </c>
       <c r="B1" s="4">
@@ -5374,10 +6133,10 @@
         <f>B1/200</f>
         <v>29.874333333333301</v>
       </c>
-      <c r="D1" s="34">
-        <v>0</v>
-      </c>
-      <c r="F1" s="34">
+      <c r="D1" s="31">
+        <v>0</v>
+      </c>
+      <c r="F1" s="31">
         <v>0.81891860619101198</v>
       </c>
       <c r="G1" s="4">
@@ -5390,11 +6149,16 @@
       <c r="I1" s="4">
         <v>0</v>
       </c>
-      <c r="K1" s="4"/>
+      <c r="K1" s="4">
+        <v>0.83299821190339396</v>
+      </c>
+      <c r="M1" s="4">
+        <v>0.82347053819726101</v>
+      </c>
       <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="34">
+      <c r="A2" s="31">
         <v>0.83009100375657996</v>
       </c>
       <c r="B2" s="4">
@@ -5404,10 +6168,10 @@
         <f t="shared" ref="C2:C30" si="0">B2/200</f>
         <v>39.293999999999954</v>
       </c>
-      <c r="D2" s="34">
-        <v>0</v>
-      </c>
-      <c r="F2" s="34">
+      <c r="D2" s="31">
+        <v>0</v>
+      </c>
+      <c r="F2" s="31">
         <v>0.81359787424129104</v>
       </c>
       <c r="G2" s="4">
@@ -5420,11 +6184,16 @@
       <c r="I2" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="K2" s="4">
+        <v>0.82347053819726101</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.82679778678110805</v>
+      </c>
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="34">
+      <c r="A3" s="31">
         <v>0.830179825409465</v>
       </c>
       <c r="B3" s="4">
@@ -5434,10 +6203,10 @@
         <f t="shared" si="0"/>
         <v>38.308166666666651</v>
       </c>
-      <c r="D3" s="34">
-        <v>0</v>
-      </c>
-      <c r="F3" s="34">
+      <c r="D3" s="31">
+        <v>0</v>
+      </c>
+      <c r="F3" s="31">
         <v>0.809895476392956</v>
       </c>
       <c r="G3" s="4">
@@ -5450,11 +6219,16 @@
       <c r="I3" s="4">
         <v>0</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K3" s="4">
+        <v>0.83299821190339396</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.81190388528830504</v>
+      </c>
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="34">
+      <c r="A4" s="31">
         <v>0.829950399259891</v>
       </c>
       <c r="B4" s="4">
@@ -5464,10 +6238,10 @@
         <f t="shared" si="0"/>
         <v>32.677333333333301</v>
       </c>
-      <c r="D4" s="34">
-        <v>0</v>
-      </c>
-      <c r="F4" s="34">
+      <c r="D4" s="31">
+        <v>0</v>
+      </c>
+      <c r="F4" s="31">
         <v>0.80938718790970998</v>
       </c>
       <c r="G4" s="4">
@@ -5480,11 +6254,16 @@
       <c r="I4" s="4">
         <v>0</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="4">
+        <v>0.82351846835014997</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.82351846835014997</v>
+      </c>
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="34">
+      <c r="A5" s="31">
         <v>0.82191999585140896</v>
       </c>
       <c r="B5" s="4">
@@ -5494,10 +6273,10 @@
         <f t="shared" si="0"/>
         <v>47.483999999999995</v>
       </c>
-      <c r="D5" s="34">
-        <v>0</v>
-      </c>
-      <c r="F5" s="34">
+      <c r="D5" s="31">
+        <v>0</v>
+      </c>
+      <c r="F5" s="31">
         <v>0.81102199878688896</v>
       </c>
       <c r="G5" s="4">
@@ -5510,11 +6289,16 @@
       <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4">
+        <v>0.82351846835014997</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.82351846835014997</v>
+      </c>
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="34">
+      <c r="A6" s="31">
         <v>0.83008716397331805</v>
       </c>
       <c r="B6" s="4">
@@ -5524,10 +6308,10 @@
         <f t="shared" si="0"/>
         <v>67.044833333333003</v>
       </c>
-      <c r="D6" s="34">
-        <v>0</v>
-      </c>
-      <c r="F6" s="34">
+      <c r="D6" s="31">
+        <v>0</v>
+      </c>
+      <c r="F6" s="31">
         <v>0.80106554061875901</v>
       </c>
       <c r="G6" s="4">
@@ -5540,11 +6324,16 @@
       <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4">
+        <v>0.82679778678110805</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.82679778678110805</v>
+      </c>
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="34">
+      <c r="A7" s="31">
         <v>0.83012835871239599</v>
       </c>
       <c r="B7" s="4">
@@ -5554,10 +6343,10 @@
         <f t="shared" si="0"/>
         <v>19.140833333333301</v>
       </c>
-      <c r="D7" s="34">
-        <v>0</v>
-      </c>
-      <c r="F7" s="34">
+      <c r="D7" s="31">
+        <v>0</v>
+      </c>
+      <c r="F7" s="31">
         <v>0.80367569626147195</v>
       </c>
       <c r="G7" s="4">
@@ -5570,11 +6359,16 @@
       <c r="I7" s="4">
         <v>0</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4">
+        <v>0.83299821190339396</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.82351846835014997</v>
+      </c>
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="34">
+      <c r="A8" s="31">
         <v>0.830371348679659</v>
       </c>
       <c r="B8" s="4">
@@ -5584,10 +6378,10 @@
         <f t="shared" si="0"/>
         <v>68.508333333332999</v>
       </c>
-      <c r="D8" s="34">
-        <v>0</v>
-      </c>
-      <c r="F8" s="34">
+      <c r="D8" s="31">
+        <v>0</v>
+      </c>
+      <c r="F8" s="31">
         <v>0.80500269925435097</v>
       </c>
       <c r="G8" s="4">
@@ -5600,11 +6394,16 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4">
+        <v>0.83299821190339396</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.82679778678110805</v>
+      </c>
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="34">
+      <c r="A9" s="31">
         <v>0.830211069940195</v>
       </c>
       <c r="B9" s="4">
@@ -5614,10 +6413,10 @@
         <f t="shared" si="0"/>
         <v>45.875666666666646</v>
       </c>
-      <c r="D9" s="34">
-        <v>0</v>
-      </c>
-      <c r="F9" s="34">
+      <c r="D9" s="31">
+        <v>0</v>
+      </c>
+      <c r="F9" s="31">
         <v>0.82500517327509304</v>
       </c>
       <c r="G9" s="4">
@@ -5630,11 +6429,16 @@
       <c r="I9" s="4">
         <v>0</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4">
+        <v>0.83299821190339396</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.83299821190339396</v>
+      </c>
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="34">
+      <c r="A10" s="31">
         <v>0.82931044386894603</v>
       </c>
       <c r="B10" s="4">
@@ -5644,10 +6448,10 @@
         <f t="shared" si="0"/>
         <v>9.2226666666666492</v>
       </c>
-      <c r="D10" s="34">
-        <v>0</v>
-      </c>
-      <c r="F10" s="34">
+      <c r="D10" s="31">
+        <v>0</v>
+      </c>
+      <c r="F10" s="31">
         <v>0.81157001616982405</v>
       </c>
       <c r="G10" s="4">
@@ -5660,11 +6464,16 @@
       <c r="I10" s="4">
         <v>0</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4">
+        <v>0.81723128696667602</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.82347053819726101</v>
+      </c>
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="34">
+      <c r="A11" s="31">
         <v>0.83011396236331303</v>
       </c>
       <c r="B11" s="4">
@@ -5674,10 +6483,10 @@
         <f t="shared" si="0"/>
         <v>16.118666666666648</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="31">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="31">
         <v>0.818473039040304</v>
       </c>
       <c r="G11" s="4">
@@ -5690,11 +6499,16 @@
       <c r="I11" s="4">
         <v>0</v>
       </c>
-      <c r="K11" s="4"/>
+      <c r="K11" s="4">
+        <v>0.83299821190339396</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.82351846835014997</v>
+      </c>
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="34">
+      <c r="A12" s="31">
         <v>0.83033215563624296</v>
       </c>
       <c r="B12" s="4">
@@ -5704,10 +6518,10 @@
         <f t="shared" si="0"/>
         <v>17.4635</v>
       </c>
-      <c r="D12" s="34">
-        <v>0</v>
-      </c>
-      <c r="F12" s="34">
+      <c r="D12" s="31">
+        <v>0</v>
+      </c>
+      <c r="F12" s="31">
         <v>0.82337142332430702</v>
       </c>
       <c r="G12" s="4">
@@ -5720,11 +6534,16 @@
       <c r="I12" s="4">
         <v>0</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4">
+        <v>0.83299821190339396</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.83299821190339396</v>
+      </c>
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="34">
+      <c r="A13" s="31">
         <v>0.83028982045210098</v>
       </c>
       <c r="B13" s="4">
@@ -5734,10 +6553,10 @@
         <f t="shared" si="0"/>
         <v>33.402999999999949</v>
       </c>
-      <c r="D13" s="34">
-        <v>0</v>
-      </c>
-      <c r="F13" s="34">
+      <c r="D13" s="31">
+        <v>0</v>
+      </c>
+      <c r="F13" s="31">
         <v>0.80022339370487106</v>
       </c>
       <c r="G13" s="4">
@@ -5750,11 +6569,16 @@
       <c r="I13" s="4">
         <v>0</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="4">
+        <v>0.83299821190339396</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.82679778678110805</v>
+      </c>
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="34">
+      <c r="A14" s="31">
         <v>0.830143065568264</v>
       </c>
       <c r="B14" s="4">
@@ -5764,10 +6588,10 @@
         <f t="shared" si="0"/>
         <v>112.59649999999999</v>
       </c>
-      <c r="D14" s="34">
-        <v>0</v>
-      </c>
-      <c r="F14" s="34">
+      <c r="D14" s="31">
+        <v>0</v>
+      </c>
+      <c r="F14" s="31">
         <v>0.80401558884569002</v>
       </c>
       <c r="G14" s="4">
@@ -5780,11 +6604,16 @@
       <c r="I14" s="4">
         <v>0</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="4">
+        <v>0.82005480028511302</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.82347053819726101</v>
+      </c>
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="34">
+      <c r="A15" s="31">
         <v>0.82894411859817396</v>
       </c>
       <c r="B15" s="4">
@@ -5794,10 +6623,10 @@
         <f t="shared" si="0"/>
         <v>139.61150000000001</v>
       </c>
-      <c r="D15" s="34">
-        <v>0</v>
-      </c>
-      <c r="F15" s="34">
+      <c r="D15" s="31">
+        <v>0</v>
+      </c>
+      <c r="F15" s="31">
         <v>0.81637771591979602</v>
       </c>
       <c r="G15" s="4">
@@ -5810,11 +6639,16 @@
       <c r="I15" s="4">
         <v>0</v>
       </c>
-      <c r="K15" s="4"/>
+      <c r="K15" s="4">
+        <v>0.82005480028511302</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.82005480028511302</v>
+      </c>
       <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="34">
+      <c r="A16" s="31">
         <v>0.82947306544098998</v>
       </c>
       <c r="B16" s="4">
@@ -5824,10 +6658,10 @@
         <f t="shared" si="0"/>
         <v>11.969166666666649</v>
       </c>
-      <c r="D16" s="34">
-        <v>0</v>
-      </c>
-      <c r="F16" s="34">
+      <c r="D16" s="31">
+        <v>0</v>
+      </c>
+      <c r="F16" s="31">
         <v>0.80795712181524904</v>
       </c>
       <c r="G16" s="4">
@@ -5840,11 +6674,16 @@
       <c r="I16" s="4">
         <v>0</v>
       </c>
-      <c r="K16" s="4"/>
+      <c r="K16" s="4">
+        <v>0.83299821190339396</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.81474496859717005</v>
+      </c>
       <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="34">
+      <c r="A17" s="31">
         <v>0.83029676258832297</v>
       </c>
       <c r="B17" s="4">
@@ -5854,10 +6693,10 @@
         <f t="shared" si="0"/>
         <v>17.76566666666665</v>
       </c>
-      <c r="D17" s="34">
-        <v>0</v>
-      </c>
-      <c r="F17" s="34">
+      <c r="D17" s="31">
+        <v>0</v>
+      </c>
+      <c r="F17" s="31">
         <v>0.80821879796690999</v>
       </c>
       <c r="G17" s="4">
@@ -5870,11 +6709,16 @@
       <c r="I17" s="4">
         <v>0</v>
       </c>
-      <c r="K17" s="4"/>
+      <c r="K17" s="4">
+        <v>0.83299821190339396</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.82351846835014997</v>
+      </c>
       <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="34">
+      <c r="A18" s="31">
         <v>0.82986158007976496</v>
       </c>
       <c r="B18" s="4">
@@ -5884,10 +6728,10 @@
         <f t="shared" si="0"/>
         <v>3.6658333333333348</v>
       </c>
-      <c r="D18" s="34">
-        <v>0</v>
-      </c>
-      <c r="F18" s="34">
+      <c r="D18" s="31">
+        <v>0</v>
+      </c>
+      <c r="F18" s="31">
         <v>0.82288478395678899</v>
       </c>
       <c r="G18" s="4">
@@ -5900,11 +6744,16 @@
       <c r="I18" s="4">
         <v>0</v>
       </c>
-      <c r="K18" s="4"/>
+      <c r="K18" s="4">
+        <v>0.83299821190339396</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0.83299821190339396</v>
+      </c>
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="34">
+      <c r="A19" s="31">
         <v>0.829629299208411</v>
       </c>
       <c r="B19" s="4">
@@ -5914,10 +6763,10 @@
         <f t="shared" si="0"/>
         <v>59.058333333333003</v>
       </c>
-      <c r="D19" s="34">
-        <v>0</v>
-      </c>
-      <c r="F19" s="34">
+      <c r="D19" s="31">
+        <v>0</v>
+      </c>
+      <c r="F19" s="31">
         <v>0.82785180941869596</v>
       </c>
       <c r="G19" s="4">
@@ -5930,11 +6779,16 @@
       <c r="I19" s="4">
         <v>0</v>
       </c>
-      <c r="K19" s="4"/>
+      <c r="K19" s="4">
+        <v>0.82351846835014997</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0.83299821190339396</v>
+      </c>
       <c r="P19" s="4"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="34">
+      <c r="A20" s="31">
         <v>0.83032160641794905</v>
       </c>
       <c r="B20" s="4">
@@ -5944,10 +6798,10 @@
         <f t="shared" si="0"/>
         <v>9.9079999999999995</v>
       </c>
-      <c r="D20" s="34">
-        <v>0</v>
-      </c>
-      <c r="F20" s="34">
+      <c r="D20" s="31">
+        <v>0</v>
+      </c>
+      <c r="F20" s="31">
         <v>0.82108377221239304</v>
       </c>
       <c r="G20" s="4">
@@ -5960,11 +6814,16 @@
       <c r="I20" s="4">
         <v>0</v>
       </c>
-      <c r="K20" s="4"/>
+      <c r="K20" s="4">
+        <v>0.83299821190339396</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.82679778678110805</v>
+      </c>
       <c r="P20" s="4"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="34">
+      <c r="A21" s="31">
         <v>0.830415940474722</v>
       </c>
       <c r="B21" s="4">
@@ -5974,10 +6833,10 @@
         <f t="shared" si="0"/>
         <v>14.913166666666649</v>
       </c>
-      <c r="D21" s="34">
-        <v>0</v>
-      </c>
-      <c r="F21" s="34">
+      <c r="D21" s="31">
+        <v>0</v>
+      </c>
+      <c r="F21" s="31">
         <v>0.82731939232430296</v>
       </c>
       <c r="G21" s="4">
@@ -5990,11 +6849,16 @@
       <c r="I21" s="4">
         <v>0</v>
       </c>
-      <c r="K21" s="4"/>
+      <c r="K21" s="4">
+        <v>0.83299821190339396</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.83299821190339396</v>
+      </c>
       <c r="P21" s="4"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="34">
+      <c r="A22" s="31">
         <v>0.83023208283004102</v>
       </c>
       <c r="B22" s="4">
@@ -6004,10 +6868,10 @@
         <f t="shared" si="0"/>
         <v>3.7935000000000003</v>
       </c>
-      <c r="D22" s="34">
-        <v>0</v>
-      </c>
-      <c r="F22" s="34">
+      <c r="D22" s="31">
+        <v>0</v>
+      </c>
+      <c r="F22" s="31">
         <v>0.79458743800669296</v>
       </c>
       <c r="G22" s="4">
@@ -6020,11 +6884,16 @@
       <c r="I22" s="4">
         <v>0</v>
       </c>
-      <c r="K22" s="4"/>
+      <c r="K22" s="4">
+        <v>0.83299821190339396</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.81804806722864998</v>
+      </c>
       <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="34">
+      <c r="A23" s="31">
         <v>0.83026809851656702</v>
       </c>
       <c r="B23" s="4">
@@ -6034,10 +6903,10 @@
         <f t="shared" si="0"/>
         <v>5.5814999999999495</v>
       </c>
-      <c r="D23" s="34">
-        <v>0</v>
-      </c>
-      <c r="F23" s="34">
+      <c r="D23" s="31">
+        <v>0</v>
+      </c>
+      <c r="F23" s="31">
         <v>0.82038132629856597</v>
       </c>
       <c r="G23" s="4">
@@ -6050,11 +6919,16 @@
       <c r="I23" s="4">
         <v>0</v>
       </c>
-      <c r="K23" s="4"/>
+      <c r="K23" s="4">
+        <v>0.83299821190339396</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.83299821190339396</v>
+      </c>
       <c r="P23" s="4"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="34">
+      <c r="A24" s="31">
         <v>0.83039242409869896</v>
       </c>
       <c r="B24" s="4">
@@ -6064,10 +6938,10 @@
         <f t="shared" si="0"/>
         <v>53.8579999999995</v>
       </c>
-      <c r="D24" s="34">
-        <v>0</v>
-      </c>
-      <c r="F24" s="34">
+      <c r="D24" s="31">
+        <v>0</v>
+      </c>
+      <c r="F24" s="31">
         <v>0.77173317927171503</v>
       </c>
       <c r="G24" s="4">
@@ -6080,11 +6954,16 @@
       <c r="I24" s="4">
         <v>0</v>
       </c>
-      <c r="K24" s="4"/>
+      <c r="K24" s="4">
+        <v>0.83299821190339396</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.78520517872718298</v>
+      </c>
       <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="34">
+      <c r="A25" s="31">
         <v>0.83038773044127401</v>
       </c>
       <c r="B25" s="4">
@@ -6094,10 +6973,10 @@
         <f t="shared" si="0"/>
         <v>37.059166666666648</v>
       </c>
-      <c r="D25" s="34">
-        <v>0</v>
-      </c>
-      <c r="F25" s="34">
+      <c r="D25" s="31">
+        <v>0</v>
+      </c>
+      <c r="F25" s="31">
         <v>0.82868610548372101</v>
       </c>
       <c r="G25" s="4">
@@ -6110,11 +6989,16 @@
       <c r="I25" s="4">
         <v>0</v>
       </c>
-      <c r="K25" s="4"/>
+      <c r="K25" s="4">
+        <v>0.83299821190339396</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0.83299821190339396</v>
+      </c>
       <c r="P25" s="4"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="34">
+      <c r="A26" s="31">
         <v>0.83013972272664305</v>
       </c>
       <c r="B26" s="4">
@@ -6124,10 +7008,10 @@
         <f t="shared" si="0"/>
         <v>21.7313333333333</v>
       </c>
-      <c r="D26" s="34">
-        <v>0</v>
-      </c>
-      <c r="F26" s="34">
+      <c r="D26" s="31">
+        <v>0</v>
+      </c>
+      <c r="F26" s="31">
         <v>0.81331107791803203</v>
       </c>
       <c r="G26" s="4">
@@ -6140,11 +7024,16 @@
       <c r="I26" s="4">
         <v>0</v>
       </c>
-      <c r="K26" s="4"/>
+      <c r="K26" s="4">
+        <v>0.82005480028511302</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.82351846835014997</v>
+      </c>
       <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="34">
+      <c r="A27" s="31">
         <v>0.82910565857948804</v>
       </c>
       <c r="B27" s="4">
@@ -6154,10 +7043,10 @@
         <f t="shared" si="0"/>
         <v>23.284666666666649</v>
       </c>
-      <c r="D27" s="34">
-        <v>0</v>
-      </c>
-      <c r="F27" s="34">
+      <c r="D27" s="31">
+        <v>0</v>
+      </c>
+      <c r="F27" s="31">
         <v>0.81660716739255201</v>
       </c>
       <c r="G27" s="4">
@@ -6170,11 +7059,16 @@
       <c r="I27" s="4">
         <v>0</v>
       </c>
-      <c r="K27" s="4"/>
+      <c r="K27" s="4">
+        <v>0.83299821190339396</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0.82005480028511302</v>
+      </c>
       <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="34">
+      <c r="A28" s="31">
         <v>0.82449679387325603</v>
       </c>
       <c r="B28" s="4">
@@ -6184,10 +7078,10 @@
         <f t="shared" si="0"/>
         <v>38.195666666666646</v>
       </c>
-      <c r="D28" s="34">
-        <v>0</v>
-      </c>
-      <c r="F28" s="34">
+      <c r="D28" s="31">
+        <v>0</v>
+      </c>
+      <c r="F28" s="31">
         <v>0.82855021856946298</v>
       </c>
       <c r="G28" s="4">
@@ -6200,11 +7094,16 @@
       <c r="I28" s="4">
         <v>0</v>
       </c>
-      <c r="K28" s="4"/>
+      <c r="K28" s="4">
+        <v>0.83299821190339396</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.83299821190339396</v>
+      </c>
       <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="34">
+      <c r="A29" s="31">
         <v>0.819051886591181</v>
       </c>
       <c r="B29" s="4">
@@ -6214,10 +7113,10 @@
         <f t="shared" si="0"/>
         <v>24.791333333333299</v>
       </c>
-      <c r="D29" s="34">
-        <v>0</v>
-      </c>
-      <c r="F29" s="34">
+      <c r="D29" s="31">
+        <v>0</v>
+      </c>
+      <c r="F29" s="31">
         <v>0.80618285026316605</v>
       </c>
       <c r="G29" s="4">
@@ -6230,11 +7129,16 @@
       <c r="I29" s="4">
         <v>0</v>
       </c>
-      <c r="K29" s="4"/>
+      <c r="K29" s="4">
+        <v>0.83299821190339396</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0.82351846835014997</v>
+      </c>
       <c r="P29" s="4"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="34">
+      <c r="A30" s="31">
         <v>0.82999186633405997</v>
       </c>
       <c r="B30" s="4">
@@ -6244,10 +7148,10 @@
         <f t="shared" si="0"/>
         <v>25.150166666666649</v>
       </c>
-      <c r="D30" s="34">
-        <v>0</v>
-      </c>
-      <c r="F30" s="34">
+      <c r="D30" s="31">
+        <v>0</v>
+      </c>
+      <c r="F30" s="31">
         <v>0.82273475937007201</v>
       </c>
       <c r="G30" s="4">
@@ -6260,11 +7164,16 @@
       <c r="I30" s="4">
         <v>0</v>
       </c>
-      <c r="K30" s="4"/>
+      <c r="K30" s="4">
+        <v>0.83299821190339396</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0.83299821190339396</v>
+      </c>
       <c r="P30" s="4"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="35">
+      <c r="A32" s="32">
         <f>AVERAGE(A1:A31)</f>
         <v>0.82921508266851451</v>
       </c>
@@ -6272,11 +7181,11 @@
         <f>AVERAGE(C1:C31)</f>
         <v>35.578294444444374</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="32">
         <f>AVERAGE(D1:D31)</f>
         <v>1.11111111111111E-3</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="32">
         <f>AVERAGE(F1:F31)</f>
         <v>0.81298970767348833</v>
       </c>
@@ -6284,9 +7193,17 @@
         <f>AVERAGE(H1:H31)</f>
         <v>49.220427777777694</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="35">
+      <c r="K32" s="35">
+        <f>AVERAGE(K1:K30)</f>
+        <v>0.82970606226073707</v>
+      </c>
+      <c r="M32" s="32">
+        <f>AVERAGE(M1:M30)</f>
+        <v>0.82453418114968191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="32">
         <f t="shared" ref="A33" si="2">STDEV(A1:A30)</f>
         <v>2.6337690981441107E-3</v>
       </c>
@@ -6294,17 +7211,25 @@
         <f t="shared" ref="C33" si="3">STDEV(C1:C30)</f>
         <v>30.607219772881123</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="32">
         <f t="shared" ref="D33:F33" si="4">STDEV(D1:D30)</f>
         <v>6.0858061945018391E-3</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="32">
         <f t="shared" si="4"/>
         <v>1.2134325074666021E-2</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" ref="H33" si="5">STDEV(H1:H30)</f>
         <v>33.637355089156841</v>
+      </c>
+      <c r="K33" s="35">
+        <f t="shared" ref="K33" si="6">STDEV(K1:K30)</f>
+        <v>5.3332483738074161E-3</v>
+      </c>
+      <c r="M33" s="32">
+        <f t="shared" ref="M33" si="7">STDEV(M1:M30)</f>
+        <v>9.4052745386046781E-3</v>
       </c>
     </row>
   </sheetData>
@@ -9952,21 +10877,21 @@
       </c>
     </row>
     <row r="38" spans="1:19">
-      <c r="B38" s="33">
+      <c r="B38" s="34">
         <v>50</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="I38" s="33">
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="I38" s="34">
         <v>200</v>
       </c>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
       <c r="N38" s="22"/>
     </row>
   </sheetData>
@@ -26777,18 +27702,18 @@
       </c>
     </row>
     <row r="38" spans="1:19">
-      <c r="B38" s="32">
+      <c r="B38" s="33">
         <v>200</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="G38" s="33">
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="G38" s="34">
         <v>50</v>
       </c>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
       <c r="K38" s="29"/>
       <c r="L38" s="30"/>
       <c r="M38" s="28"/>

--- a/GA4Robust/Book1.xlsx
+++ b/GA4Robust/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenwang/Documents/ExperimentResults/GA4Robust/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A8A720-E58D-524B-A108-BF0CE8F305A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B8083F-459D-AC4F-9683-BB7DFE27A16D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="9" xr2:uid="{F1300CCD-A310-7946-86EE-3F30CFB335E8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19300" activeTab="10" xr2:uid="{F1300CCD-A310-7946-86EE-3F30CFB335E8}"/>
   </bookViews>
   <sheets>
     <sheet name="0901(50)" sheetId="1" r:id="rId1"/>
@@ -265,13 +265,13 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1403,7 +1403,7 @@
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
@@ -2720,8 +2720,8 @@
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3803,7 +3803,7 @@
         <f>AVERAGE(K1:K30)</f>
         <v>0.88767445186223315</v>
       </c>
-      <c r="M32" s="35">
+      <c r="M32" s="33">
         <f>AVERAGE(M1:M30)</f>
         <v>0.93252259813644289</v>
       </c>
@@ -3829,7 +3829,7 @@
         <f t="shared" ref="K33" si="6">STDEV(K1:K30)</f>
         <v>6.9395863561340379E-2</v>
       </c>
-      <c r="M33" s="35">
+      <c r="M33" s="33">
         <f t="shared" ref="M33" si="7">STDEV(M1:M30)</f>
         <v>2.7565318759046379E-3</v>
       </c>
@@ -7193,7 +7193,7 @@
         <f>AVERAGE(H1:H31)</f>
         <v>49.220427777777694</v>
       </c>
-      <c r="K32" s="35">
+      <c r="K32" s="33">
         <f>AVERAGE(K1:K30)</f>
         <v>0.82970606226073707</v>
       </c>
@@ -7223,7 +7223,7 @@
         <f t="shared" ref="H33" si="5">STDEV(H1:H30)</f>
         <v>33.637355089156841</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="33">
         <f t="shared" ref="K33" si="6">STDEV(K1:K30)</f>
         <v>5.3332483738074161E-3</v>
       </c>
@@ -10877,21 +10877,21 @@
       </c>
     </row>
     <row r="38" spans="1:19">
-      <c r="B38" s="34">
+      <c r="B38" s="35">
         <v>50</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="I38" s="34">
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="I38" s="35">
         <v>200</v>
       </c>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
       <c r="N38" s="22"/>
     </row>
   </sheetData>
@@ -27702,18 +27702,18 @@
       </c>
     </row>
     <row r="38" spans="1:19">
-      <c r="B38" s="33">
+      <c r="B38" s="34">
         <v>200</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="G38" s="34">
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="G38" s="35">
         <v>50</v>
       </c>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
       <c r="K38" s="29"/>
       <c r="L38" s="30"/>
       <c r="M38" s="28"/>
